--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{761B0433-433A-6A4F-A586-AC48DD8BB199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED61D2F-E23F-0749-B92D-AF40D23DB7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="384">
   <si>
     <t>Code</t>
   </si>
@@ -824,51 +824,33 @@
     <t>STPR8</t>
   </si>
   <si>
+    <t>CP44</t>
+  </si>
+  <si>
     <t>5600uF 10V</t>
   </si>
   <si>
     <t>CP40</t>
   </si>
   <si>
-    <t>cp14</t>
-  </si>
-  <si>
     <t>1000uf 16v</t>
   </si>
   <si>
-    <t>cp56</t>
-  </si>
-  <si>
     <t>3300uf 16v</t>
   </si>
   <si>
-    <t>cp39</t>
-  </si>
-  <si>
     <t>l7905acv</t>
   </si>
   <si>
-    <t>cp47</t>
-  </si>
-  <si>
     <t>1uf 50v</t>
   </si>
   <si>
     <t>100uf 25v</t>
   </si>
   <si>
-    <t>cp44</t>
-  </si>
-  <si>
-    <t>cp42</t>
-  </si>
-  <si>
     <t>470uf 25v</t>
   </si>
   <si>
-    <t>cp43</t>
-  </si>
-  <si>
     <t>1000uf 35v</t>
   </si>
   <si>
@@ -890,9 +872,6 @@
     <t>G1242</t>
   </si>
   <si>
-    <t>cp31</t>
-  </si>
-  <si>
     <t>6800 63-h wima cn 1%</t>
   </si>
   <si>
@@ -1071,13 +1050,148 @@
   </si>
   <si>
     <t>ES1D</t>
+  </si>
+  <si>
+    <t>CP14</t>
+  </si>
+  <si>
+    <t>CP31</t>
+  </si>
+  <si>
+    <t>CP39</t>
+  </si>
+  <si>
+    <t>CP42</t>
+  </si>
+  <si>
+    <t>CP43</t>
+  </si>
+  <si>
+    <t>CP47</t>
+  </si>
+  <si>
+    <t>CP56</t>
+  </si>
+  <si>
+    <t>RP12</t>
+  </si>
+  <si>
+    <t>Thermistor PTH451C</t>
+  </si>
+  <si>
+    <t>PTH451C</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>103Z 2KV</t>
+  </si>
+  <si>
+    <t>0.01uF 2000V</t>
+  </si>
+  <si>
+    <t>CP10</t>
+  </si>
+  <si>
+    <t>1uF 50V</t>
+  </si>
+  <si>
+    <t>1A3</t>
+  </si>
+  <si>
+    <t>0.001uF ??</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>IJ5</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>IA3</t>
+  </si>
+  <si>
+    <t>IJ4</t>
+  </si>
+  <si>
+    <t>DP15</t>
+  </si>
+  <si>
+    <t>A6P</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0 is uncertain</t>
+  </si>
+  <si>
+    <t>DP18</t>
+  </si>
+  <si>
+    <t>DP uncertain</t>
+  </si>
+  <si>
+    <t>IJ3</t>
+  </si>
+  <si>
+    <t>I?4</t>
+  </si>
+  <si>
+    <t>CL5</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>line above, A is maybe a lambda</t>
+  </si>
+  <si>
+    <t>3FP 2N</t>
+  </si>
+  <si>
+    <t>Y12 2N</t>
+  </si>
+  <si>
+    <t>CL3</t>
+  </si>
+  <si>
+    <t>maybe A is a kambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV1 </t>
+  </si>
+  <si>
+    <t>1A4</t>
+  </si>
+  <si>
+    <t>maybe 1 is I</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>a line above</t>
+  </si>
+  <si>
+    <t>CV16</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>0.33nF line above</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1088,6 +1202,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1140,14 +1262,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,10 +1300,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:E266" totalsRowShown="0">
-  <autoFilter ref="A1:E266" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E265">
-    <sortCondition ref="A1:A266"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:E276" totalsRowShown="0">
+  <autoFilter ref="A1:E276" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E276">
+    <sortCondition ref="A1:A276"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
@@ -1490,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1569,17 +1692,26 @@
       <c r="A6" t="s">
         <v>201</v>
       </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
       <c r="C6" t="s">
         <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
       <c r="C7" t="s">
         <v>186</v>
       </c>
@@ -1624,6 +1756,9 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>357</v>
+      </c>
       <c r="C11" t="s">
         <v>186</v>
       </c>
@@ -1660,17 +1795,26 @@
       <c r="A14" t="s">
         <v>200</v>
       </c>
+      <c r="B14" t="s">
+        <v>379</v>
+      </c>
       <c r="C14" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
       <c r="C15" t="s">
         <v>186</v>
       </c>
@@ -1682,6 +1826,9 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
       <c r="C16" t="s">
         <v>187</v>
       </c>
@@ -1693,6 +1840,9 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
       <c r="C17" t="s">
         <v>187</v>
       </c>
@@ -1702,35 +1852,39 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1738,49 +1892,50 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
+        <v>369</v>
+      </c>
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="B24" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
         <v>148</v>
@@ -1788,27 +1943,30 @@
       <c r="D24" t="s">
         <v>253</v>
       </c>
-      <c r="E24" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1816,10 +1974,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C27" t="s">
         <v>148</v>
@@ -1827,21 +1985,30 @@
       <c r="D27" t="s">
         <v>253</v>
       </c>
+      <c r="E27" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>349</v>
+      </c>
+      <c r="B28" t="s">
+        <v>350</v>
       </c>
       <c r="C28" t="s">
         <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E28" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
         <v>148</v>
@@ -1852,7 +2019,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>354</v>
       </c>
       <c r="C30" t="s">
         <v>148</v>
@@ -1860,13 +2030,16 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
+      <c r="E30" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C31" t="s">
         <v>148</v>
@@ -1877,58 +2050,55 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
         <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" t="s">
-        <v>296</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
         <v>253</v>
@@ -1936,10 +2106,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
         <v>163</v>
@@ -1950,24 +2120,27 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
         <v>253</v>
       </c>
+      <c r="E37" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
         <v>163</v>
@@ -1978,66 +2151,69 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>342</v>
+      </c>
+      <c r="B39" t="s">
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
         <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
         <v>253</v>
       </c>
-      <c r="E41" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
         <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -2045,10 +2221,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
         <v>163</v>
@@ -2059,52 +2235,52 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
         <v>253</v>
       </c>
+      <c r="E46" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -2112,52 +2288,52 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>329</v>
-      </c>
-      <c r="B49" t="s">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>325</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C51" t="s">
         <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
         <v>163</v>
@@ -2168,10 +2344,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -2179,13 +2358,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -2193,60 +2372,69 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>318</v>
+      </c>
+      <c r="B56" t="s">
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -2254,10 +2442,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -2265,10 +2456,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -2276,7 +2467,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>382</v>
       </c>
       <c r="C62" t="s">
         <v>108</v>
@@ -2287,7 +2481,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>376</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
       </c>
       <c r="C63" t="s">
         <v>108</v>
@@ -2298,7 +2495,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s">
         <v>235</v>
@@ -2310,12 +2507,12 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
         <v>108</v>
@@ -2326,7 +2523,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
         <v>108</v>
@@ -2337,7 +2534,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="C67" t="s">
         <v>108</v>
@@ -2348,7 +2545,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
         <v>108</v>
@@ -2359,18 +2556,19 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
       </c>
       <c r="C70" t="s">
         <v>108</v>
@@ -2381,7 +2579,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
         <v>108</v>
@@ -2392,7 +2590,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
         <v>235</v>
@@ -2404,12 +2602,12 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B73" t="s">
         <v>235</v>
@@ -2420,27 +2618,27 @@
       <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E73" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
+        <v>235</v>
       </c>
       <c r="C75" t="s">
         <v>108</v>
@@ -2451,10 +2649,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -2462,7 +2660,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
       </c>
       <c r="C77" t="s">
         <v>108</v>
@@ -2473,10 +2674,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
+        <v>382</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -2484,126 +2688,114 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" t="s">
-        <v>290</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
+        <v>372</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
-      </c>
-      <c r="E83" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>318</v>
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2611,93 +2803,116 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
+        <v>280</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" t="s">
-        <v>253</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
+        <v>309</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
+        <v>365</v>
+      </c>
+      <c r="B90" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>261</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>338</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
@@ -2705,92 +2920,77 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>328</v>
-      </c>
-      <c r="B95" t="s">
-        <v>280</v>
-      </c>
-      <c r="C95" t="s">
-        <v>163</v>
-      </c>
-      <c r="D95" t="s">
-        <v>253</v>
+        <v>90</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>343</v>
-      </c>
-      <c r="B96" t="s">
-        <v>270</v>
+        <v>155</v>
+      </c>
+      <c r="B96">
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>342</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>341</v>
-      </c>
-      <c r="B97" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
         <v>163</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97" t="s">
-        <v>339</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B98" t="s">
-        <v>332</v>
-      </c>
-      <c r="C98" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E98" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>255</v>
-      </c>
-      <c r="B99" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>373</v>
       </c>
       <c r="C100" t="s">
         <v>108</v>
@@ -2801,12 +3001,9 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D101" t="s">
@@ -2815,10 +3012,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
@@ -2829,10 +3023,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
         <v>108</v>
@@ -2843,97 +3034,109 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="B104" t="s">
+        <v>252</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="B105" t="s">
+        <v>274</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E105" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
+        <v>336</v>
+      </c>
+      <c r="B106" t="s">
+        <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="B107" t="s">
+        <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E107" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>184</v>
+        <v>324</v>
+      </c>
+      <c r="B108" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" t="s">
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E108" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -2941,7 +3144,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2955,7 +3158,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2967,9 +3170,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
       </c>
       <c r="C113" t="s">
         <v>108</v>
@@ -2978,78 +3184,96 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>59</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>282</v>
-      </c>
-      <c r="B115" t="s">
-        <v>283</v>
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>187</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>207</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>260</v>
-      </c>
-      <c r="B118" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>163</v>
+        <v>46</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D118" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>101</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
       </c>
       <c r="C120" t="s">
         <v>163</v>
@@ -3058,242 +3282,221 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" t="s">
+        <v>277</v>
+      </c>
+      <c r="D125" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>104</v>
       </c>
-      <c r="B121" t="s">
-        <v>336</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" t="s">
         <v>163</v>
       </c>
-      <c r="D121" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" t="s">
+        <v>328</v>
+      </c>
+      <c r="C132" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>103</v>
-      </c>
-      <c r="B122" t="s">
-        <v>335</v>
-      </c>
-      <c r="C122" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>144</v>
       </c>
-      <c r="B123">
+      <c r="B133">
         <v>153</v>
       </c>
-      <c r="C123" t="s">
-        <v>108</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="C133" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>19</v>
       </c>
-      <c r="B124">
+      <c r="B134">
         <v>331</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C134" t="s">
         <v>186</v>
       </c>
-      <c r="D124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>192</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B135" s="6">
         <v>106</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C135" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="D135" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>208</v>
       </c>
-      <c r="B126">
+      <c r="B136">
         <v>123</v>
       </c>
-      <c r="C126" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="C136" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>14</v>
       </c>
-      <c r="B127">
+      <c r="B137">
         <v>195</v>
-      </c>
-      <c r="C127" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>204</v>
-      </c>
-      <c r="B128">
-        <v>434</v>
-      </c>
-      <c r="C128" t="s">
-        <v>108</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>203</v>
-      </c>
-      <c r="B129">
-        <v>223</v>
-      </c>
-      <c r="C129" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>196</v>
-      </c>
-      <c r="B130">
-        <v>223</v>
-      </c>
-      <c r="C130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131">
-        <v>223</v>
-      </c>
-      <c r="C131" t="s">
-        <v>108</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>53</v>
-      </c>
-      <c r="B132">
-        <v>153</v>
-      </c>
-      <c r="C132" t="s">
-        <v>184</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B133">
-        <v>332</v>
-      </c>
-      <c r="C133" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135">
-        <v>102</v>
-      </c>
-      <c r="C135" t="s">
-        <v>186</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>39</v>
-      </c>
-      <c r="B136">
-        <v>471</v>
-      </c>
-      <c r="C136" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137">
-        <v>331</v>
       </c>
       <c r="C137" t="s">
         <v>186</v>
@@ -3302,26 +3505,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>217</v>
-      </c>
-      <c r="B138" s="1">
-        <v>104</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="B138">
+        <v>434</v>
+      </c>
+      <c r="C138" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="B139">
-        <v>753</v>
+        <v>223</v>
       </c>
       <c r="C139" t="s">
         <v>108</v>
@@ -3330,12 +3533,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B140">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
         <v>108</v>
@@ -3344,57 +3547,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B141">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>184</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143">
+        <v>332</v>
+      </c>
+      <c r="C143" t="s">
         <v>186</v>
       </c>
-      <c r="D141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>56</v>
-      </c>
-      <c r="B142">
-        <v>471</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>64</v>
-      </c>
-      <c r="B143">
-        <v>193</v>
-      </c>
-      <c r="C143" t="s">
-        <v>187</v>
-      </c>
       <c r="D143" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>32</v>
-      </c>
-      <c r="B144">
-        <v>321</v>
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -3402,13 +3605,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="B145">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C145" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -3416,13 +3619,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="B146">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -3430,13 +3633,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>62</v>
-      </c>
-      <c r="B147" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="B147">
+        <v>331</v>
       </c>
       <c r="C147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -3444,24 +3647,27 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>214</v>
-      </c>
-      <c r="B148">
-        <v>223</v>
-      </c>
-      <c r="C148" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148" t="s">
+        <v>217</v>
+      </c>
+      <c r="B148" s="6">
+        <v>104</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>55</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>187</v>
+        <v>109</v>
+      </c>
+      <c r="B149">
+        <v>753</v>
+      </c>
+      <c r="C149" t="s">
+        <v>108</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -3469,13 +3675,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="B150">
-        <v>471</v>
+        <v>128</v>
       </c>
       <c r="C150" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3483,10 +3689,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B151">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="C151" t="s">
         <v>186</v>
@@ -3497,13 +3703,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B152">
         <v>471</v>
       </c>
-      <c r="C152" t="s">
-        <v>186</v>
+      <c r="C152" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -3511,10 +3717,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B153">
-        <v>401</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
         <v>187</v>
@@ -3525,10 +3731,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B154">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C154" t="s">
         <v>187</v>
@@ -3539,13 +3745,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="B155">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -3553,10 +3759,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>189</v>
+      </c>
+      <c r="B156">
+        <v>472</v>
       </c>
       <c r="C156" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -3564,13 +3773,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157">
-        <v>154</v>
+        <v>62</v>
+      </c>
+      <c r="B157" t="s">
+        <v>63</v>
       </c>
       <c r="C157" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -3578,10 +3787,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="B158">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
         <v>108</v>
@@ -3592,13 +3801,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>25</v>
-      </c>
-      <c r="B159">
-        <v>220</v>
-      </c>
-      <c r="C159" t="s">
-        <v>186</v>
+        <v>55</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -3606,13 +3812,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B160">
-        <v>295</v>
+        <v>471</v>
       </c>
       <c r="C160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -3620,10 +3826,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B161">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="C161" t="s">
         <v>186</v>
@@ -3634,10 +3840,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B162">
-        <v>223</v>
+        <v>471</v>
       </c>
       <c r="C162" t="s">
         <v>186</v>
@@ -3648,13 +3854,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>213</v>
-      </c>
-      <c r="B163" t="s">
-        <v>215</v>
+        <v>33</v>
+      </c>
+      <c r="B163">
+        <v>401</v>
       </c>
       <c r="C163" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -3662,10 +3868,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>58</v>
-      </c>
-      <c r="B164" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B164">
+        <v>302</v>
       </c>
       <c r="C164" t="s">
         <v>187</v>
@@ -3676,10 +3882,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B165">
-        <v>393</v>
+        <v>153</v>
       </c>
       <c r="C165" t="s">
         <v>187</v>
@@ -3690,13 +3896,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -3704,13 +3907,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>28</v>
-      </c>
-      <c r="B167" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B167">
+        <v>154</v>
       </c>
       <c r="C167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -3718,10 +3921,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B168">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="C168" t="s">
         <v>108</v>
@@ -3732,13 +3935,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B169">
-        <v>474</v>
+        <v>220</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -3746,13 +3949,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B170">
-        <v>392</v>
+        <v>295</v>
       </c>
       <c r="C170" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -3760,13 +3963,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="B171">
-        <v>514</v>
+        <v>223</v>
       </c>
       <c r="C171" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -3774,13 +3977,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="B172">
-        <v>514</v>
+        <v>223</v>
       </c>
       <c r="C172" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -3788,13 +3991,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>36</v>
-      </c>
-      <c r="B173">
-        <v>105</v>
+        <v>213</v>
+      </c>
+      <c r="B173" t="s">
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -3802,13 +4005,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>212</v>
-      </c>
-      <c r="B174">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="B174" t="s">
+        <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -3816,13 +4019,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B175">
-        <v>470</v>
+        <v>393</v>
       </c>
       <c r="C175" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -3830,10 +4033,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B176">
-        <v>514</v>
+        <v>105</v>
       </c>
       <c r="C176" t="s">
         <v>187</v>
@@ -3844,13 +4047,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>41</v>
-      </c>
-      <c r="B177">
-        <v>295</v>
+        <v>28</v>
+      </c>
+      <c r="B177" t="s">
+        <v>29</v>
       </c>
       <c r="C177" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -3858,13 +4061,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B178">
-        <v>471</v>
+        <v>102</v>
       </c>
       <c r="C178" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -3872,13 +4075,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="B179">
-        <v>103</v>
+        <v>474</v>
       </c>
       <c r="C179" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -3886,13 +4089,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="B180">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="C180" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -3900,13 +4103,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="B181">
-        <v>683</v>
+        <v>514</v>
       </c>
       <c r="C181" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -3914,13 +4117,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="B182">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="C182" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -3928,13 +4131,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B183">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C183" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -3942,10 +4145,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>212</v>
+      </c>
+      <c r="B184">
+        <v>103</v>
       </c>
       <c r="C184" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -3953,30 +4159,27 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>291</v>
-      </c>
-      <c r="B185" t="s">
-        <v>292</v>
+        <v>26</v>
+      </c>
+      <c r="B185">
+        <v>470</v>
       </c>
       <c r="C185" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D185" t="s">
-        <v>253</v>
-      </c>
-      <c r="E185" t="s">
-        <v>313</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B186">
-        <v>101</v>
+        <v>514</v>
       </c>
       <c r="C186" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -3984,13 +4187,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>91</v>
-      </c>
-      <c r="B187" t="s">
-        <v>183</v>
+        <v>41</v>
+      </c>
+      <c r="B187">
+        <v>295</v>
       </c>
       <c r="C187" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -3998,27 +4201,27 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>321</v>
-      </c>
-      <c r="B188" t="s">
-        <v>309</v>
+        <v>30</v>
+      </c>
+      <c r="B188">
+        <v>471</v>
       </c>
       <c r="C188" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D188" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B189">
-        <v>470</v>
+        <v>103</v>
       </c>
       <c r="C189" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -4026,27 +4229,30 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="B190" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="C190" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D190" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B191">
-        <v>182</v>
+        <v>683</v>
       </c>
       <c r="C191" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -4054,64 +4260,66 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>152</v>
+        <v>236</v>
+      </c>
+      <c r="B192">
+        <v>472</v>
       </c>
       <c r="C192" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>301</v>
-      </c>
-      <c r="B193" t="s">
-        <v>302</v>
+        <v>210</v>
+      </c>
+      <c r="B193">
+        <v>104</v>
       </c>
       <c r="C193" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D193" t="s">
-        <v>253</v>
-      </c>
-      <c r="E193" s="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>322</v>
-      </c>
-      <c r="B194" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D194" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>150</v>
-      </c>
-      <c r="B195">
-        <v>153</v>
+        <v>284</v>
+      </c>
+      <c r="B195" t="s">
+        <v>285</v>
       </c>
       <c r="C195" t="s">
         <v>148</v>
       </c>
       <c r="D195" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E195" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>157</v>
-      </c>
-      <c r="B196" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+      <c r="B196">
+        <v>101</v>
       </c>
       <c r="C196" t="s">
         <v>148</v>
@@ -4122,24 +4330,27 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="C197" t="s">
         <v>148</v>
       </c>
       <c r="D197" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E197" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>162</v>
-      </c>
-      <c r="B198">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="B198" t="s">
+        <v>183</v>
       </c>
       <c r="C198" t="s">
         <v>148</v>
@@ -4150,38 +4361,38 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>151</v>
-      </c>
-      <c r="B199">
-        <v>472</v>
+        <v>314</v>
+      </c>
+      <c r="B199" t="s">
+        <v>302</v>
       </c>
       <c r="C199" t="s">
         <v>148</v>
       </c>
       <c r="D199" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>159</v>
-      </c>
-      <c r="B200" t="s">
-        <v>160</v>
-      </c>
-      <c r="C200" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B200">
+        <v>470</v>
+      </c>
+      <c r="C200" t="s">
         <v>148</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>313</v>
+      </c>
+      <c r="B201" t="s">
         <v>303</v>
-      </c>
-      <c r="B201" t="s">
-        <v>305</v>
       </c>
       <c r="C201" t="s">
         <v>148</v>
@@ -4189,73 +4400,70 @@
       <c r="D201" t="s">
         <v>253</v>
       </c>
-      <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>304</v>
-      </c>
-      <c r="B202" t="s">
-        <v>305</v>
+        <v>88</v>
+      </c>
+      <c r="B202">
+        <v>182</v>
       </c>
       <c r="C202" t="s">
         <v>148</v>
       </c>
       <c r="D202" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>178</v>
-      </c>
-      <c r="B203">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C203" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>180</v>
-      </c>
-      <c r="B204">
-        <v>203</v>
+        <v>294</v>
+      </c>
+      <c r="B204" t="s">
+        <v>295</v>
       </c>
       <c r="C204" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D204" t="s">
-        <v>4</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>87</v>
-      </c>
-      <c r="B205">
-        <v>471</v>
+        <v>315</v>
+      </c>
+      <c r="B205" t="s">
+        <v>301</v>
       </c>
       <c r="C205" t="s">
         <v>148</v>
       </c>
       <c r="D205" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B206">
-        <v>10001</v>
+        <v>153</v>
       </c>
       <c r="C206" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
@@ -4263,13 +4471,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>175</v>
-      </c>
-      <c r="B207">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="B207" t="s">
+        <v>63</v>
       </c>
       <c r="C207" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -4277,94 +4485,98 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>174</v>
-      </c>
-      <c r="B208">
-        <v>471</v>
+        <v>79</v>
+      </c>
+      <c r="B208" t="s">
+        <v>80</v>
       </c>
       <c r="C208" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="B209">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="B210">
-        <v>4701</v>
+        <v>472</v>
       </c>
       <c r="C210" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>105</v>
-      </c>
-      <c r="B211">
-        <v>103</v>
+        <v>159</v>
+      </c>
+      <c r="B211" t="s">
+        <v>160</v>
       </c>
       <c r="C211" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>97</v>
-      </c>
-      <c r="B212">
-        <v>102</v>
+        <v>296</v>
+      </c>
+      <c r="B212" t="s">
+        <v>298</v>
       </c>
       <c r="C212" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D212" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="C213" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D213" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B214">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C214" t="s">
         <v>163</v>
@@ -4373,26 +4585,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B215">
+        <v>203</v>
+      </c>
+      <c r="C215" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>87</v>
+      </c>
+      <c r="B216">
         <v>471</v>
-      </c>
-      <c r="C215" t="s">
-        <v>148</v>
-      </c>
-      <c r="D215" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>84</v>
-      </c>
-      <c r="B216">
-        <v>103</v>
       </c>
       <c r="C216" t="s">
         <v>148</v>
@@ -4401,26 +4613,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="B217">
-        <v>470</v>
+        <v>10001</v>
       </c>
       <c r="C217" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="B218">
-        <v>472</v>
+        <v>202</v>
       </c>
       <c r="C218" t="s">
         <v>163</v>
@@ -4429,26 +4641,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="B219">
-        <v>289</v>
+        <v>471</v>
       </c>
       <c r="C219" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B220">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C220" t="s">
         <v>163</v>
@@ -4457,12 +4669,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B221">
-        <v>103</v>
+        <v>4701</v>
       </c>
       <c r="C221" t="s">
         <v>163</v>
@@ -4471,12 +4683,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B222">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C222" t="s">
         <v>163</v>
@@ -4485,29 +4697,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C223" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D223" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>75</v>
-      </c>
-      <c r="B224">
-        <v>4531</v>
+        <v>172</v>
+      </c>
+      <c r="B224" t="s">
+        <v>173</v>
       </c>
       <c r="C224" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D224" t="s">
         <v>4</v>
@@ -4515,13 +4727,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>82</v>
-      </c>
-      <c r="B225" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="B225">
+        <v>202</v>
       </c>
       <c r="C225" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D225" t="s">
         <v>4</v>
@@ -4529,13 +4741,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B226">
-        <v>203</v>
+        <v>471</v>
       </c>
       <c r="C226" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -4543,13 +4755,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B227">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C227" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -4557,42 +4769,41 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>323</v>
-      </c>
-      <c r="B228" t="s">
-        <v>307</v>
+        <v>74</v>
+      </c>
+      <c r="B228">
+        <v>470</v>
       </c>
       <c r="C228" t="s">
         <v>148</v>
       </c>
       <c r="D228" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>299</v>
-      </c>
-      <c r="B229" t="s">
-        <v>300</v>
+        <v>70</v>
+      </c>
+      <c r="B229">
+        <v>472</v>
       </c>
       <c r="C229" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D229" t="s">
-        <v>253</v>
-      </c>
-      <c r="E229" s="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>93</v>
-      </c>
-      <c r="B230" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="B230">
+        <v>289</v>
       </c>
       <c r="C230" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -4600,10 +4811,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>95</v>
-      </c>
-      <c r="B231" t="s">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="B231">
+        <v>101</v>
       </c>
       <c r="C231" t="s">
         <v>163</v>
@@ -4614,13 +4825,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B232">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C232" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
@@ -4628,13 +4839,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="B233">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="C233" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D233" t="s">
         <v>4</v>
@@ -4642,13 +4853,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
@@ -4656,13 +4867,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="B235">
-        <v>100</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>163</v>
+        <v>4531</v>
+      </c>
+      <c r="C235" t="s">
+        <v>148</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
@@ -4670,13 +4881,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B236" t="s">
         <v>45</v>
       </c>
       <c r="C236" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D236" t="s">
         <v>4</v>
@@ -4684,13 +4895,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B237">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="C237" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D237" t="s">
         <v>4</v>
@@ -4698,13 +4909,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="B238">
-        <v>471</v>
+        <v>203</v>
       </c>
       <c r="C238" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D238" t="s">
         <v>4</v>
@@ -4712,38 +4923,42 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>126</v>
-      </c>
-      <c r="B239">
-        <v>105</v>
+        <v>316</v>
+      </c>
+      <c r="B239" t="s">
+        <v>300</v>
       </c>
       <c r="C239" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D239" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>124</v>
-      </c>
-      <c r="B240">
-        <v>105</v>
+        <v>292</v>
+      </c>
+      <c r="B240" t="s">
+        <v>293</v>
       </c>
       <c r="C240" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="B241" t="s">
+        <v>45</v>
       </c>
       <c r="C241" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
@@ -4751,13 +4966,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>223</v>
-      </c>
-      <c r="B242">
-        <v>750</v>
+        <v>95</v>
+      </c>
+      <c r="B242" t="s">
+        <v>45</v>
       </c>
       <c r="C242" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D242" t="s">
         <v>4</v>
@@ -4765,13 +4980,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B243">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C243" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
@@ -4779,13 +4994,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="B244">
-        <v>272</v>
+        <v>512</v>
       </c>
       <c r="C244" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -4793,13 +5008,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="B245">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
@@ -4807,13 +5022,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B246">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C246" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D246" t="s">
         <v>4</v>
@@ -4821,13 +5036,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>118</v>
-      </c>
-      <c r="B247">
-        <v>303</v>
+        <v>50</v>
+      </c>
+      <c r="B247" t="s">
+        <v>45</v>
       </c>
       <c r="C247" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D247" t="s">
         <v>4</v>
@@ -4835,13 +5050,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="B248">
-        <v>750</v>
+        <v>104</v>
       </c>
       <c r="C248" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
@@ -4849,10 +5064,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B249">
-        <v>222</v>
+        <v>471</v>
       </c>
       <c r="C249" t="s">
         <v>108</v>
@@ -4863,10 +5078,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B250">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C250" t="s">
         <v>108</v>
@@ -4877,10 +5092,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B251">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C251" t="s">
         <v>108</v>
@@ -4891,10 +5106,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>136</v>
-      </c>
-      <c r="B252">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C252" t="s">
         <v>108</v>
@@ -4905,7 +5117,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B253">
         <v>750</v>
@@ -4919,10 +5131,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>228</v>
-      </c>
-      <c r="B254" t="s">
-        <v>229</v>
+        <v>117</v>
+      </c>
+      <c r="B254">
+        <v>153</v>
       </c>
       <c r="C254" t="s">
         <v>108</v>
@@ -4933,10 +5145,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>232</v>
-      </c>
-      <c r="B255" t="s">
-        <v>229</v>
+        <v>246</v>
+      </c>
+      <c r="B255">
+        <v>272</v>
       </c>
       <c r="C255" t="s">
         <v>108</v>
@@ -4947,10 +5159,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="B256">
-        <v>750</v>
+        <v>682</v>
       </c>
       <c r="C256" t="s">
         <v>108</v>
@@ -4961,10 +5173,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="B257">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C257" t="s">
         <v>108</v>
@@ -4975,10 +5187,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="B258">
-        <v>752</v>
+        <v>303</v>
       </c>
       <c r="C258" t="s">
         <v>108</v>
@@ -4989,7 +5201,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B259">
         <v>750</v>
@@ -5003,10 +5215,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="B260">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="C260" t="s">
         <v>108</v>
@@ -5017,10 +5229,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B261">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="C261" t="s">
         <v>108</v>
@@ -5031,10 +5243,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B262">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C262" t="s">
         <v>108</v>
@@ -5045,10 +5257,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="B263">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="C263" t="s">
         <v>108</v>
@@ -5059,10 +5271,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B264">
-        <v>331</v>
+        <v>750</v>
       </c>
       <c r="C264" t="s">
         <v>108</v>
@@ -5073,21 +5285,175 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>228</v>
+      </c>
+      <c r="B265" t="s">
+        <v>229</v>
+      </c>
+      <c r="C265" t="s">
+        <v>108</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>232</v>
+      </c>
+      <c r="B266" t="s">
+        <v>229</v>
+      </c>
+      <c r="C266" t="s">
+        <v>108</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>224</v>
+      </c>
+      <c r="B267">
+        <v>750</v>
+      </c>
+      <c r="C267" t="s">
+        <v>108</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>250</v>
+      </c>
+      <c r="B268">
+        <v>203</v>
+      </c>
+      <c r="C268" t="s">
+        <v>108</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>249</v>
+      </c>
+      <c r="B269">
+        <v>752</v>
+      </c>
+      <c r="C269" t="s">
+        <v>108</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>225</v>
+      </c>
+      <c r="B270">
+        <v>750</v>
+      </c>
+      <c r="C270" t="s">
+        <v>108</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>248</v>
+      </c>
+      <c r="B271">
+        <v>333</v>
+      </c>
+      <c r="C271" t="s">
+        <v>108</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>116</v>
+      </c>
+      <c r="B272">
+        <v>393</v>
+      </c>
+      <c r="C272" t="s">
+        <v>108</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>119</v>
+      </c>
+      <c r="B273">
+        <v>123</v>
+      </c>
+      <c r="C273" t="s">
+        <v>108</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>242</v>
+      </c>
+      <c r="B274">
+        <v>331</v>
+      </c>
+      <c r="C274" t="s">
+        <v>108</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>241</v>
+      </c>
+      <c r="B275">
+        <v>331</v>
+      </c>
+      <c r="C275" t="s">
+        <v>108</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>240</v>
       </c>
-      <c r="B265">
+      <c r="B276">
         <v>331</v>
       </c>
-      <c r="C265" t="s">
-        <v>108</v>
-      </c>
-      <c r="D265" t="s">
+      <c r="C276" t="s">
+        <v>108</v>
+      </c>
+      <c r="D276" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A227 B228 A229:A1075">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A277:A1084 A1:A186 B187 A188:A222">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED61D2F-E23F-0749-B92D-AF40D23DB7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B020B77-0CDB-BD44-BE10-E87FA34B16DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="472">
   <si>
     <t>Code</t>
   </si>
@@ -863,21 +863,12 @@
     <t>100uf 215v</t>
   </si>
   <si>
-    <t>ql2</t>
-  </si>
-  <si>
     <t>MPF 990 M249</t>
   </si>
   <si>
     <t>G1242</t>
   </si>
   <si>
-    <t>6800 63-h wima cn 1%</t>
-  </si>
-  <si>
-    <t>dp1</t>
-  </si>
-  <si>
     <t>GBU6K GI 9302</t>
   </si>
   <si>
@@ -902,9 +893,6 @@
     <t>CP5</t>
   </si>
   <si>
-    <t>0.0022 uF</t>
-  </si>
-  <si>
     <t>CP38</t>
   </si>
   <si>
@@ -1127,9 +1115,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>0 is uncertain</t>
-  </si>
-  <si>
     <t>DP18</t>
   </si>
   <si>
@@ -1185,6 +1170,285 @@
   </si>
   <si>
     <t>0.33nF line above</t>
+  </si>
+  <si>
+    <t>QL2</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>10uF 16v</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>CF1</t>
+  </si>
+  <si>
+    <t>224 250v</t>
+  </si>
+  <si>
+    <t>poly capacitor</t>
+  </si>
+  <si>
+    <t>CF10</t>
+  </si>
+  <si>
+    <t>220uF 35v</t>
+  </si>
+  <si>
+    <t>electrolytic capacitor</t>
+  </si>
+  <si>
+    <t>CF11</t>
+  </si>
+  <si>
+    <t>470uF 35v</t>
+  </si>
+  <si>
+    <t>CF2</t>
+  </si>
+  <si>
+    <t>4.7uF 50v</t>
+  </si>
+  <si>
+    <t>CF4</t>
+  </si>
+  <si>
+    <t>100nF 63v</t>
+  </si>
+  <si>
+    <t>CF5</t>
+  </si>
+  <si>
+    <t>.1uF 100v</t>
+  </si>
+  <si>
+    <t>CF6</t>
+  </si>
+  <si>
+    <t>CF7</t>
+  </si>
+  <si>
+    <t>100uF 25v</t>
+  </si>
+  <si>
+    <t>CF8</t>
+  </si>
+  <si>
+    <t>3300uF 16v</t>
+  </si>
+  <si>
+    <t>CF9</t>
+  </si>
+  <si>
+    <t>220uF 25v</t>
+  </si>
+  <si>
+    <t>CL10</t>
+  </si>
+  <si>
+    <t>3.3uF 160v</t>
+  </si>
+  <si>
+    <t>CL11</t>
+  </si>
+  <si>
+    <t>1uF 50v</t>
+  </si>
+  <si>
+    <t>CL13</t>
+  </si>
+  <si>
+    <t>2.2uF 200v</t>
+  </si>
+  <si>
+    <t>CL14</t>
+  </si>
+  <si>
+    <t>47uF 100v</t>
+  </si>
+  <si>
+    <t>CL19</t>
+  </si>
+  <si>
+    <t>10uF 250v</t>
+  </si>
+  <si>
+    <t>CL20</t>
+  </si>
+  <si>
+    <t>103z 2kv</t>
+  </si>
+  <si>
+    <t>CL21</t>
+  </si>
+  <si>
+    <t>100uF 100v</t>
+  </si>
+  <si>
+    <t>CL23</t>
+  </si>
+  <si>
+    <t>100uF 6.3v</t>
+  </si>
+  <si>
+    <t>CL24</t>
+  </si>
+  <si>
+    <t>CL31</t>
+  </si>
+  <si>
+    <t>CL33</t>
+  </si>
+  <si>
+    <t>2.2uF 100v</t>
+  </si>
+  <si>
+    <t>CL34</t>
+  </si>
+  <si>
+    <t>CL35</t>
+  </si>
+  <si>
+    <t>.47uF 100v</t>
+  </si>
+  <si>
+    <t>CL36</t>
+  </si>
+  <si>
+    <t>CL4</t>
+  </si>
+  <si>
+    <t>CL8</t>
+  </si>
+  <si>
+    <t>.0082uF 600v</t>
+  </si>
+  <si>
+    <t>CL9</t>
+  </si>
+  <si>
+    <t>CP12</t>
+  </si>
+  <si>
+    <t>CP13</t>
+  </si>
+  <si>
+    <t>1000uF 35v</t>
+  </si>
+  <si>
+    <t>1000uF 16v</t>
+  </si>
+  <si>
+    <t>CP30</t>
+  </si>
+  <si>
+    <t>330uF 400V</t>
+  </si>
+  <si>
+    <t>6.8nF 600v</t>
+  </si>
+  <si>
+    <t>CP34</t>
+  </si>
+  <si>
+    <t>100uF 25V</t>
+  </si>
+  <si>
+    <t>CP35</t>
+  </si>
+  <si>
+    <t>CP41</t>
+  </si>
+  <si>
+    <t>CP46</t>
+  </si>
+  <si>
+    <t>1000uF 10v</t>
+  </si>
+  <si>
+    <t>CP54</t>
+  </si>
+  <si>
+    <t>CP55</t>
+  </si>
+  <si>
+    <t>330uF 16v</t>
+  </si>
+  <si>
+    <t>.22uF 250V</t>
+  </si>
+  <si>
+    <t>CS4</t>
+  </si>
+  <si>
+    <t>CV13</t>
+  </si>
+  <si>
+    <t>10uF 100v</t>
+  </si>
+  <si>
+    <t>CV17</t>
+  </si>
+  <si>
+    <t>CV18</t>
+  </si>
+  <si>
+    <t>CV19</t>
+  </si>
+  <si>
+    <t>CV20</t>
+  </si>
+  <si>
+    <t>CV21</t>
+  </si>
+  <si>
+    <t>CV25</t>
+  </si>
+  <si>
+    <t>10nF 100v</t>
+  </si>
+  <si>
+    <t>CV26</t>
+  </si>
+  <si>
+    <t>AA5??</t>
+  </si>
+  <si>
+    <t>SMD capacitor</t>
+  </si>
+  <si>
+    <t>CV27</t>
+  </si>
+  <si>
+    <t>CV29</t>
+  </si>
+  <si>
+    <t>CV30</t>
+  </si>
+  <si>
+    <t>CV33</t>
+  </si>
+  <si>
+    <t>CV39</t>
+  </si>
+  <si>
+    <t>CV40</t>
+  </si>
+  <si>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>poly capacitor, 6800 63-h wima cn 1%</t>
+  </si>
+  <si>
+    <t>capacitor 0.0022 uF</t>
+  </si>
+  <si>
+    <t>0.0022 uF capacitor</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1270,12 +1534,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1300,10 +1573,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:E276" totalsRowShown="0">
-  <autoFilter ref="A1:E276" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E276">
-    <sortCondition ref="A1:A276"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:E330" totalsRowShown="0">
+  <autoFilter ref="A1:E330" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E330">
+    <sortCondition ref="A1:A330"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
@@ -1613,16 +1886,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" customWidth="1"/>
   </cols>
@@ -1641,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,60 +1942,51 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -1732,7 +1997,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -1743,148 +2008,129 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
+        <v>391</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
+        <v>393</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
+        <v>396</v>
+      </c>
+      <c r="E13" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
+        <v>399</v>
+      </c>
+      <c r="E15" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
+        <v>401</v>
+      </c>
+      <c r="E16" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
+        <v>403</v>
+      </c>
+      <c r="E17" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="E19" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1892,81 +2138,68 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>409</v>
+      </c>
       <c r="E21" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>410</v>
+      </c>
+      <c r="B22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" t="s">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>339</v>
-      </c>
-      <c r="B25" t="s">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1974,313 +2207,272 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" t="s">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" t="s">
-        <v>351</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
+        <v>414</v>
+      </c>
+      <c r="B29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="E30" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>418</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
+        <v>419</v>
+      </c>
+      <c r="E32" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>420</v>
       </c>
       <c r="B33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
+        <v>407</v>
+      </c>
+      <c r="E33" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" t="s">
-        <v>289</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" t="s">
-        <v>253</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" t="s">
-        <v>253</v>
+        <v>407</v>
+      </c>
+      <c r="E40" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" t="s">
-        <v>253</v>
+        <v>423</v>
+      </c>
+      <c r="E41" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" t="s">
-        <v>253</v>
+        <v>423</v>
+      </c>
+      <c r="E42" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>425</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
+        <v>426</v>
+      </c>
+      <c r="E43" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
+        <v>394</v>
+      </c>
+      <c r="E44" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" t="s">
-        <v>253</v>
+        <v>399</v>
       </c>
       <c r="E46" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s">
-        <v>357</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>4</v>
+        <v>365</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" t="s">
-        <v>357</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -2288,35 +2480,32 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
+        <v>429</v>
+      </c>
+      <c r="B49" t="s">
+        <v>430</v>
+      </c>
+      <c r="E49" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
+        <v>405</v>
+      </c>
+      <c r="E50" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
         <v>148</v>
@@ -2325,85 +2514,88 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>253</v>
       </c>
+      <c r="E52" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
+        <v>417</v>
+      </c>
+      <c r="E53" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
+        <v>434</v>
+      </c>
+      <c r="E54" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
         <v>253</v>
       </c>
+      <c r="E55" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s">
         <v>148</v>
@@ -2411,30 +2603,33 @@
       <c r="D57" t="s">
         <v>253</v>
       </c>
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B58" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
         <v>253</v>
       </c>
+      <c r="E58" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -2442,52 +2637,58 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
+        <v>436</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+      <c r="E61" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E62" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -2495,49 +2696,49 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>247</v>
-      </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
+        <v>439</v>
+      </c>
+      <c r="B65" t="s">
+        <v>440</v>
+      </c>
+      <c r="E65" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
+        <v>441</v>
+      </c>
+      <c r="B66" t="s">
+        <v>407</v>
+      </c>
+      <c r="E66" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>233</v>
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>355</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -2545,142 +2746,166 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>286</v>
+      </c>
+      <c r="B68" t="s">
+        <v>287</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
-      </c>
-      <c r="D69" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E70" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>265</v>
+      </c>
+      <c r="B71" t="s">
+        <v>264</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E71" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="E72" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E73" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E75" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+        <v>443</v>
+      </c>
+      <c r="B76" t="s">
+        <v>444</v>
+      </c>
+      <c r="E76" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -2688,75 +2913,73 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
         <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>308</v>
+        <v>102</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
-        <v>372</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>108</v>
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2764,75 +2987,75 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>352</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>445</v>
       </c>
       <c r="B85" t="s">
-        <v>309</v>
-      </c>
-      <c r="C85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+        <v>407</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>446</v>
       </c>
       <c r="B86" t="s">
-        <v>309</v>
-      </c>
-      <c r="C86" t="s">
-        <v>186</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>407</v>
+      </c>
+      <c r="E86" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>280</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" t="s">
         <v>253</v>
-      </c>
-      <c r="E87" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
-      </c>
-      <c r="D88" s="5"/>
+        <v>447</v>
+      </c>
+      <c r="E88" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
         <v>148</v>
@@ -2840,31 +3063,30 @@
       <c r="D89" t="s">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" t="s">
-        <v>366</v>
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
         <v>253</v>
@@ -2872,47 +3094,38 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C92" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" t="s">
-        <v>311</v>
+      <c r="D92" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
-      </c>
-      <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="E93" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
@@ -2920,80 +3133,74 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>4</v>
+        <v>313</v>
+      </c>
+      <c r="B95" t="s">
+        <v>448</v>
       </c>
       <c r="E95" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96">
-        <v>101</v>
+        <v>316</v>
+      </c>
+      <c r="B96" t="s">
+        <v>275</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" t="s">
-        <v>163</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
+        <v>316</v>
+      </c>
+      <c r="B97" t="s">
+        <v>399</v>
+      </c>
+      <c r="E97" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>319</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
+      </c>
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
+        <v>449</v>
+      </c>
+      <c r="B99" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -3001,10 +3208,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>108</v>
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>163</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -3012,7 +3219,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="B102" t="s">
+        <v>377</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
@@ -3023,7 +3233,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>371</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
       </c>
       <c r="C103" t="s">
         <v>108</v>
@@ -3034,106 +3247,82 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C104" t="s">
         <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>321</v>
-      </c>
-      <c r="B105" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" t="s">
-        <v>327</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>336</v>
-      </c>
-      <c r="B106" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>450</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" t="s">
-        <v>163</v>
-      </c>
-      <c r="D107" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="E107" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>324</v>
-      </c>
-      <c r="B108" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s">
         <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>255</v>
-      </c>
-      <c r="B109" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
         <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="B110" t="s">
+        <v>377</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
@@ -3144,94 +3333,76 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" t="s">
-        <v>4</v>
+        <v>452</v>
+      </c>
+      <c r="B111" t="s">
+        <v>399</v>
+      </c>
+      <c r="E111" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="B112" t="s">
+        <v>409</v>
+      </c>
+      <c r="E112" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="B113" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>59</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>187</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+      <c r="B115" t="s">
+        <v>409</v>
+      </c>
+      <c r="E115" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>197</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="B116" t="s">
+        <v>399</v>
+      </c>
+      <c r="E116" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>207</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
         <v>108</v>
@@ -3240,79 +3411,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>184</v>
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>108</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>101</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120" t="s">
-        <v>163</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="B120" t="s">
+        <v>458</v>
+      </c>
+      <c r="E120" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>108</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="B121" t="s">
+        <v>460</v>
+      </c>
+      <c r="E121" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>108</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="B122" t="s">
+        <v>460</v>
+      </c>
+      <c r="E122" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>235</v>
       </c>
       <c r="C123" t="s">
         <v>108</v>
@@ -3321,70 +3489,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>113</v>
-      </c>
-      <c r="C124" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="B124" t="s">
+        <v>415</v>
+      </c>
+      <c r="E124" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>235</v>
+      </c>
+      <c r="C125" t="s">
+        <v>108</v>
       </c>
       <c r="D125" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>194</v>
-      </c>
-      <c r="C126" t="s">
-        <v>187</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="B126" t="s">
+        <v>415</v>
+      </c>
+      <c r="E126" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="B127" t="s">
+        <v>415</v>
+      </c>
+      <c r="E127" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>260</v>
+        <v>466</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D128" t="s">
-        <v>253</v>
+        <v>407</v>
+      </c>
+      <c r="E128" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -3392,55 +3560,49 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
+        <v>467</v>
+      </c>
+      <c r="B130" t="s">
+        <v>407</v>
+      </c>
+      <c r="E130" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
-      </c>
-      <c r="E131" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
-      </c>
-      <c r="E132" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>144</v>
-      </c>
-      <c r="B133">
-        <v>153</v>
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>235</v>
       </c>
       <c r="C133" t="s">
         <v>108</v>
@@ -3451,55 +3613,61 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>19</v>
-      </c>
-      <c r="B134">
-        <v>331</v>
+        <v>239</v>
+      </c>
+      <c r="B134" t="s">
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>192</v>
-      </c>
-      <c r="B135" s="6">
-        <v>106</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>4</v>
+        <v>238</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>208</v>
-      </c>
-      <c r="B136">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C136" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137">
-        <v>195</v>
-      </c>
-      <c r="C137" t="s">
-        <v>186</v>
+        <v>111</v>
+      </c>
+      <c r="B137" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -3507,13 +3675,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>204</v>
-      </c>
-      <c r="B138">
-        <v>434</v>
+        <v>65</v>
       </c>
       <c r="C138" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -3521,10 +3686,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>203</v>
-      </c>
-      <c r="B139">
-        <v>223</v>
+        <v>110</v>
+      </c>
+      <c r="B139" t="s">
+        <v>305</v>
       </c>
       <c r="C139" t="s">
         <v>108</v>
@@ -3535,13 +3700,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>196</v>
-      </c>
-      <c r="B140">
-        <v>223</v>
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>305</v>
       </c>
       <c r="C140" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -3549,497 +3714,508 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
-      </c>
-      <c r="B141">
-        <v>223</v>
-      </c>
-      <c r="C141" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" t="s">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E141" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>53</v>
-      </c>
-      <c r="B142">
-        <v>153</v>
-      </c>
-      <c r="C142" t="s">
-        <v>184</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B142" t="s">
+        <v>358</v>
+      </c>
+      <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>40</v>
-      </c>
-      <c r="B143">
-        <v>332</v>
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
+        <v>305</v>
       </c>
       <c r="C143" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" t="s">
-        <v>108</v>
-      </c>
-      <c r="D144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145">
-        <v>102</v>
+        <v>261</v>
+      </c>
+      <c r="B145" t="s">
+        <v>262</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>39</v>
-      </c>
-      <c r="B146">
-        <v>471</v>
-      </c>
-      <c r="C146" t="s">
-        <v>186</v>
-      </c>
-      <c r="D146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147">
+        <v>169</v>
+      </c>
+      <c r="B147" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>258</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>90</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>101</v>
+      </c>
+      <c r="C150" t="s">
+        <v>148</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>315</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" t="s">
+        <v>368</v>
+      </c>
+      <c r="C154" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" t="s">
+        <v>108</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>254</v>
+      </c>
+      <c r="B158" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" t="s">
+        <v>108</v>
+      </c>
+      <c r="D158" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" t="s">
+        <v>274</v>
+      </c>
+      <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>332</v>
+      </c>
+      <c r="B160" t="s">
+        <v>268</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s">
+        <v>253</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C147" t="s">
-        <v>186</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>217</v>
-      </c>
-      <c r="B148" s="6">
-        <v>104</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>109</v>
-      </c>
-      <c r="B149">
-        <v>753</v>
-      </c>
-      <c r="C149" t="s">
-        <v>108</v>
-      </c>
-      <c r="D149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>198</v>
-      </c>
-      <c r="B150">
-        <v>128</v>
-      </c>
-      <c r="C150" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151">
-        <v>272</v>
-      </c>
-      <c r="C151" t="s">
-        <v>186</v>
-      </c>
-      <c r="D151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152">
-        <v>471</v>
-      </c>
-      <c r="C152" s="6" t="s">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>330</v>
+      </c>
+      <c r="B161" t="s">
+        <v>329</v>
+      </c>
+      <c r="C161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161" t="s">
+        <v>253</v>
+      </c>
+      <c r="E161" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" t="s">
+        <v>108</v>
+      </c>
+      <c r="D162" t="s">
+        <v>253</v>
+      </c>
+      <c r="E162" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>255</v>
+      </c>
+      <c r="B163" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>108</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>108</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>108</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
         <v>187</v>
       </c>
-      <c r="D152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>64</v>
-      </c>
-      <c r="B153">
-        <v>193</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
         <v>187</v>
       </c>
-      <c r="D153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154">
-        <v>321</v>
-      </c>
-      <c r="C154" t="s">
-        <v>187</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>199</v>
-      </c>
-      <c r="B155">
-        <v>151</v>
-      </c>
-      <c r="C155" t="s">
-        <v>108</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>189</v>
-      </c>
-      <c r="B156">
-        <v>472</v>
-      </c>
-      <c r="C156" t="s">
-        <v>187</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>62</v>
-      </c>
-      <c r="B157" t="s">
-        <v>63</v>
-      </c>
-      <c r="C157" t="s">
-        <v>187</v>
-      </c>
-      <c r="D157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>214</v>
-      </c>
-      <c r="B158">
-        <v>223</v>
-      </c>
-      <c r="C158" t="s">
-        <v>108</v>
-      </c>
-      <c r="D158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>55</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160">
-        <v>471</v>
-      </c>
-      <c r="C160" t="s">
-        <v>186</v>
-      </c>
-      <c r="D160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161">
-        <v>180</v>
-      </c>
-      <c r="C161" t="s">
-        <v>186</v>
-      </c>
-      <c r="D161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>16</v>
-      </c>
-      <c r="B162">
-        <v>471</v>
-      </c>
-      <c r="C162" t="s">
-        <v>186</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>33</v>
-      </c>
-      <c r="B163">
-        <v>401</v>
-      </c>
-      <c r="C163" t="s">
-        <v>187</v>
-      </c>
-      <c r="D163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>57</v>
-      </c>
-      <c r="B164">
-        <v>302</v>
-      </c>
-      <c r="C164" t="s">
-        <v>187</v>
-      </c>
-      <c r="D164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165">
-        <v>153</v>
-      </c>
-      <c r="C165" t="s">
-        <v>187</v>
-      </c>
-      <c r="D165" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>220</v>
-      </c>
-      <c r="C166" t="s">
-        <v>108</v>
-      </c>
-      <c r="D166" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>27</v>
-      </c>
-      <c r="B167">
-        <v>154</v>
-      </c>
-      <c r="C167" t="s">
-        <v>186</v>
-      </c>
-      <c r="D167" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168">
-        <v>392</v>
-      </c>
-      <c r="C168" t="s">
-        <v>108</v>
-      </c>
-      <c r="D168" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>25</v>
-      </c>
-      <c r="B169">
-        <v>220</v>
-      </c>
-      <c r="C169" t="s">
-        <v>186</v>
-      </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="B170">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="B171">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B172">
-        <v>223</v>
-      </c>
-      <c r="C172" t="s">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>58</v>
-      </c>
-      <c r="B174" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B175">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="B176">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -4047,13 +4223,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>28</v>
-      </c>
-      <c r="B177" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="C177" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -4061,10 +4234,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>139</v>
-      </c>
-      <c r="B178">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C178" t="s">
         <v>108</v>
@@ -4075,27 +4245,21 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>140</v>
-      </c>
-      <c r="B179">
-        <v>474</v>
-      </c>
-      <c r="C179" t="s">
-        <v>108</v>
+        <v>379</v>
+      </c>
+      <c r="B179" t="s">
+        <v>276</v>
       </c>
       <c r="D179" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>20</v>
-      </c>
-      <c r="B180">
-        <v>392</v>
+        <v>194</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -4103,13 +4267,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>195</v>
-      </c>
-      <c r="B181">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -4117,27 +4278,24 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>191</v>
-      </c>
-      <c r="B182">
-        <v>514</v>
-      </c>
-      <c r="C182" t="s">
-        <v>187</v>
+        <v>260</v>
+      </c>
+      <c r="B182" t="s">
+        <v>259</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="D182" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -4145,13 +4303,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>212</v>
-      </c>
-      <c r="B184">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C184" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -4159,41 +4314,47 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>26</v>
-      </c>
-      <c r="B185">
-        <v>470</v>
+        <v>104</v>
+      </c>
+      <c r="B185" t="s">
+        <v>325</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>38</v>
-      </c>
-      <c r="B186">
-        <v>514</v>
+        <v>103</v>
+      </c>
+      <c r="B186" t="s">
+        <v>324</v>
       </c>
       <c r="C186" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B187">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="C187" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -4201,13 +4362,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B188">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="C188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -4215,41 +4376,38 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>43</v>
-      </c>
-      <c r="B189">
-        <v>103</v>
-      </c>
-      <c r="C189" t="s">
-        <v>186</v>
-      </c>
-      <c r="D189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="6">
+        <v>106</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>211</v>
-      </c>
-      <c r="B190" t="s">
-        <v>370</v>
+        <v>208</v>
+      </c>
+      <c r="B190">
+        <v>123</v>
       </c>
       <c r="C190" t="s">
         <v>108</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
-      </c>
-      <c r="E190" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B191">
-        <v>683</v>
+        <v>195</v>
       </c>
       <c r="C191" t="s">
         <v>186</v>
@@ -4260,10 +4418,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B192">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="C192" t="s">
         <v>108</v>
@@ -4272,1124 +4430,1120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B193">
+        <v>223</v>
+      </c>
+      <c r="C193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194">
+        <v>223</v>
+      </c>
+      <c r="C194" t="s">
+        <v>108</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>145</v>
+      </c>
+      <c r="B195">
+        <v>223</v>
+      </c>
+      <c r="C195" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>53</v>
+      </c>
+      <c r="B196">
+        <v>153</v>
+      </c>
+      <c r="C196" t="s">
+        <v>184</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197">
+        <v>332</v>
+      </c>
+      <c r="C197" t="s">
+        <v>186</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>142</v>
+      </c>
+      <c r="B198" t="s">
+        <v>143</v>
+      </c>
+      <c r="C198" t="s">
+        <v>108</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199">
+        <v>102</v>
+      </c>
+      <c r="C199" t="s">
+        <v>186</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+      <c r="B200">
+        <v>471</v>
+      </c>
+      <c r="C200" t="s">
+        <v>186</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201">
+        <v>331</v>
+      </c>
+      <c r="C201" t="s">
+        <v>186</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>217</v>
+      </c>
+      <c r="B202" s="6">
         <v>104</v>
       </c>
-      <c r="C193" t="s">
-        <v>108</v>
-      </c>
-      <c r="D193" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="C202" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>109</v>
+      </c>
+      <c r="B203">
+        <v>753</v>
+      </c>
+      <c r="C203" t="s">
+        <v>108</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>198</v>
+      </c>
+      <c r="B204">
+        <v>128</v>
+      </c>
+      <c r="C204" t="s">
+        <v>108</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
+        <v>272</v>
+      </c>
+      <c r="C205" t="s">
+        <v>186</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206">
+        <v>471</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>64</v>
+      </c>
+      <c r="B207">
         <v>193</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C207" t="s">
         <v>187</v>
       </c>
-      <c r="D194" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>284</v>
-      </c>
-      <c r="B195" t="s">
-        <v>285</v>
-      </c>
-      <c r="C195" t="s">
-        <v>148</v>
-      </c>
-      <c r="D195" t="s">
-        <v>253</v>
-      </c>
-      <c r="E195" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>86</v>
-      </c>
-      <c r="B196">
-        <v>101</v>
-      </c>
-      <c r="C196" t="s">
-        <v>148</v>
-      </c>
-      <c r="D196" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>346</v>
-      </c>
-      <c r="B197" t="s">
-        <v>348</v>
-      </c>
-      <c r="C197" t="s">
-        <v>148</v>
-      </c>
-      <c r="D197" t="s">
-        <v>253</v>
-      </c>
-      <c r="E197" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>91</v>
-      </c>
-      <c r="B198" t="s">
-        <v>183</v>
-      </c>
-      <c r="C198" t="s">
-        <v>148</v>
-      </c>
-      <c r="D198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>314</v>
-      </c>
-      <c r="B199" t="s">
-        <v>302</v>
-      </c>
-      <c r="C199" t="s">
-        <v>148</v>
-      </c>
-      <c r="D199" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>92</v>
-      </c>
-      <c r="B200">
-        <v>470</v>
-      </c>
-      <c r="C200" t="s">
-        <v>148</v>
-      </c>
-      <c r="D200" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>313</v>
-      </c>
-      <c r="B201" t="s">
-        <v>303</v>
-      </c>
-      <c r="C201" t="s">
-        <v>148</v>
-      </c>
-      <c r="D201" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>88</v>
-      </c>
-      <c r="B202">
-        <v>182</v>
-      </c>
-      <c r="C202" t="s">
-        <v>148</v>
-      </c>
-      <c r="D202" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>152</v>
-      </c>
-      <c r="C203" t="s">
-        <v>148</v>
-      </c>
-      <c r="D203" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>294</v>
-      </c>
-      <c r="B204" t="s">
-        <v>295</v>
-      </c>
-      <c r="C204" t="s">
-        <v>148</v>
-      </c>
-      <c r="D204" t="s">
-        <v>253</v>
-      </c>
-      <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>315</v>
-      </c>
-      <c r="B205" t="s">
-        <v>301</v>
-      </c>
-      <c r="C205" t="s">
-        <v>148</v>
-      </c>
-      <c r="D205" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>150</v>
-      </c>
-      <c r="B206">
-        <v>153</v>
-      </c>
-      <c r="C206" t="s">
-        <v>148</v>
-      </c>
-      <c r="D206" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>157</v>
-      </c>
-      <c r="B207" t="s">
-        <v>63</v>
-      </c>
-      <c r="C207" t="s">
-        <v>148</v>
-      </c>
       <c r="D207" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>79</v>
-      </c>
-      <c r="B208" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="B208">
+        <v>321</v>
       </c>
       <c r="C208" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
       </c>
-      <c r="E208" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="B209">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C209" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B210">
         <v>472</v>
       </c>
       <c r="C210" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C211" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>296</v>
-      </c>
-      <c r="B212" t="s">
-        <v>298</v>
+        <v>214</v>
+      </c>
+      <c r="B212">
+        <v>223</v>
       </c>
       <c r="C212" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D212" t="s">
-        <v>253</v>
-      </c>
-      <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>297</v>
-      </c>
-      <c r="B213" t="s">
-        <v>298</v>
-      </c>
-      <c r="C213" t="s">
-        <v>148</v>
+        <v>55</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D213" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="B214">
-        <v>189</v>
+        <v>471</v>
       </c>
       <c r="C214" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215">
         <v>180</v>
       </c>
-      <c r="B215">
-        <v>203</v>
-      </c>
       <c r="C215" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B216">
         <v>471</v>
       </c>
       <c r="C216" t="s">
+        <v>186</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>33</v>
+      </c>
+      <c r="B217">
+        <v>401</v>
+      </c>
+      <c r="C217" t="s">
+        <v>187</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218">
+        <v>302</v>
+      </c>
+      <c r="C218" t="s">
+        <v>187</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>153</v>
+      </c>
+      <c r="C219" t="s">
+        <v>187</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" t="s">
+        <v>108</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B221">
+        <v>154</v>
+      </c>
+      <c r="C221" t="s">
+        <v>186</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>35</v>
+      </c>
+      <c r="B222">
+        <v>392</v>
+      </c>
+      <c r="C222" t="s">
+        <v>108</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223">
+        <v>220</v>
+      </c>
+      <c r="C223" t="s">
+        <v>186</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224">
+        <v>295</v>
+      </c>
+      <c r="C224" t="s">
+        <v>187</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225">
+        <v>223</v>
+      </c>
+      <c r="C225" t="s">
+        <v>186</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226">
+        <v>223</v>
+      </c>
+      <c r="C226" t="s">
+        <v>186</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>213</v>
+      </c>
+      <c r="B227" t="s">
+        <v>215</v>
+      </c>
+      <c r="C227" t="s">
+        <v>108</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>58</v>
+      </c>
+      <c r="B228" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" t="s">
+        <v>187</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>61</v>
+      </c>
+      <c r="B229">
+        <v>393</v>
+      </c>
+      <c r="C229" t="s">
+        <v>187</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>105</v>
+      </c>
+      <c r="C230" t="s">
+        <v>187</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" t="s">
+        <v>29</v>
+      </c>
+      <c r="C231" t="s">
+        <v>187</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>139</v>
+      </c>
+      <c r="B232">
+        <v>102</v>
+      </c>
+      <c r="C232" t="s">
+        <v>108</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>140</v>
+      </c>
+      <c r="B233">
+        <v>474</v>
+      </c>
+      <c r="C233" t="s">
+        <v>108</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234">
+        <v>392</v>
+      </c>
+      <c r="C234" t="s">
+        <v>186</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>195</v>
+      </c>
+      <c r="B235">
+        <v>514</v>
+      </c>
+      <c r="C235" t="s">
+        <v>108</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236">
+        <v>514</v>
+      </c>
+      <c r="C236" t="s">
+        <v>187</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>36</v>
+      </c>
+      <c r="B237">
+        <v>105</v>
+      </c>
+      <c r="C237" t="s">
+        <v>187</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>212</v>
+      </c>
+      <c r="B238">
+        <v>103</v>
+      </c>
+      <c r="C238" t="s">
+        <v>108</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239">
+        <v>470</v>
+      </c>
+      <c r="C239" t="s">
+        <v>186</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>38</v>
+      </c>
+      <c r="B240">
+        <v>514</v>
+      </c>
+      <c r="C240" t="s">
+        <v>187</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>41</v>
+      </c>
+      <c r="B241">
+        <v>295</v>
+      </c>
+      <c r="C241" t="s">
+        <v>186</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242">
+        <v>471</v>
+      </c>
+      <c r="C242" t="s">
+        <v>187</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>43</v>
+      </c>
+      <c r="B243">
+        <v>103</v>
+      </c>
+      <c r="C243" t="s">
+        <v>186</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>211</v>
+      </c>
+      <c r="B244" t="s">
+        <v>365</v>
+      </c>
+      <c r="C244" t="s">
+        <v>108</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>42</v>
+      </c>
+      <c r="B245">
+        <v>683</v>
+      </c>
+      <c r="C245" t="s">
+        <v>186</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>236</v>
+      </c>
+      <c r="B246">
+        <v>472</v>
+      </c>
+      <c r="C246" t="s">
+        <v>108</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>210</v>
+      </c>
+      <c r="B247">
+        <v>104</v>
+      </c>
+      <c r="C247" t="s">
+        <v>108</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>193</v>
+      </c>
+      <c r="C248" t="s">
+        <v>187</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>281</v>
+      </c>
+      <c r="B249" t="s">
+        <v>282</v>
+      </c>
+      <c r="C249" t="s">
         <v>148</v>
       </c>
-      <c r="D216" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="D249" t="s">
+        <v>253</v>
+      </c>
+      <c r="E249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>86</v>
+      </c>
+      <c r="B250">
+        <v>101</v>
+      </c>
+      <c r="C250" t="s">
+        <v>148</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>342</v>
+      </c>
+      <c r="B251" t="s">
+        <v>344</v>
+      </c>
+      <c r="C251" t="s">
+        <v>148</v>
+      </c>
+      <c r="D251" t="s">
+        <v>253</v>
+      </c>
+      <c r="E251" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>91</v>
+      </c>
+      <c r="B252" t="s">
+        <v>183</v>
+      </c>
+      <c r="C252" t="s">
+        <v>148</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>310</v>
+      </c>
+      <c r="B253" t="s">
+        <v>298</v>
+      </c>
+      <c r="C253" t="s">
+        <v>148</v>
+      </c>
+      <c r="D253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>92</v>
+      </c>
+      <c r="B254">
+        <v>470</v>
+      </c>
+      <c r="C254" t="s">
+        <v>148</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>309</v>
+      </c>
+      <c r="B255" t="s">
+        <v>299</v>
+      </c>
+      <c r="C255" t="s">
+        <v>148</v>
+      </c>
+      <c r="D255" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>88</v>
+      </c>
+      <c r="B256">
+        <v>182</v>
+      </c>
+      <c r="C256" t="s">
+        <v>148</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>152</v>
+      </c>
+      <c r="C257" t="s">
+        <v>148</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>290</v>
+      </c>
+      <c r="B258" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" t="s">
+        <v>148</v>
+      </c>
+      <c r="D258" t="s">
+        <v>253</v>
+      </c>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>311</v>
+      </c>
+      <c r="B259" t="s">
+        <v>297</v>
+      </c>
+      <c r="C259" t="s">
+        <v>148</v>
+      </c>
+      <c r="D259" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>150</v>
+      </c>
+      <c r="B260">
+        <v>153</v>
+      </c>
+      <c r="C260" t="s">
+        <v>148</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>157</v>
+      </c>
+      <c r="B261" t="s">
+        <v>63</v>
+      </c>
+      <c r="C261" t="s">
+        <v>148</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>79</v>
+      </c>
+      <c r="B262" t="s">
+        <v>80</v>
+      </c>
+      <c r="C262" t="s">
+        <v>148</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>162</v>
+      </c>
+      <c r="B263">
+        <v>103</v>
+      </c>
+      <c r="C263" t="s">
+        <v>148</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>151</v>
+      </c>
+      <c r="B264">
+        <v>472</v>
+      </c>
+      <c r="C264" t="s">
+        <v>148</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>159</v>
+      </c>
+      <c r="B265" t="s">
+        <v>160</v>
+      </c>
+      <c r="C265" t="s">
+        <v>148</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>292</v>
+      </c>
+      <c r="B266" t="s">
+        <v>294</v>
+      </c>
+      <c r="C266" t="s">
+        <v>148</v>
+      </c>
+      <c r="D266" t="s">
+        <v>253</v>
+      </c>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>293</v>
+      </c>
+      <c r="B267" t="s">
+        <v>294</v>
+      </c>
+      <c r="C267" t="s">
+        <v>148</v>
+      </c>
+      <c r="D267" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>178</v>
+      </c>
+      <c r="B268">
+        <v>189</v>
+      </c>
+      <c r="C268" t="s">
+        <v>163</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>180</v>
+      </c>
+      <c r="B269">
+        <v>203</v>
+      </c>
+      <c r="C269" t="s">
+        <v>163</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>87</v>
+      </c>
+      <c r="B270">
+        <v>471</v>
+      </c>
+      <c r="C270" t="s">
+        <v>148</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>176</v>
       </c>
-      <c r="B217">
+      <c r="B271">
         <v>10001</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C271" t="s">
         <v>163</v>
       </c>
-      <c r="D217" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>175</v>
       </c>
-      <c r="B218">
+      <c r="B272">
         <v>202</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C272" t="s">
         <v>163</v>
-      </c>
-      <c r="D218" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>174</v>
-      </c>
-      <c r="B219">
-        <v>471</v>
-      </c>
-      <c r="C219" t="s">
-        <v>163</v>
-      </c>
-      <c r="D219" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>99</v>
-      </c>
-      <c r="B220">
-        <v>202</v>
-      </c>
-      <c r="C220" t="s">
-        <v>163</v>
-      </c>
-      <c r="D220" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>98</v>
-      </c>
-      <c r="B221">
-        <v>4701</v>
-      </c>
-      <c r="C221" t="s">
-        <v>163</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>105</v>
-      </c>
-      <c r="B222">
-        <v>103</v>
-      </c>
-      <c r="C222" t="s">
-        <v>163</v>
-      </c>
-      <c r="D222" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>97</v>
-      </c>
-      <c r="B223">
-        <v>102</v>
-      </c>
-      <c r="C223" t="s">
-        <v>163</v>
-      </c>
-      <c r="D223" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>172</v>
-      </c>
-      <c r="B224" t="s">
-        <v>173</v>
-      </c>
-      <c r="C224" t="s">
-        <v>163</v>
-      </c>
-      <c r="D224" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>71</v>
-      </c>
-      <c r="B225">
-        <v>202</v>
-      </c>
-      <c r="C225" t="s">
-        <v>163</v>
-      </c>
-      <c r="D225" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>89</v>
-      </c>
-      <c r="B226">
-        <v>471</v>
-      </c>
-      <c r="C226" t="s">
-        <v>148</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>84</v>
-      </c>
-      <c r="B227">
-        <v>103</v>
-      </c>
-      <c r="C227" t="s">
-        <v>148</v>
-      </c>
-      <c r="D227" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>74</v>
-      </c>
-      <c r="B228">
-        <v>470</v>
-      </c>
-      <c r="C228" t="s">
-        <v>148</v>
-      </c>
-      <c r="D228" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>70</v>
-      </c>
-      <c r="B229">
-        <v>472</v>
-      </c>
-      <c r="C229" t="s">
-        <v>163</v>
-      </c>
-      <c r="D229" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>73</v>
-      </c>
-      <c r="B230">
-        <v>289</v>
-      </c>
-      <c r="C230" t="s">
-        <v>148</v>
-      </c>
-      <c r="D230" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>100</v>
-      </c>
-      <c r="B231">
-        <v>101</v>
-      </c>
-      <c r="C231" t="s">
-        <v>163</v>
-      </c>
-      <c r="D231" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>69</v>
-      </c>
-      <c r="B232">
-        <v>103</v>
-      </c>
-      <c r="C232" t="s">
-        <v>163</v>
-      </c>
-      <c r="D232" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>96</v>
-      </c>
-      <c r="B233">
-        <v>100</v>
-      </c>
-      <c r="C233" t="s">
-        <v>163</v>
-      </c>
-      <c r="D233" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>77</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234" t="s">
-        <v>148</v>
-      </c>
-      <c r="D234" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>75</v>
-      </c>
-      <c r="B235">
-        <v>4531</v>
-      </c>
-      <c r="C235" t="s">
-        <v>148</v>
-      </c>
-      <c r="D235" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>82</v>
-      </c>
-      <c r="B236" t="s">
-        <v>45</v>
-      </c>
-      <c r="C236" t="s">
-        <v>148</v>
-      </c>
-      <c r="D236" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>67</v>
-      </c>
-      <c r="B237">
-        <v>203</v>
-      </c>
-      <c r="C237" t="s">
-        <v>186</v>
-      </c>
-      <c r="D237" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>66</v>
-      </c>
-      <c r="B238">
-        <v>203</v>
-      </c>
-      <c r="C238" t="s">
-        <v>186</v>
-      </c>
-      <c r="D238" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>316</v>
-      </c>
-      <c r="B239" t="s">
-        <v>300</v>
-      </c>
-      <c r="C239" t="s">
-        <v>148</v>
-      </c>
-      <c r="D239" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>292</v>
-      </c>
-      <c r="B240" t="s">
-        <v>293</v>
-      </c>
-      <c r="C240" t="s">
-        <v>148</v>
-      </c>
-      <c r="D240" t="s">
-        <v>253</v>
-      </c>
-      <c r="E240" s="3"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>93</v>
-      </c>
-      <c r="B241" t="s">
-        <v>45</v>
-      </c>
-      <c r="C241" t="s">
-        <v>163</v>
-      </c>
-      <c r="D241" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>95</v>
-      </c>
-      <c r="B242" t="s">
-        <v>45</v>
-      </c>
-      <c r="C242" t="s">
-        <v>163</v>
-      </c>
-      <c r="D242" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>49</v>
-      </c>
-      <c r="B243">
-        <v>104</v>
-      </c>
-      <c r="C243" t="s">
-        <v>184</v>
-      </c>
-      <c r="D243" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>185</v>
-      </c>
-      <c r="B244">
-        <v>512</v>
-      </c>
-      <c r="C244" t="s">
-        <v>184</v>
-      </c>
-      <c r="D244" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>51</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-      <c r="C245" t="s">
-        <v>184</v>
-      </c>
-      <c r="D245" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>170</v>
-      </c>
-      <c r="B246">
-        <v>100</v>
-      </c>
-      <c r="C246" t="s">
-        <v>163</v>
-      </c>
-      <c r="D246" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>50</v>
-      </c>
-      <c r="B247" t="s">
-        <v>45</v>
-      </c>
-      <c r="C247" t="s">
-        <v>184</v>
-      </c>
-      <c r="D247" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>52</v>
-      </c>
-      <c r="B248">
-        <v>104</v>
-      </c>
-      <c r="C248" t="s">
-        <v>184</v>
-      </c>
-      <c r="D248" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>135</v>
-      </c>
-      <c r="B249">
-        <v>471</v>
-      </c>
-      <c r="C249" t="s">
-        <v>108</v>
-      </c>
-      <c r="D249" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>126</v>
-      </c>
-      <c r="B250">
-        <v>105</v>
-      </c>
-      <c r="C250" t="s">
-        <v>108</v>
-      </c>
-      <c r="D250" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>124</v>
-      </c>
-      <c r="B251">
-        <v>105</v>
-      </c>
-      <c r="C251" t="s">
-        <v>108</v>
-      </c>
-      <c r="D251" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>122</v>
-      </c>
-      <c r="C252" t="s">
-        <v>108</v>
-      </c>
-      <c r="D252" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>223</v>
-      </c>
-      <c r="B253">
-        <v>750</v>
-      </c>
-      <c r="C253" t="s">
-        <v>108</v>
-      </c>
-      <c r="D253" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>117</v>
-      </c>
-      <c r="B254">
-        <v>153</v>
-      </c>
-      <c r="C254" t="s">
-        <v>108</v>
-      </c>
-      <c r="D254" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>246</v>
-      </c>
-      <c r="B255">
-        <v>272</v>
-      </c>
-      <c r="C255" t="s">
-        <v>108</v>
-      </c>
-      <c r="D255" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>127</v>
-      </c>
-      <c r="B256">
-        <v>682</v>
-      </c>
-      <c r="C256" t="s">
-        <v>108</v>
-      </c>
-      <c r="D256" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>206</v>
-      </c>
-      <c r="B257">
-        <v>102</v>
-      </c>
-      <c r="C257" t="s">
-        <v>108</v>
-      </c>
-      <c r="D257" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>118</v>
-      </c>
-      <c r="B258">
-        <v>303</v>
-      </c>
-      <c r="C258" t="s">
-        <v>108</v>
-      </c>
-      <c r="D258" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>243</v>
-      </c>
-      <c r="B259">
-        <v>750</v>
-      </c>
-      <c r="C259" t="s">
-        <v>108</v>
-      </c>
-      <c r="D259" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>112</v>
-      </c>
-      <c r="B260">
-        <v>222</v>
-      </c>
-      <c r="C260" t="s">
-        <v>108</v>
-      </c>
-      <c r="D260" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>138</v>
-      </c>
-      <c r="B261">
-        <v>100</v>
-      </c>
-      <c r="C261" t="s">
-        <v>108</v>
-      </c>
-      <c r="D261" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>137</v>
-      </c>
-      <c r="B262">
-        <v>151</v>
-      </c>
-      <c r="C262" t="s">
-        <v>108</v>
-      </c>
-      <c r="D262" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>136</v>
-      </c>
-      <c r="B263">
-        <v>101</v>
-      </c>
-      <c r="C263" t="s">
-        <v>108</v>
-      </c>
-      <c r="D263" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>226</v>
-      </c>
-      <c r="B264">
-        <v>750</v>
-      </c>
-      <c r="C264" t="s">
-        <v>108</v>
-      </c>
-      <c r="D264" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>228</v>
-      </c>
-      <c r="B265" t="s">
-        <v>229</v>
-      </c>
-      <c r="C265" t="s">
-        <v>108</v>
-      </c>
-      <c r="D265" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>232</v>
-      </c>
-      <c r="B266" t="s">
-        <v>229</v>
-      </c>
-      <c r="C266" t="s">
-        <v>108</v>
-      </c>
-      <c r="D266" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>224</v>
-      </c>
-      <c r="B267">
-        <v>750</v>
-      </c>
-      <c r="C267" t="s">
-        <v>108</v>
-      </c>
-      <c r="D267" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>250</v>
-      </c>
-      <c r="B268">
-        <v>203</v>
-      </c>
-      <c r="C268" t="s">
-        <v>108</v>
-      </c>
-      <c r="D268" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>249</v>
-      </c>
-      <c r="B269">
-        <v>752</v>
-      </c>
-      <c r="C269" t="s">
-        <v>108</v>
-      </c>
-      <c r="D269" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>225</v>
-      </c>
-      <c r="B270">
-        <v>750</v>
-      </c>
-      <c r="C270" t="s">
-        <v>108</v>
-      </c>
-      <c r="D270" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>248</v>
-      </c>
-      <c r="B271">
-        <v>333</v>
-      </c>
-      <c r="C271" t="s">
-        <v>108</v>
-      </c>
-      <c r="D271" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>116</v>
-      </c>
-      <c r="B272">
-        <v>393</v>
-      </c>
-      <c r="C272" t="s">
-        <v>108</v>
       </c>
       <c r="D272" t="s">
         <v>4</v>
@@ -5397,13 +5551,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B273">
-        <v>123</v>
+        <v>471</v>
       </c>
       <c r="C273" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
@@ -5411,13 +5565,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c r="B274">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="C274" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D274" t="s">
         <v>4</v>
@@ -5425,13 +5579,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="B275">
-        <v>331</v>
+        <v>4701</v>
       </c>
       <c r="C275" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
@@ -5439,21 +5593,775 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>105</v>
+      </c>
+      <c r="B276">
+        <v>103</v>
+      </c>
+      <c r="C276" t="s">
+        <v>163</v>
+      </c>
+      <c r="D276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>97</v>
+      </c>
+      <c r="B277">
+        <v>102</v>
+      </c>
+      <c r="C277" t="s">
+        <v>163</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>172</v>
+      </c>
+      <c r="B278" t="s">
+        <v>173</v>
+      </c>
+      <c r="C278" t="s">
+        <v>163</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>71</v>
+      </c>
+      <c r="B279">
+        <v>202</v>
+      </c>
+      <c r="C279" t="s">
+        <v>163</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>89</v>
+      </c>
+      <c r="B280">
+        <v>471</v>
+      </c>
+      <c r="C280" t="s">
+        <v>148</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>84</v>
+      </c>
+      <c r="B281">
+        <v>103</v>
+      </c>
+      <c r="C281" t="s">
+        <v>148</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>74</v>
+      </c>
+      <c r="B282">
+        <v>470</v>
+      </c>
+      <c r="C282" t="s">
+        <v>148</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>70</v>
+      </c>
+      <c r="B283">
+        <v>472</v>
+      </c>
+      <c r="C283" t="s">
+        <v>163</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>73</v>
+      </c>
+      <c r="B284">
+        <v>289</v>
+      </c>
+      <c r="C284" t="s">
+        <v>148</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>100</v>
+      </c>
+      <c r="B285">
+        <v>101</v>
+      </c>
+      <c r="C285" t="s">
+        <v>163</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>69</v>
+      </c>
+      <c r="B286">
+        <v>103</v>
+      </c>
+      <c r="C286" t="s">
+        <v>163</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>96</v>
+      </c>
+      <c r="B287">
+        <v>100</v>
+      </c>
+      <c r="C287" t="s">
+        <v>163</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>77</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>148</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>75</v>
+      </c>
+      <c r="B289">
+        <v>4531</v>
+      </c>
+      <c r="C289" t="s">
+        <v>148</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>82</v>
+      </c>
+      <c r="B290" t="s">
+        <v>45</v>
+      </c>
+      <c r="C290" t="s">
+        <v>148</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>67</v>
+      </c>
+      <c r="B291">
+        <v>203</v>
+      </c>
+      <c r="C291" t="s">
+        <v>186</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>66</v>
+      </c>
+      <c r="B292">
+        <v>203</v>
+      </c>
+      <c r="C292" t="s">
+        <v>186</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>312</v>
+      </c>
+      <c r="B293" t="s">
+        <v>296</v>
+      </c>
+      <c r="C293" t="s">
+        <v>148</v>
+      </c>
+      <c r="D293" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>288</v>
+      </c>
+      <c r="B294" t="s">
+        <v>289</v>
+      </c>
+      <c r="C294" t="s">
+        <v>148</v>
+      </c>
+      <c r="D294" t="s">
+        <v>253</v>
+      </c>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>93</v>
+      </c>
+      <c r="B295" t="s">
+        <v>45</v>
+      </c>
+      <c r="C295" t="s">
+        <v>163</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>95</v>
+      </c>
+      <c r="B296" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" t="s">
+        <v>163</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>49</v>
+      </c>
+      <c r="B297">
+        <v>104</v>
+      </c>
+      <c r="C297" t="s">
+        <v>184</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>185</v>
+      </c>
+      <c r="B298">
+        <v>512</v>
+      </c>
+      <c r="C298" t="s">
+        <v>184</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>184</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>170</v>
+      </c>
+      <c r="B300">
+        <v>100</v>
+      </c>
+      <c r="C300" t="s">
+        <v>163</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>50</v>
+      </c>
+      <c r="B301" t="s">
+        <v>45</v>
+      </c>
+      <c r="C301" t="s">
+        <v>184</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>52</v>
+      </c>
+      <c r="B302">
+        <v>104</v>
+      </c>
+      <c r="C302" t="s">
+        <v>184</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>135</v>
+      </c>
+      <c r="B303">
+        <v>471</v>
+      </c>
+      <c r="C303" t="s">
+        <v>108</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>126</v>
+      </c>
+      <c r="B304">
+        <v>105</v>
+      </c>
+      <c r="C304" t="s">
+        <v>108</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>124</v>
+      </c>
+      <c r="B305">
+        <v>105</v>
+      </c>
+      <c r="C305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>122</v>
+      </c>
+      <c r="C306" t="s">
+        <v>108</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>223</v>
+      </c>
+      <c r="B307">
+        <v>750</v>
+      </c>
+      <c r="C307" t="s">
+        <v>108</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>117</v>
+      </c>
+      <c r="B308">
+        <v>153</v>
+      </c>
+      <c r="C308" t="s">
+        <v>108</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>246</v>
+      </c>
+      <c r="B309">
+        <v>272</v>
+      </c>
+      <c r="C309" t="s">
+        <v>108</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>127</v>
+      </c>
+      <c r="B310">
+        <v>682</v>
+      </c>
+      <c r="C310" t="s">
+        <v>108</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>206</v>
+      </c>
+      <c r="B311">
+        <v>102</v>
+      </c>
+      <c r="C311" t="s">
+        <v>108</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>118</v>
+      </c>
+      <c r="B312">
+        <v>303</v>
+      </c>
+      <c r="C312" t="s">
+        <v>108</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>243</v>
+      </c>
+      <c r="B313">
+        <v>750</v>
+      </c>
+      <c r="C313" t="s">
+        <v>108</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>112</v>
+      </c>
+      <c r="B314">
+        <v>222</v>
+      </c>
+      <c r="C314" t="s">
+        <v>108</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>138</v>
+      </c>
+      <c r="B315">
+        <v>100</v>
+      </c>
+      <c r="C315" t="s">
+        <v>108</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>137</v>
+      </c>
+      <c r="B316">
+        <v>151</v>
+      </c>
+      <c r="C316" t="s">
+        <v>108</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>136</v>
+      </c>
+      <c r="B317">
+        <v>101</v>
+      </c>
+      <c r="C317" t="s">
+        <v>108</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>226</v>
+      </c>
+      <c r="B318">
+        <v>750</v>
+      </c>
+      <c r="C318" t="s">
+        <v>108</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>228</v>
+      </c>
+      <c r="B319" t="s">
+        <v>229</v>
+      </c>
+      <c r="C319" t="s">
+        <v>108</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>232</v>
+      </c>
+      <c r="B320" t="s">
+        <v>229</v>
+      </c>
+      <c r="C320" t="s">
+        <v>108</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>224</v>
+      </c>
+      <c r="B321">
+        <v>750</v>
+      </c>
+      <c r="C321" t="s">
+        <v>108</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>250</v>
+      </c>
+      <c r="B322">
+        <v>203</v>
+      </c>
+      <c r="C322" t="s">
+        <v>108</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>249</v>
+      </c>
+      <c r="B323">
+        <v>752</v>
+      </c>
+      <c r="C323" t="s">
+        <v>108</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>225</v>
+      </c>
+      <c r="B324">
+        <v>750</v>
+      </c>
+      <c r="C324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>248</v>
+      </c>
+      <c r="B325">
+        <v>333</v>
+      </c>
+      <c r="C325" t="s">
+        <v>108</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>116</v>
+      </c>
+      <c r="B326">
+        <v>393</v>
+      </c>
+      <c r="C326" t="s">
+        <v>108</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>119</v>
+      </c>
+      <c r="B327">
+        <v>123</v>
+      </c>
+      <c r="C327" t="s">
+        <v>108</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>242</v>
+      </c>
+      <c r="B328">
+        <v>331</v>
+      </c>
+      <c r="C328" t="s">
+        <v>108</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>241</v>
+      </c>
+      <c r="B329">
+        <v>331</v>
+      </c>
+      <c r="C329" t="s">
+        <v>108</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>240</v>
       </c>
-      <c r="B276">
+      <c r="B330">
         <v>331</v>
       </c>
-      <c r="C276" t="s">
-        <v>108</v>
-      </c>
-      <c r="D276" t="s">
+      <c r="C330" t="s">
+        <v>108</v>
+      </c>
+      <c r="D330" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A277:A1084 A1:A186 B187 A188:A222">
+  <conditionalFormatting sqref="A331:A1138 A1:A170 B171 A172:A316">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B020B77-0CDB-BD44-BE10-E87FA34B16DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87431B-7BFC-F54E-BD32-5174FADA6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="498">
   <si>
     <t>Code</t>
   </si>
@@ -578,9 +578,6 @@
     <t>RP39</t>
   </si>
   <si>
-    <t>h15</t>
-  </si>
-  <si>
     <t>h51</t>
   </si>
   <si>
@@ -722,9 +719,6 @@
     <t>RV37</t>
   </si>
   <si>
-    <t>750?</t>
-  </si>
-  <si>
     <t>CV6</t>
   </si>
   <si>
@@ -944,21 +938,12 @@
     <t>THERMISTOR, NTC, 10 OHM, RADIAL</t>
   </si>
   <si>
-    <t>0,1uF</t>
-  </si>
-  <si>
     <t>zener diode</t>
   </si>
   <si>
     <t>A6P 2D</t>
   </si>
   <si>
-    <t>1n4148</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
     <t>CP18</t>
   </si>
   <si>
@@ -1118,9 +1103,6 @@
     <t>DP18</t>
   </si>
   <si>
-    <t>DP uncertain</t>
-  </si>
-  <si>
     <t>IJ3</t>
   </si>
   <si>
@@ -1449,13 +1431,109 @@
   </si>
   <si>
     <t>0.0022 uF capacitor</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>base C SOT23 BAW62 (1N4148)</t>
+  </si>
+  <si>
+    <t>SMD capacitor 0,1uF</t>
+  </si>
+  <si>
+    <t>2SK67 FET Transistor (N-Channel)</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>SOT-143B BCV62B NXP PNP transistors</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>22k Ohms</t>
+  </si>
+  <si>
+    <t>15k Ohms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrolytic capacitor </t>
+  </si>
+  <si>
+    <t>? Zener?</t>
+  </si>
+  <si>
+    <t>RP35</t>
+  </si>
+  <si>
+    <t>100 Ohms</t>
+  </si>
+  <si>
+    <t>RP28</t>
+  </si>
+  <si>
+    <t>1000 Ohm</t>
+  </si>
+  <si>
+    <t>4722 Ohms</t>
+  </si>
+  <si>
+    <t>10k Ohms</t>
+  </si>
+  <si>
+    <t>470 Ohm</t>
+  </si>
+  <si>
+    <t>2k Ohm</t>
+  </si>
+  <si>
+    <t>1k Ohm</t>
+  </si>
+  <si>
+    <t>47 Ohm</t>
+  </si>
+  <si>
+    <t>470?</t>
+  </si>
+  <si>
+    <t>4700 Ohm</t>
+  </si>
+  <si>
+    <t>289?</t>
+  </si>
+  <si>
+    <t>20k Ohm</t>
+  </si>
+  <si>
+    <t>4531?</t>
+  </si>
+  <si>
+    <t>189?</t>
+  </si>
+  <si>
+    <t>47 Ohms</t>
+  </si>
+  <si>
+    <t>1800 Ohm</t>
+  </si>
+  <si>
+    <t>100k Ohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1496,6 +1574,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1505,7 +1589,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1522,11 +1606,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1534,21 +1629,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1573,17 +1663,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:E330" totalsRowShown="0">
-  <autoFilter ref="A1:E330" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E330">
-    <sortCondition ref="A1:A330"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H334" totalsRowShown="0">
+  <autoFilter ref="A1:H334" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H298">
+    <sortCondition ref="A1:A334"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
     <tableColumn id="2" xr3:uid="{9F51C314-ECBC-9A45-98CF-4C860BAB10B6}" name="Property"/>
     <tableColumn id="5" xr3:uid="{CEB87D8E-1D11-FF45-B209-D97F62477B7B}" name="Area"/>
     <tableColumn id="3" xr3:uid="{5402D83C-2B47-BB4D-BB87-E6A2A01807D5}" name="Side"/>
     <tableColumn id="6" xr3:uid="{CB0670AB-BB2C-2246-A9FB-9488AD2DA0C1}" name="Column1"/>
+    <tableColumn id="4" xr3:uid="{BA38D32C-7B46-344B-8638-B4B6DAD2630F}" name="Column2"/>
+    <tableColumn id="7" xr3:uid="{2E57F7FF-AD52-7447-9656-6FAABADAB61B}" name="Column3"/>
+    <tableColumn id="8" xr3:uid="{FFF8841D-6A1E-3A42-8035-420BC3E5B772}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1886,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1901,7 +2000,7 @@
     <col min="5" max="5" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,178 +2014,229 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="F1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>184</v>
+        <v>462</v>
+      </c>
+      <c r="B2" t="s">
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>184</v>
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>381</v>
       </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
       <c r="E4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>384</v>
       </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
       <c r="E5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>386</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>387</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>389</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>390</v>
       </c>
-      <c r="E7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>391</v>
       </c>
       <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>392</v>
       </c>
-      <c r="E10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
       <c r="B11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>399</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>251</v>
       </c>
       <c r="E15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" t="s">
-        <v>388</v>
+        <v>356</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2096,8 +2246,11 @@
       <c r="B17" t="s">
         <v>403</v>
       </c>
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2107,33 +2260,42 @@
       <c r="B18" t="s">
         <v>405</v>
       </c>
+      <c r="D18" t="s">
+        <v>251</v>
+      </c>
       <c r="E18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" t="s">
-        <v>186</v>
+        <v>407</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E20" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,8 +2305,11 @@
       <c r="B21" t="s">
         <v>409</v>
       </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
       <c r="E21" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2154,191 +2319,234 @@
       <c r="B22" t="s">
         <v>411</v>
       </c>
+      <c r="D22" t="s">
+        <v>251</v>
+      </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
+        <v>412</v>
+      </c>
+      <c r="B24" t="s">
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E24" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
+        <v>414</v>
+      </c>
+      <c r="B25" t="s">
+        <v>401</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E25" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>412</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>233</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>415</v>
+        <v>357</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>417</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
-        <v>419</v>
+        <v>401</v>
+      </c>
+      <c r="D32" t="s">
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>417</v>
+      </c>
+      <c r="D33" t="s">
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>418</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
+        <v>417</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>419</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" t="s">
-        <v>186</v>
+        <v>420</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E35" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>421</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
-      </c>
-      <c r="C36" t="s">
-        <v>187</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E36" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -2346,563 +2554,649 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>393</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B40" t="s">
-        <v>407</v>
+        <v>424</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>423</v>
+        <v>399</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>424</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>423</v>
+        <v>348</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
-        <v>426</v>
+        <v>344</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s">
-        <v>394</v>
+        <v>411</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>427</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
+        <v>428</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E45" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>264</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>298</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E48" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>341</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s">
-        <v>353</v>
-      </c>
-      <c r="C51" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="C52" t="s">
         <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>432</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
-      </c>
-      <c r="E53" t="s">
-        <v>388</v>
+        <v>351</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>434</v>
-      </c>
-      <c r="E54" t="s">
-        <v>388</v>
+        <v>348</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
-      </c>
-      <c r="C55" t="s">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
-      </c>
-      <c r="C56" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C57" t="s">
         <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" t="s">
-        <v>301</v>
+        <v>4</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
         <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>332</v>
+      </c>
+      <c r="B59" t="s">
+        <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>436</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>262</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>251</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C62" t="s">
-        <v>148</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C62" s="6"/>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E62" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s">
-        <v>440</v>
-      </c>
-      <c r="E65" t="s">
-        <v>388</v>
+        <v>269</v>
+      </c>
+      <c r="C65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>438</v>
+      </c>
+      <c r="D66" t="s">
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C69" t="s">
         <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69" t="s">
-        <v>388</v>
+        <v>4</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C70" t="s">
         <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E70" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="C71" t="s">
         <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71" t="s">
-        <v>388</v>
+        <v>4</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>435</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72" t="s">
-        <v>388</v>
+        <v>181</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
-      </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C74" s="6"/>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="E74" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
-      </c>
-      <c r="C75" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>336</v>
       </c>
       <c r="B76" t="s">
-        <v>444</v>
-      </c>
-      <c r="E76" t="s">
-        <v>388</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
         <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E77" t="s">
-        <v>388</v>
+        <v>251</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
         <v>148</v>
@@ -2910,169 +3204,194 @@
       <c r="D78" t="s">
         <v>4</v>
       </c>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
-      </c>
-      <c r="E79" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C80" t="s">
         <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80" t="s">
-        <v>471</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" t="s">
-        <v>378</v>
+        <v>251</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>445</v>
+        <v>311</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="E85" t="s">
-        <v>388</v>
+        <v>273</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>446</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
-      </c>
-      <c r="E86" t="s">
-        <v>388</v>
+        <v>393</v>
+      </c>
+      <c r="C86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>341</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
         <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="B88" t="s">
-        <v>447</v>
+        <v>267</v>
+      </c>
+      <c r="D88" t="s">
+        <v>251</v>
       </c>
       <c r="E88" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
         <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
       </c>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -3080,38 +3399,50 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>314</v>
+        <v>444</v>
       </c>
       <c r="B93" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>251</v>
       </c>
       <c r="E93" t="s">
         <v>382</v>
@@ -3119,257 +3450,320 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D94" t="s">
-        <v>253</v>
+        <v>108</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
-        <v>448</v>
-      </c>
-      <c r="E95" t="s">
-        <v>382</v>
+        <v>371</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="E96" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>403</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>251</v>
       </c>
       <c r="E97" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E98" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>449</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>233</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>449</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E100" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>450</v>
+      </c>
+      <c r="B101" t="s">
+        <v>393</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E101" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>371</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
         <v>108</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>451</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
-      </c>
-      <c r="C104" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E104" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" t="s">
-        <v>108</v>
+        <v>453</v>
+      </c>
+      <c r="B105" t="s">
+        <v>454</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E105" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>251</v>
-      </c>
-      <c r="C106" t="s">
-        <v>108</v>
+        <v>456</v>
+      </c>
+      <c r="B106" t="s">
+        <v>454</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E106" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>450</v>
+        <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>451</v>
+        <v>233</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" t="s">
-        <v>108</v>
+        <v>457</v>
+      </c>
+      <c r="B108" t="s">
+        <v>409</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E108" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>131</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
       </c>
       <c r="C109" t="s">
         <v>108</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>458</v>
+      </c>
+      <c r="B110" t="s">
+        <v>409</v>
+      </c>
+      <c r="D110" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" t="s">
         <v>376</v>
-      </c>
-      <c r="B110" t="s">
-        <v>377</v>
-      </c>
-      <c r="C110" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B111" t="s">
-        <v>399</v>
+        <v>409</v>
+      </c>
+      <c r="D111" t="s">
+        <v>251</v>
       </c>
       <c r="E111" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B112" t="s">
-        <v>409</v>
+        <v>401</v>
+      </c>
+      <c r="D112" t="s">
+        <v>251</v>
       </c>
       <c r="E112" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B113" t="s">
-        <v>409</v>
+        <v>401</v>
+      </c>
+      <c r="D113" t="s">
+        <v>251</v>
       </c>
       <c r="E113" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C114" t="s">
         <v>108</v>
@@ -3377,32 +3771,47 @@
       <c r="D114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>455</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
-        <v>409</v>
-      </c>
-      <c r="E115" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="C115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>456</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>399</v>
+        <v>233</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>237</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
       </c>
       <c r="C117" t="s">
         <v>108</v>
@@ -3410,13 +3819,16 @@
       <c r="D117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
         <v>108</v>
@@ -3425,15 +3837,15 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
         <v>108</v>
@@ -3441,143 +3853,197 @@
       <c r="D119" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>458</v>
+        <v>302</v>
+      </c>
+      <c r="C120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>459</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>460</v>
+        <v>302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>276</v>
+      </c>
+      <c r="C122" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" t="s">
+        <v>251</v>
       </c>
       <c r="E122" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
-      </c>
-      <c r="C123" t="s">
-        <v>108</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>463</v>
+        <v>154</v>
       </c>
       <c r="B124" t="s">
-        <v>415</v>
+        <v>302</v>
+      </c>
+      <c r="C124" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
-      </c>
-      <c r="C125" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>464</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
-      </c>
-      <c r="E126" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s">
+        <v>163</v>
+      </c>
+      <c r="D126" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>465</v>
-      </c>
-      <c r="B127" t="s">
-        <v>415</v>
+        <v>76</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>466</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>407</v>
-      </c>
-      <c r="E128" t="s">
-        <v>388</v>
+        <v>329</v>
+      </c>
+      <c r="C128" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
         <v>467</v>
-      </c>
-      <c r="B130" t="s">
-        <v>407</v>
-      </c>
-      <c r="E130" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>231</v>
-      </c>
-      <c r="B131" t="s">
-        <v>235</v>
+        <v>155</v>
+      </c>
+      <c r="B131">
+        <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3585,24 +4051,24 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="B132" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="C133" t="s">
         <v>108</v>
@@ -3613,100 +4079,109 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C134" t="s">
         <v>108</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
-      </c>
-      <c r="E134" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E135" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>327</v>
+      </c>
+      <c r="B136" t="s">
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" t="s">
-        <v>304</v>
+        <v>251</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="B137" t="s">
-        <v>367</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>108</v>
+        <v>324</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E137" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>315</v>
+      </c>
+      <c r="B138" t="s">
+        <v>316</v>
       </c>
       <c r="C138" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E138" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="B139" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="C139" t="s">
         <v>108</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -3714,147 +4189,140 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>380</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141" t="s">
-        <v>280</v>
+        <v>114</v>
+      </c>
+      <c r="B141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>358</v>
-      </c>
-      <c r="D142" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
-      </c>
-      <c r="E143" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>360</v>
+        <v>59</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" t="s">
-        <v>361</v>
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C145" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" t="s">
-        <v>307</v>
+        <v>196</v>
+      </c>
+      <c r="B146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" t="s">
+        <v>108</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
-      </c>
-      <c r="E147" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="B148" t="s">
-        <v>257</v>
-      </c>
-      <c r="C148" t="s">
-        <v>163</v>
+        <v>254</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D148" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>90</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" t="s">
-        <v>307</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B149" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" t="s">
+        <v>183</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
         <v>101</v>
       </c>
+      <c r="B150" t="s">
+        <v>254</v>
+      </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3862,10 +4330,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>120</v>
+      </c>
+      <c r="B151" t="s">
+        <v>254</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -3873,24 +4344,24 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>315</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>253</v>
+        <v>208</v>
+      </c>
+      <c r="B152" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" t="s">
+        <v>108</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C153" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -3898,153 +4369,159 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>373</v>
       </c>
       <c r="B154" t="s">
-        <v>368</v>
-      </c>
-      <c r="C154" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>125</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>108</v>
+        <v>258</v>
+      </c>
+      <c r="B155" t="s">
+        <v>257</v>
+      </c>
+      <c r="C155" t="s">
+        <v>163</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="B156" t="s">
+        <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="B157" t="s">
+        <v>319</v>
       </c>
       <c r="C157" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>254</v>
-      </c>
-      <c r="B158" t="s">
-        <v>252</v>
+        <v>144</v>
+      </c>
+      <c r="B158">
+        <v>153</v>
       </c>
       <c r="C158" t="s">
         <v>108</v>
       </c>
       <c r="D158" t="s">
-        <v>253</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E158" s="11"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>317</v>
-      </c>
-      <c r="B159" t="s">
-        <v>274</v>
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>331</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D159" t="s">
-        <v>253</v>
-      </c>
-      <c r="E159" t="s">
-        <v>323</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E159" s="11"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>332</v>
-      </c>
-      <c r="B160" t="s">
-        <v>268</v>
+        <v>191</v>
+      </c>
+      <c r="B160">
+        <v>106</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D160" t="s">
-        <v>253</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>331</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E160" s="11"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>330</v>
-      </c>
-      <c r="B161" t="s">
-        <v>329</v>
+        <v>207</v>
+      </c>
+      <c r="B161">
+        <v>123</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D161" t="s">
-        <v>253</v>
-      </c>
-      <c r="E161" t="s">
-        <v>328</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E161" s="11"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" t="s">
-        <v>321</v>
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <v>195</v>
       </c>
       <c r="C162" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D162" t="s">
-        <v>253</v>
-      </c>
-      <c r="E162" t="s">
-        <v>322</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E162" s="11"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>255</v>
-      </c>
-      <c r="B163" t="s">
-        <v>256</v>
+        <v>203</v>
+      </c>
+      <c r="B163">
+        <v>434</v>
       </c>
       <c r="C163" t="s">
         <v>108</v>
       </c>
       <c r="D163" t="s">
-        <v>253</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E163" s="11"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C164" t="s">
         <v>108</v>
@@ -4052,13 +4529,14 @@
       <c r="D164" t="s">
         <v>4</v>
       </c>
+      <c r="E164" s="11"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C165" t="s">
         <v>108</v>
@@ -4066,13 +4544,14 @@
       <c r="D165" t="s">
         <v>4</v>
       </c>
+      <c r="E165" s="11"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
         <v>108</v>
@@ -4080,100 +4559,107 @@
       <c r="D166" t="s">
         <v>4</v>
       </c>
+      <c r="E166" s="11"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C167" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
       </c>
+      <c r="E167" s="11"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
       </c>
+      <c r="E168" s="11"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B169" t="s">
+        <v>143</v>
       </c>
       <c r="C169" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
+      <c r="E169" s="11"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
       </c>
+      <c r="E170" s="11"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="C171" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
       </c>
+      <c r="E171" s="11"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D172" t="s">
-        <v>4</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B172" s="6">
+        <v>331</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="11"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>44</v>
-      </c>
-      <c r="B173" t="s">
-        <v>45</v>
+        <v>216</v>
+      </c>
+      <c r="B173">
+        <v>104</v>
       </c>
       <c r="C173" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -4181,13 +4667,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="C174" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -4195,10 +4681,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C175" t="s">
         <v>108</v>
@@ -4209,13 +4695,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C176" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -4223,10 +4709,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>56</v>
+      </c>
+      <c r="B177">
+        <v>471</v>
       </c>
       <c r="C177" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -4234,32 +4723,42 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="B178">
+        <v>193</v>
       </c>
       <c r="C178" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
       </c>
+      <c r="E178" s="11"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>379</v>
-      </c>
-      <c r="B179" t="s">
-        <v>276</v>
+        <v>32</v>
+      </c>
+      <c r="B179">
+        <v>321</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
       </c>
       <c r="D179" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="B180">
+        <v>151</v>
       </c>
       <c r="C180" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -4267,10 +4766,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>188</v>
+      </c>
+      <c r="B181">
+        <v>472</v>
       </c>
       <c r="C181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -4278,24 +4780,27 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="B182" t="s">
-        <v>259</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>163</v>
+        <v>63</v>
+      </c>
+      <c r="C182" t="s">
+        <v>186</v>
       </c>
       <c r="D182" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>68</v>
+        <v>213</v>
+      </c>
+      <c r="B183">
+        <v>223</v>
       </c>
       <c r="C183" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -4303,10 +4808,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>9</v>
+      </c>
+      <c r="B184">
+        <v>471</v>
       </c>
       <c r="C184" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -4314,47 +4822,41 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>104</v>
-      </c>
-      <c r="B185" t="s">
-        <v>325</v>
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>180</v>
       </c>
       <c r="C185" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
-      </c>
-      <c r="E185" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>103</v>
-      </c>
-      <c r="B186" t="s">
-        <v>324</v>
+        <v>16</v>
+      </c>
+      <c r="B186">
+        <v>471</v>
       </c>
       <c r="C186" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
-      </c>
-      <c r="E186" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="B187">
-        <v>153</v>
+        <v>401</v>
       </c>
       <c r="C187" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -4362,10 +4864,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B188">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C188" t="s">
         <v>186</v>
@@ -4373,30 +4875,34 @@
       <c r="D188" t="s">
         <v>4</v>
       </c>
+      <c r="E188" s="6"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189" s="6">
-        <v>106</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <v>153</v>
+      </c>
+      <c r="C189" t="s">
+        <v>186</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="B190">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C190" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -4404,13 +4910,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B191">
-        <v>195</v>
+        <v>392</v>
       </c>
       <c r="C191" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -4418,80 +4924,86 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="B192">
-        <v>434</v>
+        <v>220</v>
       </c>
       <c r="C192" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="B193">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="C193" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="B194">
         <v>223</v>
       </c>
       <c r="C194" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B195">
         <v>223</v>
       </c>
-      <c r="C195" t="s">
-        <v>108</v>
+      <c r="C195" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>53</v>
-      </c>
-      <c r="B196">
-        <v>153</v>
+        <v>212</v>
+      </c>
+      <c r="B196" t="s">
+        <v>214</v>
       </c>
       <c r="C196" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>40</v>
-      </c>
-      <c r="B197">
-        <v>332</v>
+        <v>58</v>
+      </c>
+      <c r="B197" t="s">
+        <v>60</v>
       </c>
       <c r="C197" t="s">
         <v>186</v>
@@ -4500,26 +5012,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>142</v>
-      </c>
-      <c r="B198" t="s">
-        <v>143</v>
+        <v>61</v>
+      </c>
+      <c r="B198">
+        <v>393</v>
       </c>
       <c r="C198" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B199">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C199" t="s">
         <v>186</v>
@@ -4528,12 +5040,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>39</v>
-      </c>
-      <c r="B200">
-        <v>471</v>
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
       </c>
       <c r="C200" t="s">
         <v>186</v>
@@ -4542,54 +5054,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B201">
-        <v>331</v>
+        <v>102</v>
       </c>
       <c r="C201" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>217</v>
-      </c>
-      <c r="B202" s="6">
-        <v>104</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="B202">
+        <v>474</v>
+      </c>
+      <c r="C202" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B203">
-        <v>753</v>
+        <v>392</v>
       </c>
       <c r="C203" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B204">
-        <v>128</v>
+        <v>514</v>
       </c>
       <c r="C204" t="s">
         <v>108</v>
@@ -4598,12 +5110,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="B205">
-        <v>272</v>
+        <v>514</v>
       </c>
       <c r="C205" t="s">
         <v>186</v>
@@ -4612,485 +5124,536 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B206">
+        <v>105</v>
+      </c>
+      <c r="C206" t="s">
+        <v>186</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207">
+        <v>103</v>
+      </c>
+      <c r="C207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>26</v>
+      </c>
+      <c r="B208">
+        <v>470</v>
+      </c>
+      <c r="C208" t="s">
+        <v>185</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>38</v>
+      </c>
+      <c r="B209">
+        <v>514</v>
+      </c>
+      <c r="C209" t="s">
+        <v>186</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>41</v>
+      </c>
+      <c r="B210">
+        <v>295</v>
+      </c>
+      <c r="C210" t="s">
+        <v>185</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211">
         <v>471</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D206" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>64</v>
-      </c>
-      <c r="B207">
-        <v>193</v>
-      </c>
-      <c r="C207" t="s">
-        <v>187</v>
-      </c>
-      <c r="D207" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208">
-        <v>321</v>
-      </c>
-      <c r="C208" t="s">
-        <v>187</v>
-      </c>
-      <c r="D208" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>199</v>
-      </c>
-      <c r="B209">
+      <c r="C211" t="s">
+        <v>186</v>
+      </c>
+      <c r="D211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>43</v>
+      </c>
+      <c r="B212">
+        <v>103</v>
+      </c>
+      <c r="C212" t="s">
+        <v>185</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213" t="s">
+        <v>359</v>
+      </c>
+      <c r="C213" t="s">
+        <v>108</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4</v>
+      </c>
+      <c r="E213" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>42</v>
+      </c>
+      <c r="B214">
+        <v>683</v>
+      </c>
+      <c r="C214" t="s">
+        <v>185</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>234</v>
+      </c>
+      <c r="B215">
+        <v>472</v>
+      </c>
+      <c r="C215" t="s">
+        <v>108</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+      <c r="E215" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>209</v>
+      </c>
+      <c r="B216">
+        <v>104</v>
+      </c>
+      <c r="C216" t="s">
+        <v>108</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>279</v>
+      </c>
+      <c r="B217" t="s">
+        <v>280</v>
+      </c>
+      <c r="C217" t="s">
+        <v>148</v>
+      </c>
+      <c r="D217" t="s">
+        <v>251</v>
+      </c>
+      <c r="E217" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>86</v>
+      </c>
+      <c r="B218">
+        <v>101</v>
+      </c>
+      <c r="C218" t="s">
+        <v>148</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>337</v>
+      </c>
+      <c r="B219" t="s">
+        <v>339</v>
+      </c>
+      <c r="C219" t="s">
+        <v>148</v>
+      </c>
+      <c r="D219" t="s">
+        <v>251</v>
+      </c>
+      <c r="E219" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" t="s">
+        <v>182</v>
+      </c>
+      <c r="C220" t="s">
+        <v>148</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>305</v>
+      </c>
+      <c r="B221" t="s">
+        <v>296</v>
+      </c>
+      <c r="C221" t="s">
+        <v>148</v>
+      </c>
+      <c r="D221" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222">
+        <v>470</v>
+      </c>
+      <c r="C222" t="s">
+        <v>148</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>304</v>
+      </c>
+      <c r="B223" t="s">
+        <v>297</v>
+      </c>
+      <c r="C223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D223" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>88</v>
+      </c>
+      <c r="B224">
+        <v>182</v>
+      </c>
+      <c r="C224" t="s">
+        <v>148</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+      <c r="E224" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>288</v>
+      </c>
+      <c r="B225" t="s">
+        <v>289</v>
+      </c>
+      <c r="C225" t="s">
+        <v>148</v>
+      </c>
+      <c r="D225" t="s">
+        <v>251</v>
+      </c>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>306</v>
+      </c>
+      <c r="B226" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" t="s">
+        <v>148</v>
+      </c>
+      <c r="D226" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>150</v>
+      </c>
+      <c r="B227">
+        <v>153</v>
+      </c>
+      <c r="C227" t="s">
+        <v>148</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+      <c r="E227" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>481</v>
+      </c>
+      <c r="B228">
+        <v>102</v>
+      </c>
+      <c r="C228" t="s">
+        <v>148</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>157</v>
+      </c>
+      <c r="B229" t="s">
+        <v>63</v>
+      </c>
+      <c r="C229" t="s">
+        <v>148</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>79</v>
+      </c>
+      <c r="B230" t="s">
+        <v>80</v>
+      </c>
+      <c r="C230" t="s">
+        <v>148</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>162</v>
+      </c>
+      <c r="B231">
+        <v>103</v>
+      </c>
+      <c r="C231" t="s">
+        <v>148</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>151</v>
       </c>
-      <c r="C209" t="s">
-        <v>108</v>
-      </c>
-      <c r="D209" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>189</v>
-      </c>
-      <c r="B210">
+      <c r="B232">
         <v>472</v>
       </c>
-      <c r="C210" t="s">
-        <v>187</v>
-      </c>
-      <c r="D210" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>62</v>
-      </c>
-      <c r="B211" t="s">
-        <v>63</v>
-      </c>
-      <c r="C211" t="s">
-        <v>187</v>
-      </c>
-      <c r="D211" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>214</v>
-      </c>
-      <c r="B212">
-        <v>223</v>
-      </c>
-      <c r="C212" t="s">
-        <v>108</v>
-      </c>
-      <c r="D212" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>55</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D213" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>9</v>
-      </c>
-      <c r="B214">
+      <c r="C232" t="s">
+        <v>148</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>159</v>
+      </c>
+      <c r="B233" t="s">
+        <v>160</v>
+      </c>
+      <c r="C233" t="s">
+        <v>148</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>479</v>
+      </c>
+      <c r="B234">
+        <v>101</v>
+      </c>
+      <c r="C234" t="s">
+        <v>148</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>290</v>
+      </c>
+      <c r="B235" t="s">
+        <v>292</v>
+      </c>
+      <c r="C235" t="s">
+        <v>148</v>
+      </c>
+      <c r="D235" t="s">
+        <v>251</v>
+      </c>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>291</v>
+      </c>
+      <c r="B236" t="s">
+        <v>292</v>
+      </c>
+      <c r="C236" t="s">
+        <v>148</v>
+      </c>
+      <c r="D236" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>178</v>
+      </c>
+      <c r="B237" t="s">
+        <v>494</v>
+      </c>
+      <c r="C237" t="s">
+        <v>163</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>180</v>
+      </c>
+      <c r="B238">
+        <v>203</v>
+      </c>
+      <c r="C238" t="s">
+        <v>163</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>87</v>
+      </c>
+      <c r="B239">
         <v>471</v>
       </c>
-      <c r="C214" t="s">
-        <v>186</v>
-      </c>
-      <c r="D214" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>8</v>
-      </c>
-      <c r="B215">
-        <v>180</v>
-      </c>
-      <c r="C215" t="s">
-        <v>186</v>
-      </c>
-      <c r="D215" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>16</v>
-      </c>
-      <c r="B216">
-        <v>471</v>
-      </c>
-      <c r="C216" t="s">
-        <v>186</v>
-      </c>
-      <c r="D216" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>33</v>
-      </c>
-      <c r="B217">
-        <v>401</v>
-      </c>
-      <c r="C217" t="s">
-        <v>187</v>
-      </c>
-      <c r="D217" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>57</v>
-      </c>
-      <c r="B218">
-        <v>302</v>
-      </c>
-      <c r="C218" t="s">
-        <v>187</v>
-      </c>
-      <c r="D218" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219">
-        <v>153</v>
-      </c>
-      <c r="C219" t="s">
-        <v>187</v>
-      </c>
-      <c r="D219" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220" t="s">
-        <v>108</v>
-      </c>
-      <c r="D220" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B221">
-        <v>154</v>
-      </c>
-      <c r="C221" t="s">
-        <v>186</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>35</v>
-      </c>
-      <c r="B222">
-        <v>392</v>
-      </c>
-      <c r="C222" t="s">
-        <v>108</v>
-      </c>
-      <c r="D222" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>25</v>
-      </c>
-      <c r="B223">
-        <v>220</v>
-      </c>
-      <c r="C223" t="s">
-        <v>186</v>
-      </c>
-      <c r="D223" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>31</v>
-      </c>
-      <c r="B224">
-        <v>295</v>
-      </c>
-      <c r="C224" t="s">
-        <v>187</v>
-      </c>
-      <c r="D224" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>22</v>
-      </c>
-      <c r="B225">
-        <v>223</v>
-      </c>
-      <c r="C225" t="s">
-        <v>186</v>
-      </c>
-      <c r="D225" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>21</v>
-      </c>
-      <c r="B226">
-        <v>223</v>
-      </c>
-      <c r="C226" t="s">
-        <v>186</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>213</v>
-      </c>
-      <c r="B227" t="s">
-        <v>215</v>
-      </c>
-      <c r="C227" t="s">
-        <v>108</v>
-      </c>
-      <c r="D227" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>58</v>
-      </c>
-      <c r="B228" t="s">
-        <v>60</v>
-      </c>
-      <c r="C228" t="s">
-        <v>187</v>
-      </c>
-      <c r="D228" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>61</v>
-      </c>
-      <c r="B229">
-        <v>393</v>
-      </c>
-      <c r="C229" t="s">
-        <v>187</v>
-      </c>
-      <c r="D229" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230">
-        <v>105</v>
-      </c>
-      <c r="C230" t="s">
-        <v>187</v>
-      </c>
-      <c r="D230" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>28</v>
-      </c>
-      <c r="B231" t="s">
-        <v>29</v>
-      </c>
-      <c r="C231" t="s">
-        <v>187</v>
-      </c>
-      <c r="D231" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>139</v>
-      </c>
-      <c r="B232">
-        <v>102</v>
-      </c>
-      <c r="C232" t="s">
-        <v>108</v>
-      </c>
-      <c r="D232" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>140</v>
-      </c>
-      <c r="B233">
-        <v>474</v>
-      </c>
-      <c r="C233" t="s">
-        <v>108</v>
-      </c>
-      <c r="D233" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>20</v>
-      </c>
-      <c r="B234">
-        <v>392</v>
-      </c>
-      <c r="C234" t="s">
-        <v>186</v>
-      </c>
-      <c r="D234" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>195</v>
-      </c>
-      <c r="B235">
-        <v>514</v>
-      </c>
-      <c r="C235" t="s">
-        <v>108</v>
-      </c>
-      <c r="D235" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>191</v>
-      </c>
-      <c r="B236">
-        <v>514</v>
-      </c>
-      <c r="C236" t="s">
-        <v>187</v>
-      </c>
-      <c r="D236" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>36</v>
-      </c>
-      <c r="B237">
-        <v>105</v>
-      </c>
-      <c r="C237" t="s">
-        <v>187</v>
-      </c>
-      <c r="D237" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>212</v>
-      </c>
-      <c r="B238">
-        <v>103</v>
-      </c>
-      <c r="C238" t="s">
-        <v>108</v>
-      </c>
-      <c r="D238" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>26</v>
-      </c>
-      <c r="B239">
-        <v>470</v>
-      </c>
       <c r="C239" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="B240">
-        <v>514</v>
+        <v>10001</v>
       </c>
       <c r="C240" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D240" t="s">
         <v>4</v>
@@ -5098,139 +5661,158 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="B241">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="C241" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
+      </c>
+      <c r="E241" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="B242">
         <v>471</v>
       </c>
       <c r="C242" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D242" t="s">
         <v>4</v>
+      </c>
+      <c r="E242" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B243">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C243" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>211</v>
-      </c>
-      <c r="B244" t="s">
-        <v>365</v>
+        <v>98</v>
+      </c>
+      <c r="B244">
+        <v>4701</v>
       </c>
       <c r="C244" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
-      </c>
-      <c r="E244" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B245">
-        <v>683</v>
+        <v>103</v>
       </c>
       <c r="C245" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
+      </c>
+      <c r="E245" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="B246">
-        <v>472</v>
+        <v>102</v>
       </c>
       <c r="C246" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D246" t="s">
         <v>4</v>
+      </c>
+      <c r="E246" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>210</v>
-      </c>
-      <c r="B247">
-        <v>104</v>
+        <v>172</v>
+      </c>
+      <c r="B247" t="s">
+        <v>173</v>
       </c>
       <c r="C247" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D247" t="s">
         <v>4</v>
       </c>
+      <c r="E247" s="6"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>193</v>
+        <v>71</v>
+      </c>
+      <c r="B248">
+        <v>202</v>
       </c>
       <c r="C248" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
+      </c>
+      <c r="E248" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>281</v>
-      </c>
-      <c r="B249" t="s">
-        <v>282</v>
+        <v>89</v>
+      </c>
+      <c r="B249">
+        <v>471</v>
       </c>
       <c r="C249" t="s">
         <v>148</v>
       </c>
       <c r="D249" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>302</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B250">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C250" t="s">
         <v>148</v>
@@ -5238,97 +5820,115 @@
       <c r="D250" t="s">
         <v>4</v>
       </c>
+      <c r="E250" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="B251" t="s">
-        <v>344</v>
+        <v>489</v>
       </c>
       <c r="C251" t="s">
         <v>148</v>
       </c>
       <c r="D251" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>91</v>
-      </c>
-      <c r="B252" t="s">
-        <v>183</v>
+        <v>70</v>
+      </c>
+      <c r="B252">
+        <v>472</v>
       </c>
       <c r="C252" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D252" t="s">
         <v>4</v>
+      </c>
+      <c r="E252" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="B253" t="s">
-        <v>298</v>
+        <v>491</v>
       </c>
       <c r="C253" t="s">
         <v>148</v>
       </c>
       <c r="D253" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B254">
-        <v>470</v>
+        <v>101</v>
       </c>
       <c r="C254" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D254" t="s">
         <v>4</v>
+      </c>
+      <c r="E254" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>309</v>
-      </c>
-      <c r="B255" t="s">
-        <v>299</v>
+        <v>69</v>
+      </c>
+      <c r="B255">
+        <v>103</v>
       </c>
       <c r="C255" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D255" t="s">
-        <v>253</v>
+        <v>4</v>
+      </c>
+      <c r="E255" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B256">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="C256" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D256" t="s">
         <v>4</v>
+      </c>
+      <c r="E256" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>152</v>
+        <v>77</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
       </c>
       <c r="C257" t="s">
         <v>148</v>
@@ -5337,100 +5937,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="B258" t="s">
-        <v>291</v>
+        <v>493</v>
       </c>
       <c r="C258" t="s">
         <v>148</v>
       </c>
       <c r="D258" t="s">
-        <v>253</v>
-      </c>
-      <c r="E258" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="B259" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="C259" t="s">
         <v>148</v>
       </c>
       <c r="D259" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B260">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C260" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D260" t="s">
         <v>4</v>
+      </c>
+      <c r="E260" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>157</v>
-      </c>
-      <c r="B261" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="B261">
+        <v>203</v>
       </c>
       <c r="C261" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D261" t="s">
         <v>4</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="B262" t="s">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="C262" t="s">
         <v>148</v>
       </c>
       <c r="D262" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E262" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>162</v>
-      </c>
-      <c r="B263">
-        <v>103</v>
+        <v>286</v>
+      </c>
+      <c r="B263" t="s">
+        <v>287</v>
       </c>
       <c r="C263" t="s">
         <v>148</v>
       </c>
       <c r="D263" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>151</v>
-      </c>
-      <c r="B264">
-        <v>472</v>
+        <v>93</v>
+      </c>
+      <c r="B264" t="s">
+        <v>45</v>
       </c>
       <c r="C264" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D264" t="s">
         <v>4</v>
@@ -5438,56 +6047,55 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="B265" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="C265" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D265" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>292</v>
-      </c>
-      <c r="B266" t="s">
-        <v>294</v>
+        <v>49</v>
+      </c>
+      <c r="B266">
+        <v>104</v>
       </c>
       <c r="C266" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D266" t="s">
-        <v>253</v>
-      </c>
-      <c r="E266" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>293</v>
-      </c>
-      <c r="B267" t="s">
-        <v>294</v>
+        <v>184</v>
+      </c>
+      <c r="B267">
+        <v>512</v>
       </c>
       <c r="C267" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D267" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="B268">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D268" t="s">
         <v>4</v>
@@ -5495,10 +6103,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B269">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="C269" t="s">
         <v>163</v>
@@ -5509,13 +6117,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>87</v>
-      </c>
-      <c r="B270">
-        <v>471</v>
+        <v>50</v>
+      </c>
+      <c r="B270" t="s">
+        <v>45</v>
       </c>
       <c r="C270" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
@@ -5523,13 +6131,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="B271">
-        <v>10001</v>
+        <v>104</v>
       </c>
       <c r="C271" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
@@ -5537,237 +6145,241 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B272">
-        <v>202</v>
+        <v>471</v>
       </c>
       <c r="C272" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D272" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="B273">
-        <v>471</v>
+        <v>105</v>
       </c>
       <c r="C273" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" s="6"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B274">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="C274" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D274" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="B275">
-        <v>4701</v>
+        <v>750</v>
       </c>
       <c r="C275" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B276">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C276" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="B277">
+        <v>272</v>
+      </c>
+      <c r="C277" t="s">
+        <v>108</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>127</v>
+      </c>
+      <c r="B278">
+        <v>682</v>
+      </c>
+      <c r="C278" t="s">
+        <v>108</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>205</v>
+      </c>
+      <c r="B279">
         <v>102</v>
       </c>
-      <c r="C277" t="s">
-        <v>163</v>
-      </c>
-      <c r="D277" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>172</v>
-      </c>
-      <c r="B278" t="s">
-        <v>173</v>
-      </c>
-      <c r="C278" t="s">
-        <v>163</v>
-      </c>
-      <c r="D278" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>71</v>
-      </c>
-      <c r="B279">
-        <v>202</v>
-      </c>
       <c r="C279" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B280">
-        <v>471</v>
+        <v>303</v>
       </c>
       <c r="C280" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="B281">
-        <v>103</v>
-      </c>
-      <c r="C281" t="s">
-        <v>148</v>
+        <v>750</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D281" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B282">
-        <v>470</v>
+        <v>222</v>
       </c>
       <c r="C282" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B283">
-        <v>472</v>
+        <v>100</v>
       </c>
       <c r="C283" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="B284">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="C284" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B285">
         <v>101</v>
       </c>
       <c r="C285" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D285" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="B286">
-        <v>103</v>
+        <v>750</v>
       </c>
       <c r="C286" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="B287">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="C287" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287" s="6"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C288" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
@@ -5775,13 +6387,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="B289">
-        <v>4531</v>
+        <v>750</v>
       </c>
       <c r="C289" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D289" t="s">
         <v>4</v>
@@ -5789,84 +6401,88 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>82</v>
-      </c>
-      <c r="B290" t="s">
-        <v>45</v>
+        <v>248</v>
+      </c>
+      <c r="B290">
+        <v>203</v>
       </c>
       <c r="C290" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
       </c>
+      <c r="E290" s="6"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>67</v>
-      </c>
-      <c r="B291">
-        <v>203</v>
-      </c>
-      <c r="C291" t="s">
-        <v>186</v>
-      </c>
-      <c r="D291" t="s">
-        <v>4</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B291" s="6">
+        <v>752</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="6"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="B292">
-        <v>203</v>
+        <v>750</v>
       </c>
       <c r="C292" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D292" t="s">
         <v>4</v>
       </c>
+      <c r="E292" s="6"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>312</v>
-      </c>
-      <c r="B293" t="s">
-        <v>296</v>
+        <v>246</v>
+      </c>
+      <c r="B293">
+        <v>333</v>
       </c>
       <c r="C293" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D293" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>288</v>
-      </c>
-      <c r="B294" t="s">
-        <v>289</v>
-      </c>
-      <c r="C294" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="B294">
+        <v>393</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D294" t="s">
-        <v>253</v>
-      </c>
-      <c r="E294" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E294" s="6"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>93</v>
-      </c>
-      <c r="B295" t="s">
-        <v>45</v>
+        <v>119</v>
+      </c>
+      <c r="B295">
+        <v>123</v>
       </c>
       <c r="C295" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D295" t="s">
         <v>4</v>
@@ -5874,27 +6490,28 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>95</v>
-      </c>
-      <c r="B296" t="s">
-        <v>45</v>
+        <v>240</v>
+      </c>
+      <c r="B296">
+        <v>331</v>
       </c>
       <c r="C296" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D296" t="s">
         <v>4</v>
       </c>
+      <c r="E296" s="6"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="B297">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="C297" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D297" t="s">
         <v>4</v>
@@ -5902,466 +6519,430 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>238</v>
+      </c>
+      <c r="B298">
+        <v>331</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299" t="s">
+        <v>183</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>48</v>
+      </c>
+      <c r="C300" t="s">
+        <v>183</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>218</v>
+      </c>
+      <c r="C301" t="s">
+        <v>108</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>146</v>
+      </c>
+      <c r="C302" t="s">
+        <v>108</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>215</v>
+      </c>
+      <c r="C303" t="s">
+        <v>108</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>217</v>
+      </c>
+      <c r="C304" t="s">
+        <v>108</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>115</v>
+      </c>
+      <c r="C305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>107</v>
+      </c>
+      <c r="C306" t="s">
+        <v>108</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>189</v>
+      </c>
+      <c r="C307" t="s">
+        <v>186</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>147</v>
+      </c>
+      <c r="C308" t="s">
+        <v>148</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>102</v>
+      </c>
+      <c r="B309" s="6"/>
+      <c r="C309" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>166</v>
+      </c>
+      <c r="C310" t="s">
+        <v>163</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>245</v>
+      </c>
+      <c r="C311" t="s">
+        <v>108</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>249</v>
+      </c>
+      <c r="C312" t="s">
+        <v>108</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>231</v>
+      </c>
+      <c r="C313" t="s">
+        <v>108</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>226</v>
+      </c>
+      <c r="C314" t="s">
+        <v>108</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>132</v>
+      </c>
+      <c r="C315" t="s">
+        <v>108</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>204</v>
+      </c>
+      <c r="C316" t="s">
+        <v>108</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>54</v>
+      </c>
+      <c r="C317" t="s">
+        <v>183</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>65</v>
+      </c>
+      <c r="C318" t="s">
+        <v>186</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>168</v>
+      </c>
+      <c r="C319" t="s">
+        <v>163</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>165</v>
+      </c>
+      <c r="C320" t="s">
+        <v>163</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>125</v>
+      </c>
+      <c r="C321" t="s">
+        <v>108</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>123</v>
+      </c>
+      <c r="C322" t="s">
+        <v>108</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>121</v>
+      </c>
+      <c r="C323" t="s">
+        <v>108</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>221</v>
+      </c>
+      <c r="C324" t="s">
+        <v>108</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>113</v>
+      </c>
+      <c r="C325" t="s">
+        <v>108</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>193</v>
+      </c>
+      <c r="C326" t="s">
+        <v>186</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" t="s">
+        <v>186</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>68</v>
+      </c>
+      <c r="C328" t="s">
         <v>185</v>
       </c>
-      <c r="B298">
-        <v>512</v>
-      </c>
-      <c r="C298" t="s">
-        <v>184</v>
-      </c>
-      <c r="D298" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>51</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>184</v>
-      </c>
-      <c r="D299" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>170</v>
-      </c>
-      <c r="B300">
-        <v>100</v>
-      </c>
-      <c r="C300" t="s">
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>164</v>
+      </c>
+      <c r="C329" t="s">
         <v>163</v>
       </c>
-      <c r="D300" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>50</v>
-      </c>
-      <c r="B301" t="s">
-        <v>45</v>
-      </c>
-      <c r="C301" t="s">
-        <v>184</v>
-      </c>
-      <c r="D301" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>52</v>
-      </c>
-      <c r="B302">
-        <v>104</v>
-      </c>
-      <c r="C302" t="s">
-        <v>184</v>
-      </c>
-      <c r="D302" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>135</v>
-      </c>
-      <c r="B303">
-        <v>471</v>
-      </c>
-      <c r="C303" t="s">
-        <v>108</v>
-      </c>
-      <c r="D303" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>126</v>
-      </c>
-      <c r="B304">
-        <v>105</v>
-      </c>
-      <c r="C304" t="s">
-        <v>108</v>
-      </c>
-      <c r="D304" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>124</v>
-      </c>
-      <c r="B305">
-        <v>105</v>
-      </c>
-      <c r="C305" t="s">
-        <v>108</v>
-      </c>
-      <c r="D305" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>55</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>219</v>
+      </c>
+      <c r="C331" t="s">
+        <v>108</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>192</v>
+      </c>
+      <c r="C332" t="s">
+        <v>186</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>152</v>
+      </c>
+      <c r="C333" t="s">
+        <v>148</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>122</v>
       </c>
-      <c r="C306" t="s">
-        <v>108</v>
-      </c>
-      <c r="D306" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>223</v>
-      </c>
-      <c r="B307">
-        <v>750</v>
-      </c>
-      <c r="C307" t="s">
-        <v>108</v>
-      </c>
-      <c r="D307" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>117</v>
-      </c>
-      <c r="B308">
-        <v>153</v>
-      </c>
-      <c r="C308" t="s">
-        <v>108</v>
-      </c>
-      <c r="D308" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>246</v>
-      </c>
-      <c r="B309">
-        <v>272</v>
-      </c>
-      <c r="C309" t="s">
-        <v>108</v>
-      </c>
-      <c r="D309" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>127</v>
-      </c>
-      <c r="B310">
-        <v>682</v>
-      </c>
-      <c r="C310" t="s">
-        <v>108</v>
-      </c>
-      <c r="D310" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>206</v>
-      </c>
-      <c r="B311">
-        <v>102</v>
-      </c>
-      <c r="C311" t="s">
-        <v>108</v>
-      </c>
-      <c r="D311" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>118</v>
-      </c>
-      <c r="B312">
-        <v>303</v>
-      </c>
-      <c r="C312" t="s">
-        <v>108</v>
-      </c>
-      <c r="D312" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>243</v>
-      </c>
-      <c r="B313">
-        <v>750</v>
-      </c>
-      <c r="C313" t="s">
-        <v>108</v>
-      </c>
-      <c r="D313" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>112</v>
-      </c>
-      <c r="B314">
-        <v>222</v>
-      </c>
-      <c r="C314" t="s">
-        <v>108</v>
-      </c>
-      <c r="D314" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>138</v>
-      </c>
-      <c r="B315">
-        <v>100</v>
-      </c>
-      <c r="C315" t="s">
-        <v>108</v>
-      </c>
-      <c r="D315" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>137</v>
-      </c>
-      <c r="B316">
-        <v>151</v>
-      </c>
-      <c r="C316" t="s">
-        <v>108</v>
-      </c>
-      <c r="D316" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>136</v>
-      </c>
-      <c r="B317">
-        <v>101</v>
-      </c>
-      <c r="C317" t="s">
-        <v>108</v>
-      </c>
-      <c r="D317" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>226</v>
-      </c>
-      <c r="B318">
-        <v>750</v>
-      </c>
-      <c r="C318" t="s">
-        <v>108</v>
-      </c>
-      <c r="D318" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>228</v>
-      </c>
-      <c r="B319" t="s">
-        <v>229</v>
-      </c>
-      <c r="C319" t="s">
-        <v>108</v>
-      </c>
-      <c r="D319" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>232</v>
-      </c>
-      <c r="B320" t="s">
-        <v>229</v>
-      </c>
-      <c r="C320" t="s">
-        <v>108</v>
-      </c>
-      <c r="D320" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>224</v>
-      </c>
-      <c r="B321">
-        <v>750</v>
-      </c>
-      <c r="C321" t="s">
-        <v>108</v>
-      </c>
-      <c r="D321" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>250</v>
-      </c>
-      <c r="B322">
-        <v>203</v>
-      </c>
-      <c r="C322" t="s">
-        <v>108</v>
-      </c>
-      <c r="D322" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>249</v>
-      </c>
-      <c r="B323">
-        <v>752</v>
-      </c>
-      <c r="C323" t="s">
-        <v>108</v>
-      </c>
-      <c r="D323" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>225</v>
-      </c>
-      <c r="B324">
-        <v>750</v>
-      </c>
-      <c r="C324" t="s">
-        <v>108</v>
-      </c>
-      <c r="D324" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>248</v>
-      </c>
-      <c r="B325">
-        <v>333</v>
-      </c>
-      <c r="C325" t="s">
-        <v>108</v>
-      </c>
-      <c r="D325" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>116</v>
-      </c>
-      <c r="B326">
-        <v>393</v>
-      </c>
-      <c r="C326" t="s">
-        <v>108</v>
-      </c>
-      <c r="D326" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>119</v>
-      </c>
-      <c r="B327">
-        <v>123</v>
-      </c>
-      <c r="C327" t="s">
-        <v>108</v>
-      </c>
-      <c r="D327" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>242</v>
-      </c>
-      <c r="B328">
-        <v>331</v>
-      </c>
-      <c r="C328" t="s">
-        <v>108</v>
-      </c>
-      <c r="D328" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>241</v>
-      </c>
-      <c r="B329">
-        <v>331</v>
-      </c>
-      <c r="C329" t="s">
-        <v>108</v>
-      </c>
-      <c r="D329" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>240</v>
-      </c>
-      <c r="B330">
-        <v>331</v>
-      </c>
-      <c r="C330" t="s">
-        <v>108</v>
-      </c>
-      <c r="D330" t="s">
+      <c r="C334" t="s">
+        <v>108</v>
+      </c>
+      <c r="D334" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A331:A1138 A1:A170 B171 A172:A316">
+  <conditionalFormatting sqref="A335:A1142 A1:A172 B173 A174:A320">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87431B-7BFC-F54E-BD32-5174FADA6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BF7C2-9B2E-D14D-8732-A3376473ABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
   <dimension ref="A1:H334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BF7C2-9B2E-D14D-8732-A3376473ABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BF7C2-F196-FA4F-A51E-649F0780DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="532">
   <si>
     <t>Code</t>
   </si>
@@ -1454,9 +1454,6 @@
     <t>Column4</t>
   </si>
   <si>
-    <t>SOT-143B BCV62B NXP PNP transistors</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -1527,6 +1524,111 @@
   </si>
   <si>
     <t>100k Ohm</t>
+  </si>
+  <si>
+    <t>DP17</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>SOT-143B BCV62B NXP PNP transistors ??</t>
+  </si>
+  <si>
+    <t>STPR805DB diode</t>
+  </si>
+  <si>
+    <t>CP37</t>
+  </si>
+  <si>
+    <t>75 Ohm</t>
+  </si>
+  <si>
+    <t>2700 Ohm</t>
+  </si>
+  <si>
+    <t>3k Ohm</t>
+  </si>
+  <si>
+    <t>2200 Ohm</t>
+  </si>
+  <si>
+    <t>10 Ohm</t>
+  </si>
+  <si>
+    <t>150 Ohm</t>
+  </si>
+  <si>
+    <t>7500 Ohm</t>
+  </si>
+  <si>
+    <t>33k Ohm</t>
+  </si>
+  <si>
+    <t>39k Ohm</t>
+  </si>
+  <si>
+    <t>12k Ohm</t>
+  </si>
+  <si>
+    <t>330 Ohm</t>
+  </si>
+  <si>
+    <t>6800 Ohm</t>
+  </si>
+  <si>
+    <t>1000k Ohm</t>
+  </si>
+  <si>
+    <t>470k Ohm</t>
+  </si>
+  <si>
+    <t>3900 Ohm</t>
+  </si>
+  <si>
+    <t>510k Ohm</t>
+  </si>
+  <si>
+    <t>2900k Ohm</t>
+  </si>
+  <si>
+    <t>68k Ohm</t>
+  </si>
+  <si>
+    <t>10M Ohm</t>
+  </si>
+  <si>
+    <t>1900k Ohm</t>
+  </si>
+  <si>
+    <t>430k Ohm</t>
+  </si>
+  <si>
+    <t>3300 Ohm</t>
+  </si>
+  <si>
+    <t>75k Ohm</t>
+  </si>
+  <si>
+    <t>1200M Ohm ??</t>
+  </si>
+  <si>
+    <t>19k Ohm</t>
+  </si>
+  <si>
+    <t>320 Ohm</t>
+  </si>
+  <si>
+    <t>18 Ohm</t>
+  </si>
+  <si>
+    <t>400 Ohm</t>
+  </si>
+  <si>
+    <t>150k Ohm</t>
+  </si>
+  <si>
+    <t>22 Ohm</t>
   </si>
 </sst>
 </file>
@@ -1621,18 +1723,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,16 +1762,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H334" totalsRowShown="0">
-  <autoFilter ref="A1:H334" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H336" totalsRowShown="0">
+  <autoFilter ref="A1:H336" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H298">
-    <sortCondition ref="A1:A334"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H300">
+    <sortCondition ref="A1:A336"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
@@ -1985,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="50" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2419,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2436,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2448,7 +2547,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2802,7 +2901,7 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="2" t="s">
         <v>455</v>
       </c>
     </row>
@@ -2819,7 +2918,7 @@
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="2" t="s">
         <v>455</v>
       </c>
     </row>
@@ -2864,83 +2963,77 @@
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="C58" t="s">
         <v>148</v>
       </c>
-      <c r="D58" t="s">
-        <v>251</v>
-      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
         <v>251</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
         <v>251</v>
       </c>
-      <c r="E60" t="s">
-        <v>464</v>
+      <c r="E60" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
         <v>251</v>
       </c>
       <c r="E61" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>436</v>
+        <v>263</v>
       </c>
       <c r="B62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C62" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
       <c r="D62" t="s">
         <v>251</v>
       </c>
@@ -2950,27 +3043,24 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" t="s">
-        <v>163</v>
+        <v>429</v>
       </c>
       <c r="D63" t="s">
         <v>251</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
         <v>163</v>
@@ -2978,14 +3068,16 @@
       <c r="D64" t="s">
         <v>251</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="6" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
         <v>163</v>
@@ -2993,16 +3085,17 @@
       <c r="D65" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s">
-        <v>438</v>
+        <v>269</v>
+      </c>
+      <c r="C66" t="s">
+        <v>163</v>
       </c>
       <c r="D66" t="s">
         <v>251</v>
@@ -3013,141 +3106,140 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" t="s">
-        <v>163</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
         <v>251</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>455</v>
+        <v>251</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>468</v>
+      <c r="E69" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>455</v>
+        <v>251</v>
+      </c>
+      <c r="E71" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" t="s">
         <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" t="s">
-        <v>148</v>
+        <v>181</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E73" t="s">
-        <v>372</v>
+      <c r="E73" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>439</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>401</v>
-      </c>
-      <c r="C74" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B75" t="s">
         <v>401</v>
@@ -3161,25 +3253,24 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D76" t="s">
         <v>251</v>
       </c>
-      <c r="E76" s="6"/>
+      <c r="E76" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>441</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
         <v>163</v>
@@ -3187,28 +3278,27 @@
       <c r="D77" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="8"/>
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>45</v>
@@ -3219,28 +3309,28 @@
       <c r="D79" t="s">
         <v>4</v>
       </c>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
         <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
-      </c>
-      <c r="E80" s="7"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B81" t="s">
-        <v>442</v>
+        <v>271</v>
       </c>
       <c r="C81" t="s">
         <v>148</v>
@@ -3248,41 +3338,39 @@
       <c r="D81" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>376</v>
-      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" t="s">
+        <v>442</v>
+      </c>
+      <c r="C82" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="D82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>308</v>
-      </c>
-      <c r="B83" t="s">
-        <v>442</v>
-      </c>
-      <c r="C83" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D83" t="s">
-        <v>251</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="D83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3291,7 +3379,7 @@
         <v>308</v>
       </c>
       <c r="B84" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -3299,24 +3387,24 @@
       <c r="D84" t="s">
         <v>251</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="6" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>163</v>
+        <v>322</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
       </c>
       <c r="D85" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="6" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3325,73 +3413,75 @@
         <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>393</v>
-      </c>
-      <c r="C86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D86" t="s">
         <v>251</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="C87" t="s">
         <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>468</v>
+        <v>251</v>
+      </c>
+      <c r="E87" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>233</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>443</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="E89" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -3399,24 +3489,21 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="C91" t="s">
         <v>108</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
         <v>233</v>
@@ -3427,44 +3514,47 @@
       <c r="D92" t="s">
         <v>4</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="6" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="B93" t="s">
-        <v>445</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>444</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="C94" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>4</v>
+      <c r="D94" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
         <v>371</v>
@@ -3478,27 +3568,24 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="B96" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C96" t="s">
         <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
-      </c>
-      <c r="E96" t="s">
-        <v>382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
@@ -3512,7 +3599,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B98" t="s">
         <v>403</v>
@@ -3529,44 +3616,44 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>403</v>
       </c>
       <c r="C99" t="s">
         <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>468</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>449</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>403</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
         <v>108</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B101" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3580,24 +3667,24 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>235</v>
+        <v>450</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E102" t="s">
-        <v>468</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
         <v>233</v>
@@ -3614,35 +3701,38 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>451</v>
+        <v>242</v>
       </c>
       <c r="B104" t="s">
-        <v>452</v>
+        <v>233</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B105" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D105" t="s">
         <v>251</v>
       </c>
       <c r="E105" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B106" t="s">
         <v>454</v>
@@ -3656,16 +3746,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>456</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E107" t="s">
         <v>468</v>
@@ -3673,52 +3760,55 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>457</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>457</v>
       </c>
       <c r="B109" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" t="s">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E109" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>458</v>
+        <v>131</v>
       </c>
       <c r="B110" t="s">
-        <v>409</v>
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B111" t="s">
         <v>409</v>
@@ -3732,21 +3822,21 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B112" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D112" t="s">
         <v>251</v>
       </c>
       <c r="E112" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B113" t="s">
         <v>401</v>
@@ -3760,55 +3850,52 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>461</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
+        <v>401</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E114" t="s">
-        <v>468</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>371</v>
+        <v>233</v>
       </c>
       <c r="C115" t="s">
         <v>108</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="C116" t="s">
         <v>108</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
-      </c>
-      <c r="E116" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s">
         <v>233</v>
@@ -3825,7 +3912,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
         <v>233</v>
@@ -3842,10 +3929,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="C119" t="s">
         <v>108</v>
@@ -3854,15 +3941,15 @@
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="C120" t="s">
         <v>108</v>
@@ -3871,18 +3958,18 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
         <v>302</v>
       </c>
       <c r="C121" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -3893,46 +3980,46 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C122" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>4</v>
+        <v>276</v>
+      </c>
+      <c r="C123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D123" t="s">
+        <v>251</v>
       </c>
       <c r="E123" t="s">
-        <v>467</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="B124" t="s">
-        <v>302</v>
-      </c>
-      <c r="C124" t="s">
-        <v>148</v>
-      </c>
-      <c r="D124" t="s">
+        <v>353</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E124" t="s">
@@ -3941,137 +4028,135 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>319</v>
-      </c>
-      <c r="D125" s="5"/>
+        <v>302</v>
+      </c>
+      <c r="C125" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
       <c r="E125" t="s">
-        <v>473</v>
-      </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+        <v>467</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>259</v>
-      </c>
-      <c r="B126" t="s">
-        <v>260</v>
-      </c>
-      <c r="C126" t="s">
-        <v>163</v>
-      </c>
-      <c r="D126" t="s">
-        <v>251</v>
-      </c>
-      <c r="E126" s="6"/>
+        <v>497</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>76</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C127" t="s">
+        <v>498</v>
+      </c>
+      <c r="D127" s="5"/>
       <c r="E127" t="s">
-        <v>467</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="B128" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
         <v>163</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>328</v>
+        <v>251</v>
+      </c>
+      <c r="E128" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" t="s">
-        <v>255</v>
-      </c>
-      <c r="C129" t="s">
-        <v>163</v>
-      </c>
-      <c r="D129" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>90</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" t="s">
+        <v>329</v>
+      </c>
+      <c r="C130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" t="s">
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>467</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>155</v>
-      </c>
-      <c r="B131">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>255</v>
       </c>
       <c r="C131" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D131" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>310</v>
-      </c>
-      <c r="B132" t="s">
-        <v>275</v>
-      </c>
-      <c r="C132" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D132" t="s">
-        <v>251</v>
+      <c r="D132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" t="s">
-        <v>362</v>
+        <v>155</v>
+      </c>
+      <c r="B133">
+        <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -4079,13 +4164,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D134" t="s">
         <v>251</v>
@@ -4093,44 +4178,38 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D135" t="s">
-        <v>251</v>
-      </c>
-      <c r="E135" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D136" t="s">
         <v>251</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
         <v>163</v>
@@ -4139,57 +4218,63 @@
         <v>251</v>
       </c>
       <c r="E137" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D138" t="s">
         <v>251</v>
       </c>
-      <c r="E138" t="s">
-        <v>317</v>
+      <c r="E138" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="C139" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D139" t="s">
         <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="C140" t="s">
         <v>108</v>
       </c>
       <c r="D140" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E140" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="B141" t="s">
         <v>254</v>
@@ -4198,12 +4283,12 @@
         <v>108</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
         <v>254</v>
@@ -4217,7 +4302,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B143" t="s">
         <v>254</v>
@@ -4231,13 +4316,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
         <v>254</v>
       </c>
       <c r="C144" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -4245,13 +4330,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
         <v>254</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -4259,13 +4344,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="B146" t="s">
         <v>254</v>
       </c>
       <c r="C146" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -4273,13 +4358,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="B147" t="s">
         <v>254</v>
       </c>
       <c r="C147" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -4287,13 +4372,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B148" t="s">
         <v>254</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>183</v>
+      <c r="C148" t="s">
+        <v>108</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -4301,28 +4386,27 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="C149" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B150" t="s">
         <v>254</v>
       </c>
-      <c r="C150" t="s">
-        <v>163</v>
+      <c r="C150" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -4330,13 +4414,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -4344,13 +4428,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B152" t="s">
         <v>254</v>
       </c>
       <c r="C152" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -4358,7 +4442,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B153" t="s">
+        <v>254</v>
       </c>
       <c r="C153" t="s">
         <v>108</v>
@@ -4369,144 +4456,145 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>254</v>
+      </c>
+      <c r="C154" t="s">
+        <v>108</v>
       </c>
       <c r="D154" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>258</v>
-      </c>
-      <c r="B155" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C155" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D155" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="B156" t="s">
-        <v>320</v>
-      </c>
-      <c r="C156" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="B157" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="C157" t="s">
         <v>163</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>144</v>
-      </c>
-      <c r="B158">
-        <v>153</v>
+        <v>104</v>
+      </c>
+      <c r="B158" t="s">
+        <v>320</v>
       </c>
       <c r="C158" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
       </c>
-      <c r="E158" s="11"/>
+      <c r="E158" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159">
-        <v>331</v>
+        <v>103</v>
+      </c>
+      <c r="B159" t="s">
+        <v>319</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
       </c>
-      <c r="E159" s="11"/>
+      <c r="E159" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="B160">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
       </c>
-      <c r="E160" s="11"/>
+      <c r="E160" s="8" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="B161">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="C161" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="11"/>
+      <c r="E161" s="8" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="B162">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="11"/>
+      <c r="E162" s="8" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B163">
-        <v>434</v>
+        <v>123</v>
       </c>
       <c r="C163" t="s">
         <v>108</v>
@@ -4514,29 +4602,33 @@
       <c r="D163" t="s">
         <v>4</v>
       </c>
-      <c r="E163" s="11"/>
+      <c r="E163" s="8" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="B164">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C164" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
       </c>
-      <c r="E164" s="11"/>
+      <c r="E164" s="8" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B165">
-        <v>223</v>
+        <v>434</v>
       </c>
       <c r="C165" t="s">
         <v>108</v>
@@ -4544,11 +4636,13 @@
       <c r="D165" t="s">
         <v>4</v>
       </c>
-      <c r="E165" s="11"/>
+      <c r="E165" s="8" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="B166">
         <v>223</v>
@@ -4559,59 +4653,67 @@
       <c r="D166" t="s">
         <v>4</v>
       </c>
-      <c r="E166" s="11"/>
+      <c r="E166" s="8" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="B167">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
       </c>
-      <c r="E167" s="11"/>
+      <c r="E167" s="8" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B168">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="C168" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="11"/>
+      <c r="E168" s="8" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>142</v>
-      </c>
-      <c r="B169" t="s">
-        <v>143</v>
+        <v>53</v>
+      </c>
+      <c r="B169">
+        <v>153</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="11"/>
+      <c r="E169" s="8" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B170">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s">
         <v>185</v>
@@ -4619,129 +4721,150 @@
       <c r="D170" t="s">
         <v>4</v>
       </c>
-      <c r="E170" s="11"/>
+      <c r="E170" s="8" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>39</v>
-      </c>
-      <c r="B171">
-        <v>471</v>
+        <v>142</v>
+      </c>
+      <c r="B171" t="s">
+        <v>143</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="11"/>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
-      </c>
-      <c r="B172" s="6">
-        <v>331</v>
-      </c>
-      <c r="C172" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>102</v>
+      </c>
+      <c r="C172" t="s">
         <v>185</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E172" s="11"/>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="B173">
-        <v>104</v>
+        <v>471</v>
       </c>
       <c r="C173" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B174">
-        <v>753</v>
+        <v>331</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B175">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C175" t="s">
         <v>108</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B176">
-        <v>272</v>
+        <v>753</v>
       </c>
       <c r="C176" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
+      </c>
+      <c r="E176" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="B177">
-        <v>471</v>
+        <v>128</v>
       </c>
       <c r="C177" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B178">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C178" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
       </c>
-      <c r="E178" s="11"/>
+      <c r="E178" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B179">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4749,27 +4872,33 @@
       <c r="D179" t="s">
         <v>4</v>
       </c>
+      <c r="E179" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="B180">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C180" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="B181">
-        <v>472</v>
+        <v>321</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -4777,44 +4906,53 @@
       <c r="D181" t="s">
         <v>4</v>
       </c>
+      <c r="E181" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>62</v>
-      </c>
-      <c r="B182" t="s">
-        <v>63</v>
+        <v>198</v>
+      </c>
+      <c r="B182">
+        <v>151</v>
       </c>
       <c r="C182" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
+      </c>
+      <c r="E182" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B183">
-        <v>223</v>
+        <v>472</v>
       </c>
       <c r="C183" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>9</v>
-      </c>
-      <c r="B184">
-        <v>471</v>
+        <v>62</v>
+      </c>
+      <c r="B184" t="s">
+        <v>63</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -4822,21 +4960,24 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="B185">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="C185" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B186">
         <v>471</v>
@@ -4847,42 +4988,50 @@
       <c r="D186" t="s">
         <v>4</v>
       </c>
+      <c r="E186" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B187">
-        <v>401</v>
+        <v>180</v>
       </c>
       <c r="C187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B188">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="C188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
       </c>
-      <c r="E188" s="6"/>
+      <c r="E188" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B189">
-        <v>153</v>
+        <v>401</v>
       </c>
       <c r="C189" t="s">
         <v>186</v>
@@ -4890,44 +5039,50 @@
       <c r="D189" t="s">
         <v>4</v>
       </c>
-      <c r="E189" s="11" t="s">
-        <v>476</v>
+      <c r="E189" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B190">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="C190" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B191">
-        <v>392</v>
+        <v>153</v>
       </c>
       <c r="C191" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B192">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="C192" t="s">
         <v>185</v>
@@ -4935,27 +5090,33 @@
       <c r="D192" t="s">
         <v>4</v>
       </c>
+      <c r="E192" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B193">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="C193" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B194">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
         <v>185</v>
@@ -4964,63 +5125,69 @@
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B195">
-        <v>223</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>185</v>
+        <v>295</v>
+      </c>
+      <c r="C195" t="s">
+        <v>186</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>212</v>
-      </c>
-      <c r="B196" t="s">
-        <v>214</v>
+        <v>22</v>
+      </c>
+      <c r="B196">
+        <v>223</v>
       </c>
       <c r="C196" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
+      </c>
+      <c r="E196" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>58</v>
-      </c>
-      <c r="B197" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="B197">
+        <v>223</v>
       </c>
       <c r="C197" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>61</v>
-      </c>
-      <c r="B198">
-        <v>393</v>
+        <v>212</v>
+      </c>
+      <c r="B198" t="s">
+        <v>214</v>
       </c>
       <c r="C198" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -5028,10 +5195,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199">
-        <v>105</v>
+        <v>58</v>
+      </c>
+      <c r="B199" t="s">
+        <v>60</v>
       </c>
       <c r="C199" t="s">
         <v>186</v>
@@ -5042,10 +5209,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>28</v>
-      </c>
-      <c r="B200" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="B200">
+        <v>393</v>
       </c>
       <c r="C200" t="s">
         <v>186</v>
@@ -5053,30 +5220,36 @@
       <c r="D200" t="s">
         <v>4</v>
       </c>
+      <c r="E200" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B201">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C201" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>140</v>
-      </c>
-      <c r="B202">
-        <v>474</v>
+        <v>28</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -5084,109 +5257,129 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B203">
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="C203" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
+      </c>
+      <c r="E203" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B204">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="C204" t="s">
         <v>108</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
+      </c>
+      <c r="E204" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="B205">
-        <v>514</v>
+        <v>392</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
+      </c>
+      <c r="E205" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="B206">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="C206" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
+      </c>
+      <c r="E206" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B207">
-        <v>103</v>
+        <v>514</v>
       </c>
       <c r="C207" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
       </c>
-      <c r="E207" s="6"/>
+      <c r="E207" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B208">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="C208" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
+      </c>
+      <c r="E208" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="B209">
-        <v>514</v>
+        <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
+      </c>
+      <c r="E209" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B210">
-        <v>295</v>
+        <v>470</v>
       </c>
       <c r="C210" t="s">
         <v>185</v>
@@ -5194,13 +5387,16 @@
       <c r="D210" t="s">
         <v>4</v>
       </c>
+      <c r="E210" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B211">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="C211" t="s">
         <v>186</v>
@@ -5208,13 +5404,16 @@
       <c r="D211" t="s">
         <v>4</v>
       </c>
+      <c r="E211" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B212">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
         <v>185</v>
@@ -5222,30 +5421,33 @@
       <c r="D212" t="s">
         <v>4</v>
       </c>
+      <c r="E212" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>210</v>
-      </c>
-      <c r="B213" t="s">
-        <v>359</v>
+        <v>30</v>
+      </c>
+      <c r="B213">
+        <v>471</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
       </c>
       <c r="E213" t="s">
-        <v>364</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B214">
-        <v>683</v>
+        <v>103</v>
       </c>
       <c r="C214" t="s">
         <v>185</v>
@@ -5253,13 +5455,16 @@
       <c r="D214" t="s">
         <v>4</v>
       </c>
+      <c r="E214" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>234</v>
-      </c>
-      <c r="B215">
-        <v>472</v>
+        <v>210</v>
+      </c>
+      <c r="B215" t="s">
+        <v>359</v>
       </c>
       <c r="C215" t="s">
         <v>108</v>
@@ -5268,63 +5473,66 @@
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>490</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="B216">
-        <v>104</v>
+        <v>683</v>
       </c>
       <c r="C216" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>279</v>
-      </c>
-      <c r="B217" t="s">
-        <v>280</v>
+        <v>234</v>
+      </c>
+      <c r="B217">
+        <v>472</v>
       </c>
       <c r="C217" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D217" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>300</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="B218">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C218" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="C219" t="s">
         <v>148</v>
@@ -5333,15 +5541,15 @@
         <v>251</v>
       </c>
       <c r="E219" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>91</v>
-      </c>
-      <c r="B220" t="s">
-        <v>182</v>
+        <v>86</v>
+      </c>
+      <c r="B220">
+        <v>101</v>
       </c>
       <c r="C220" t="s">
         <v>148</v>
@@ -5349,13 +5557,16 @@
       <c r="D220" t="s">
         <v>4</v>
       </c>
+      <c r="E220" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="C221" t="s">
         <v>148</v>
@@ -5363,13 +5574,16 @@
       <c r="D221" t="s">
         <v>251</v>
       </c>
+      <c r="E221" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>92</v>
-      </c>
-      <c r="B222">
-        <v>470</v>
+        <v>91</v>
+      </c>
+      <c r="B222" t="s">
+        <v>182</v>
       </c>
       <c r="C222" t="s">
         <v>148</v>
@@ -5377,16 +5591,13 @@
       <c r="D222" t="s">
         <v>4</v>
       </c>
-      <c r="E222" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C223" t="s">
         <v>148</v>
@@ -5397,10 +5608,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B224">
-        <v>182</v>
+        <v>470</v>
       </c>
       <c r="C224" t="s">
         <v>148</v>
@@ -5409,15 +5620,15 @@
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B225" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C225" t="s">
         <v>148</v>
@@ -5425,62 +5636,59 @@
       <c r="D225" t="s">
         <v>251</v>
       </c>
-      <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>306</v>
-      </c>
-      <c r="B226" t="s">
-        <v>295</v>
+        <v>88</v>
+      </c>
+      <c r="B226">
+        <v>182</v>
       </c>
       <c r="C226" t="s">
         <v>148</v>
       </c>
       <c r="D226" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E226" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>150</v>
-      </c>
-      <c r="B227">
-        <v>153</v>
+        <v>288</v>
+      </c>
+      <c r="B227" t="s">
+        <v>289</v>
       </c>
       <c r="C227" t="s">
         <v>148</v>
       </c>
       <c r="D227" t="s">
-        <v>4</v>
-      </c>
-      <c r="E227" t="s">
-        <v>476</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>481</v>
-      </c>
-      <c r="B228">
-        <v>102</v>
+        <v>306</v>
+      </c>
+      <c r="B228" t="s">
+        <v>295</v>
       </c>
       <c r="C228" t="s">
         <v>148</v>
       </c>
       <c r="D228" t="s">
-        <v>4</v>
-      </c>
-      <c r="E228" t="s">
-        <v>482</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>157</v>
-      </c>
-      <c r="B229" t="s">
-        <v>63</v>
+        <v>150</v>
+      </c>
+      <c r="B229">
+        <v>153</v>
       </c>
       <c r="C229" t="s">
         <v>148</v>
@@ -5488,13 +5696,16 @@
       <c r="D229" t="s">
         <v>4</v>
       </c>
+      <c r="E229" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>79</v>
-      </c>
-      <c r="B230" t="s">
-        <v>80</v>
+        <v>480</v>
+      </c>
+      <c r="B230">
+        <v>102</v>
       </c>
       <c r="C230" t="s">
         <v>148</v>
@@ -5502,13 +5713,16 @@
       <c r="D230" t="s">
         <v>4</v>
       </c>
+      <c r="E230" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>162</v>
-      </c>
-      <c r="B231">
-        <v>103</v>
+        <v>157</v>
+      </c>
+      <c r="B231" t="s">
+        <v>63</v>
       </c>
       <c r="C231" t="s">
         <v>148</v>
@@ -5516,16 +5730,13 @@
       <c r="D231" t="s">
         <v>4</v>
       </c>
-      <c r="E231" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>151</v>
-      </c>
-      <c r="B232">
-        <v>472</v>
+        <v>79</v>
+      </c>
+      <c r="B232" t="s">
+        <v>80</v>
       </c>
       <c r="C232" t="s">
         <v>148</v>
@@ -5533,16 +5744,13 @@
       <c r="D232" t="s">
         <v>4</v>
       </c>
-      <c r="E232" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>159</v>
-      </c>
-      <c r="B233" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="B233">
+        <v>103</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>
@@ -5550,13 +5758,16 @@
       <c r="D233" t="s">
         <v>4</v>
       </c>
+      <c r="E233" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>479</v>
+        <v>151</v>
       </c>
       <c r="B234">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="C234" t="s">
         <v>148</v>
@@ -5565,92 +5776,89 @@
         <v>4</v>
       </c>
       <c r="E234" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="B235" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="C235" t="s">
         <v>148</v>
       </c>
       <c r="D235" t="s">
-        <v>251</v>
-      </c>
-      <c r="E235" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>291</v>
-      </c>
-      <c r="B236" t="s">
-        <v>292</v>
+        <v>478</v>
+      </c>
+      <c r="B236">
+        <v>101</v>
       </c>
       <c r="C236" t="s">
         <v>148</v>
       </c>
       <c r="D236" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E236" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="B237" t="s">
-        <v>494</v>
+        <v>292</v>
       </c>
       <c r="C237" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D237" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>180</v>
-      </c>
-      <c r="B238">
-        <v>203</v>
+        <v>291</v>
+      </c>
+      <c r="B238" t="s">
+        <v>292</v>
       </c>
       <c r="C238" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D238" t="s">
-        <v>4</v>
-      </c>
-      <c r="E238" t="s">
-        <v>492</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>87</v>
-      </c>
-      <c r="B239">
-        <v>471</v>
+        <v>178</v>
+      </c>
+      <c r="B239" t="s">
+        <v>493</v>
       </c>
       <c r="C239" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
-      </c>
-      <c r="E239" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B240">
-        <v>10001</v>
+        <v>203</v>
       </c>
       <c r="C240" t="s">
         <v>163</v>
@@ -5658,30 +5866,33 @@
       <c r="D240" t="s">
         <v>4</v>
       </c>
+      <c r="E240" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B241">
-        <v>202</v>
+        <v>471</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B242">
-        <v>471</v>
+        <v>10001</v>
       </c>
       <c r="C242" t="s">
         <v>163</v>
@@ -5689,13 +5900,10 @@
       <c r="D242" t="s">
         <v>4</v>
       </c>
-      <c r="E242" t="s">
-        <v>485</v>
-      </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="B243">
         <v>202</v>
@@ -5706,16 +5914,16 @@
       <c r="D243" t="s">
         <v>4</v>
       </c>
-      <c r="E243" s="6" t="s">
-        <v>486</v>
+      <c r="E243" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="B244">
-        <v>4701</v>
+        <v>471</v>
       </c>
       <c r="C244" t="s">
         <v>163</v>
@@ -5723,13 +5931,16 @@
       <c r="D244" t="s">
         <v>4</v>
       </c>
+      <c r="E244" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B245">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C245" t="s">
         <v>163</v>
@@ -5738,15 +5949,15 @@
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B246">
-        <v>102</v>
+        <v>4701</v>
       </c>
       <c r="C246" t="s">
         <v>163</v>
@@ -5754,16 +5965,13 @@
       <c r="D246" t="s">
         <v>4</v>
       </c>
-      <c r="E246" t="s">
-        <v>487</v>
-      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>172</v>
-      </c>
-      <c r="B247" t="s">
-        <v>173</v>
+        <v>105</v>
+      </c>
+      <c r="B247">
+        <v>103</v>
       </c>
       <c r="C247" t="s">
         <v>163</v>
@@ -5771,14 +5979,16 @@
       <c r="D247" t="s">
         <v>4</v>
       </c>
-      <c r="E247" s="6"/>
+      <c r="E247" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B248">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="C248" t="s">
         <v>163</v>
@@ -5792,44 +6002,41 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>89</v>
-      </c>
-      <c r="B249">
-        <v>471</v>
+        <v>172</v>
+      </c>
+      <c r="B249" t="s">
+        <v>173</v>
       </c>
       <c r="C249" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D249" t="s">
         <v>4</v>
-      </c>
-      <c r="E249" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B250">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C250" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D250" t="s">
         <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>74</v>
-      </c>
-      <c r="B251" t="s">
-        <v>489</v>
+        <v>89</v>
+      </c>
+      <c r="B251">
+        <v>471</v>
       </c>
       <c r="C251" t="s">
         <v>148</v>
@@ -5838,32 +6045,32 @@
         <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B252">
-        <v>472</v>
+        <v>103</v>
       </c>
       <c r="C252" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D252" t="s">
         <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B253" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C253" t="s">
         <v>148</v>
@@ -5871,13 +6078,16 @@
       <c r="D253" t="s">
         <v>4</v>
       </c>
+      <c r="E253" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B254">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="C254" t="s">
         <v>163</v>
@@ -5886,32 +6096,29 @@
         <v>4</v>
       </c>
       <c r="E254" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>69</v>
-      </c>
-      <c r="B255">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="B255" t="s">
+        <v>490</v>
       </c>
       <c r="C255" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D255" t="s">
         <v>4</v>
-      </c>
-      <c r="E255" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B256">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C256" t="s">
         <v>163</v>
@@ -5920,43 +6127,49 @@
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C257" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D257" t="s">
         <v>4</v>
+      </c>
+      <c r="E257" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>75</v>
-      </c>
-      <c r="B258" t="s">
-        <v>493</v>
+        <v>96</v>
+      </c>
+      <c r="B258">
+        <v>100</v>
       </c>
       <c r="C258" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D258" t="s">
         <v>4</v>
+      </c>
+      <c r="E258" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>82</v>
-      </c>
-      <c r="B259" t="s">
-        <v>45</v>
+        <v>77</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
       </c>
       <c r="C259" t="s">
         <v>148</v>
@@ -5967,107 +6180,107 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>67</v>
-      </c>
-      <c r="B260">
-        <v>203</v>
+        <v>75</v>
+      </c>
+      <c r="B260" t="s">
+        <v>492</v>
       </c>
       <c r="C260" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D260" t="s">
         <v>4</v>
-      </c>
-      <c r="E260" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>66</v>
-      </c>
-      <c r="B261">
-        <v>203</v>
+        <v>82</v>
+      </c>
+      <c r="B261" t="s">
+        <v>45</v>
       </c>
       <c r="C261" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D261" t="s">
         <v>4</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>307</v>
-      </c>
-      <c r="B262" t="s">
-        <v>294</v>
+        <v>67</v>
+      </c>
+      <c r="B262">
+        <v>203</v>
       </c>
       <c r="C262" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D262" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>286</v>
-      </c>
-      <c r="B263" t="s">
-        <v>287</v>
+        <v>66</v>
+      </c>
+      <c r="B263">
+        <v>203</v>
       </c>
       <c r="C263" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D263" t="s">
-        <v>251</v>
-      </c>
-      <c r="E263" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E263" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="C264" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D264" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E264" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="C265" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D265" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>49</v>
-      </c>
-      <c r="B266">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="B266" t="s">
+        <v>45</v>
       </c>
       <c r="C266" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D266" t="s">
         <v>4</v>
@@ -6075,13 +6288,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>184</v>
-      </c>
-      <c r="B267">
-        <v>512</v>
+        <v>95</v>
+      </c>
+      <c r="B267" t="s">
+        <v>45</v>
       </c>
       <c r="C267" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D267" t="s">
         <v>4</v>
@@ -6089,10 +6302,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C268" t="s">
         <v>183</v>
@@ -6103,13 +6316,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B269">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="C269" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D269" t="s">
         <v>4</v>
@@ -6117,10 +6330,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>50</v>
-      </c>
-      <c r="B270" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
       </c>
       <c r="C270" t="s">
         <v>183</v>
@@ -6131,13 +6344,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="B271">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C271" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
@@ -6145,68 +6358,72 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>135</v>
-      </c>
-      <c r="B272">
-        <v>471</v>
+        <v>50</v>
+      </c>
+      <c r="B272" t="s">
+        <v>45</v>
       </c>
       <c r="C272" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D272" t="s">
         <v>4</v>
       </c>
-      <c r="E272" s="6"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B273">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C273" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
       </c>
-      <c r="E273" s="6"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B274">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="C274" t="s">
         <v>108</v>
       </c>
       <c r="D274" t="s">
         <v>4</v>
+      </c>
+      <c r="E274" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="B275">
-        <v>750</v>
+        <v>105</v>
       </c>
       <c r="C275" t="s">
         <v>108</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B276">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C276" t="s">
         <v>108</v>
@@ -6214,154 +6431,186 @@
       <c r="D276" t="s">
         <v>4</v>
       </c>
-      <c r="E276" s="6"/>
+      <c r="E276" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B277">
-        <v>272</v>
+        <v>750</v>
       </c>
       <c r="C277" t="s">
         <v>108</v>
       </c>
       <c r="D277" t="s">
         <v>4</v>
+      </c>
+      <c r="E277" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B278">
-        <v>682</v>
+        <v>153</v>
       </c>
       <c r="C278" t="s">
         <v>108</v>
       </c>
       <c r="D278" t="s">
         <v>4</v>
+      </c>
+      <c r="E278" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="B279">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="C279" t="s">
         <v>108</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
+      </c>
+      <c r="E279" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B280">
-        <v>303</v>
+        <v>682</v>
       </c>
       <c r="C280" t="s">
         <v>108</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
+      </c>
+      <c r="E280" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="B281">
-        <v>750</v>
-      </c>
-      <c r="C281" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C281" t="s">
         <v>108</v>
       </c>
       <c r="D281" t="s">
         <v>4</v>
+      </c>
+      <c r="E281" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B282">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="C282" t="s">
         <v>108</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
+      </c>
+      <c r="E282" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B283">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="C283" t="s">
         <v>108</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
+      </c>
+      <c r="E283" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B284">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="C284" t="s">
         <v>108</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
+      </c>
+      <c r="E284" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B285">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C285" t="s">
         <v>108</v>
       </c>
       <c r="D285" t="s">
         <v>4</v>
+      </c>
+      <c r="E285" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="B286">
-        <v>750</v>
+        <v>151</v>
       </c>
       <c r="C286" t="s">
         <v>108</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
+      </c>
+      <c r="E286" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="B287">
-        <v>750</v>
+        <v>101</v>
       </c>
       <c r="C287" t="s">
         <v>108</v>
@@ -6369,11 +6618,13 @@
       <c r="D287" t="s">
         <v>4</v>
       </c>
-      <c r="E287" s="6"/>
+      <c r="E287" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B288">
         <v>750</v>
@@ -6384,10 +6635,13 @@
       <c r="D288" t="s">
         <v>4</v>
       </c>
+      <c r="E288" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B289">
         <v>750</v>
@@ -6398,13 +6652,16 @@
       <c r="D289" t="s">
         <v>4</v>
       </c>
+      <c r="E289" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B290">
-        <v>203</v>
+        <v>750</v>
       </c>
       <c r="C290" t="s">
         <v>108</v>
@@ -6412,29 +6669,33 @@
       <c r="D290" t="s">
         <v>4</v>
       </c>
-      <c r="E290" s="6"/>
+      <c r="E290" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>247</v>
-      </c>
-      <c r="B291" s="6">
-        <v>752</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E291" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="B291">
+        <v>750</v>
+      </c>
+      <c r="C291" t="s">
+        <v>108</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B292">
-        <v>750</v>
+        <v>203</v>
       </c>
       <c r="C292" t="s">
         <v>108</v>
@@ -6442,14 +6703,16 @@
       <c r="D292" t="s">
         <v>4</v>
       </c>
-      <c r="E292" s="6"/>
+      <c r="E292" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B293">
-        <v>333</v>
+        <v>752</v>
       </c>
       <c r="C293" t="s">
         <v>108</v>
@@ -6457,43 +6720,50 @@
       <c r="D293" t="s">
         <v>4</v>
       </c>
-      <c r="E293" s="6"/>
+      <c r="E293" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="B294">
-        <v>393</v>
-      </c>
-      <c r="C294" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C294" t="s">
         <v>108</v>
       </c>
       <c r="D294" t="s">
         <v>4</v>
       </c>
-      <c r="E294" s="6"/>
+      <c r="E294" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="B295">
-        <v>123</v>
+        <v>333</v>
       </c>
       <c r="C295" t="s">
         <v>108</v>
       </c>
       <c r="D295" t="s">
         <v>4</v>
+      </c>
+      <c r="E295" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="B296">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="C296" t="s">
         <v>108</v>
@@ -6501,64 +6771,84 @@
       <c r="D296" t="s">
         <v>4</v>
       </c>
-      <c r="E296" s="6"/>
+      <c r="E296" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="B297">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="C297" t="s">
         <v>108</v>
       </c>
       <c r="D297" t="s">
         <v>4</v>
+      </c>
+      <c r="E297" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B298">
         <v>331</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C298" t="s">
         <v>108</v>
       </c>
       <c r="D298" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E298" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>47</v>
+        <v>239</v>
+      </c>
+      <c r="B299">
+        <v>331</v>
       </c>
       <c r="C299" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D299" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E299" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>48</v>
+        <v>238</v>
+      </c>
+      <c r="B300">
+        <v>331</v>
       </c>
       <c r="C300" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D300" t="s">
         <v>4</v>
+      </c>
+      <c r="E300" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="C301" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D301" t="s">
         <v>4</v>
@@ -6566,10 +6856,10 @@
     </row>
     <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C302" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D302" t="s">
         <v>4</v>
@@ -6577,7 +6867,7 @@
     </row>
     <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C303" t="s">
         <v>108</v>
@@ -6588,7 +6878,7 @@
     </row>
     <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="C304" t="s">
         <v>108</v>
@@ -6599,7 +6889,7 @@
     </row>
     <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="C305" t="s">
         <v>108</v>
@@ -6610,7 +6900,7 @@
     </row>
     <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="C306" t="s">
         <v>108</v>
@@ -6621,10 +6911,10 @@
     </row>
     <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C307" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D307" t="s">
         <v>4</v>
@@ -6632,61 +6922,60 @@
     </row>
     <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C308" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D308" t="s">
         <v>4</v>
-      </c>
-      <c r="E308" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>102</v>
-      </c>
-      <c r="B309" s="6"/>
-      <c r="C309" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E309" s="7" t="s">
-        <v>455</v>
+        <v>189</v>
+      </c>
+      <c r="C309" t="s">
+        <v>186</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C310" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D310" t="s">
         <v>4</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C311" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C312" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
@@ -6694,7 +6983,7 @@
     </row>
     <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C313" t="s">
         <v>108</v>
@@ -6705,7 +6994,7 @@
     </row>
     <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C314" t="s">
         <v>108</v>
@@ -6716,7 +7005,7 @@
     </row>
     <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="C315" t="s">
         <v>108</v>
@@ -6727,7 +7016,7 @@
     </row>
     <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C316" t="s">
         <v>108</v>
@@ -6738,60 +7027,60 @@
     </row>
     <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C317" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D317" t="s">
         <v>4</v>
-      </c>
-      <c r="E317" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C318" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D318" t="s">
         <v>4</v>
-      </c>
-      <c r="E318" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="C319" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
+      </c>
+      <c r="E319" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C320" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
+      </c>
+      <c r="E320" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C321" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D321" t="s">
         <v>4</v>
@@ -6799,10 +7088,10 @@
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C322" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
@@ -6810,7 +7099,7 @@
     </row>
     <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C323" t="s">
         <v>108</v>
@@ -6821,7 +7110,7 @@
     </row>
     <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="C324" t="s">
         <v>108</v>
@@ -6832,7 +7121,7 @@
     </row>
     <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C325" t="s">
         <v>108</v>
@@ -6843,10 +7132,10 @@
     </row>
     <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C326" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D326" t="s">
         <v>4</v>
@@ -6854,10 +7143,10 @@
     </row>
     <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C327" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D327" t="s">
         <v>4</v>
@@ -6865,10 +7154,10 @@
     </row>
     <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C328" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
@@ -6876,10 +7165,10 @@
     </row>
     <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
@@ -6887,10 +7176,10 @@
     </row>
     <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>55</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="C330" t="s">
+        <v>185</v>
       </c>
       <c r="D330" t="s">
         <v>4</v>
@@ -6898,10 +7187,10 @@
     </row>
     <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C331" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D331" t="s">
         <v>4</v>
@@ -6909,9 +7198,9 @@
     </row>
     <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>192</v>
-      </c>
-      <c r="C332" t="s">
+        <v>55</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D332" t="s">
@@ -6920,10 +7209,10 @@
     </row>
     <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="C333" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D333" t="s">
         <v>4</v>
@@ -6931,18 +7220,40 @@
     </row>
     <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>192</v>
+      </c>
+      <c r="C334" t="s">
+        <v>186</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>152</v>
+      </c>
+      <c r="C335" t="s">
+        <v>148</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>122</v>
       </c>
-      <c r="C334" t="s">
-        <v>108</v>
-      </c>
-      <c r="D334" t="s">
+      <c r="C336" t="s">
+        <v>108</v>
+      </c>
+      <c r="D336" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A335:A1142 A1:A172 B173 A174:A320">
+  <conditionalFormatting sqref="A337:A1144 A1:A174 B175 A176:A322">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BF7C2-F196-FA4F-A51E-649F0780DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96011F6D-1708-4B4C-B77B-C24154CC7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="541">
   <si>
     <t>Code</t>
   </si>
@@ -1629,6 +1629,33 @@
   </si>
   <si>
     <t>22 Ohm</t>
+  </si>
+  <si>
+    <t>DP20</t>
+  </si>
+  <si>
+    <t>SBL3040PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dual Common Cathode Schottky Rectifier</t>
+  </si>
+  <si>
+    <t>CP16</t>
+  </si>
+  <si>
+    <t>10nF 290V</t>
+  </si>
+  <si>
+    <t>10nF 290V PME290 EMI suppressor</t>
+  </si>
+  <si>
+    <t>CP11</t>
+  </si>
+  <si>
+    <t>4700PF 4n7 250V</t>
+  </si>
+  <si>
+    <t>cercamic capacitor</t>
   </si>
 </sst>
 </file>
@@ -1762,16 +1789,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H336" totalsRowShown="0">
-  <autoFilter ref="A1:H336" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H339" totalsRowShown="0">
+  <autoFilter ref="A1:H339" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H300">
-    <sortCondition ref="A1:A336"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H303">
+    <sortCondition ref="A1:A339"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
@@ -2084,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:H336"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4486,6 +4513,9 @@
       <c r="B156" t="s">
         <v>274</v>
       </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
       <c r="D156" t="s">
         <v>251</v>
       </c>
@@ -5308,61 +5338,61 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>194</v>
-      </c>
-      <c r="B206">
-        <v>514</v>
+        <v>538</v>
+      </c>
+      <c r="B206" t="s">
+        <v>539</v>
       </c>
       <c r="C206" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D206" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E206" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>190</v>
-      </c>
-      <c r="B207">
-        <v>514</v>
+        <v>535</v>
+      </c>
+      <c r="B207" t="s">
+        <v>536</v>
       </c>
       <c r="C207" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D207" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E207" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>36</v>
-      </c>
-      <c r="B208">
-        <v>105</v>
+        <v>532</v>
+      </c>
+      <c r="B208" t="s">
+        <v>533</v>
       </c>
       <c r="C208" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D208" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E208" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B209">
-        <v>103</v>
+        <v>514</v>
       </c>
       <c r="C209" t="s">
         <v>108</v>
@@ -5371,32 +5401,32 @@
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="B210">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="C210" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B211">
-        <v>514</v>
+        <v>105</v>
       </c>
       <c r="C211" t="s">
         <v>186</v>
@@ -5405,117 +5435,117 @@
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="C212" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B213">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C213" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
       </c>
       <c r="E213" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B214">
-        <v>103</v>
+        <v>514</v>
       </c>
       <c r="C214" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>210</v>
-      </c>
-      <c r="B215" t="s">
-        <v>359</v>
+        <v>41</v>
+      </c>
+      <c r="B215">
+        <v>295</v>
       </c>
       <c r="C215" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>364</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B216">
-        <v>683</v>
+        <v>471</v>
       </c>
       <c r="C216" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="B217">
-        <v>472</v>
+        <v>103</v>
       </c>
       <c r="C217" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>209</v>
-      </c>
-      <c r="B218">
-        <v>104</v>
+        <v>210</v>
+      </c>
+      <c r="B218" t="s">
+        <v>359</v>
       </c>
       <c r="C218" t="s">
         <v>108</v>
@@ -5524,157 +5554,162 @@
         <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>496</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>279</v>
-      </c>
-      <c r="B219" t="s">
-        <v>280</v>
+        <v>42</v>
+      </c>
+      <c r="B219">
+        <v>683</v>
       </c>
       <c r="C219" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D219" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>300</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="B220">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="C220" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D220" t="s">
         <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>337</v>
-      </c>
-      <c r="B221" t="s">
-        <v>339</v>
+        <v>209</v>
+      </c>
+      <c r="B221">
+        <v>104</v>
       </c>
       <c r="C221" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D221" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E221" t="s">
-        <v>338</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="B222" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="C222" t="s">
         <v>148</v>
       </c>
       <c r="D222" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E222" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>305</v>
-      </c>
-      <c r="B223" t="s">
-        <v>296</v>
+        <v>86</v>
+      </c>
+      <c r="B223">
+        <v>101</v>
       </c>
       <c r="C223" t="s">
         <v>148</v>
       </c>
       <c r="D223" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>92</v>
-      </c>
-      <c r="B224">
-        <v>470</v>
+        <v>337</v>
+      </c>
+      <c r="B224" t="s">
+        <v>339</v>
       </c>
       <c r="C224" t="s">
         <v>148</v>
       </c>
       <c r="D224" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E224" t="s">
-        <v>494</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="C225" t="s">
         <v>148</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>88</v>
-      </c>
-      <c r="B226">
-        <v>182</v>
+        <v>305</v>
+      </c>
+      <c r="B226" t="s">
+        <v>296</v>
       </c>
       <c r="C226" t="s">
         <v>148</v>
       </c>
       <c r="D226" t="s">
-        <v>4</v>
-      </c>
-      <c r="E226" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>288</v>
-      </c>
-      <c r="B227" t="s">
-        <v>289</v>
+        <v>92</v>
+      </c>
+      <c r="B227">
+        <v>470</v>
       </c>
       <c r="C227" t="s">
         <v>148</v>
       </c>
       <c r="D227" t="s">
-        <v>251</v>
-      </c>
-      <c r="E227" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E227" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B228" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C228" t="s">
         <v>148</v>
@@ -5685,10 +5720,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B229">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C229" t="s">
         <v>148</v>
@@ -5697,46 +5732,44 @@
         <v>4</v>
       </c>
       <c r="E229" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>480</v>
-      </c>
-      <c r="B230">
-        <v>102</v>
+        <v>288</v>
+      </c>
+      <c r="B230" t="s">
+        <v>289</v>
       </c>
       <c r="C230" t="s">
         <v>148</v>
       </c>
       <c r="D230" t="s">
-        <v>4</v>
-      </c>
-      <c r="E230" t="s">
-        <v>481</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="B231" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="C231" t="s">
         <v>148</v>
       </c>
       <c r="D231" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>79</v>
-      </c>
-      <c r="B232" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="B232">
+        <v>153</v>
       </c>
       <c r="C232" t="s">
         <v>148</v>
@@ -5744,13 +5777,16 @@
       <c r="D232" t="s">
         <v>4</v>
       </c>
+      <c r="E232" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>162</v>
+        <v>480</v>
       </c>
       <c r="B233">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>
@@ -5759,15 +5795,15 @@
         <v>4</v>
       </c>
       <c r="E233" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>151</v>
-      </c>
-      <c r="B234">
-        <v>472</v>
+        <v>157</v>
+      </c>
+      <c r="B234" t="s">
+        <v>63</v>
       </c>
       <c r="C234" t="s">
         <v>148</v>
@@ -5775,16 +5811,13 @@
       <c r="D234" t="s">
         <v>4</v>
       </c>
-      <c r="E234" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="B235" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C235" t="s">
         <v>148</v>
@@ -5795,10 +5828,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>162</v>
       </c>
       <c r="B236">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C236" t="s">
         <v>148</v>
@@ -5807,92 +5840,92 @@
         <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>290</v>
-      </c>
-      <c r="B237" t="s">
-        <v>292</v>
+        <v>151</v>
+      </c>
+      <c r="B237">
+        <v>472</v>
       </c>
       <c r="C237" t="s">
         <v>148</v>
       </c>
       <c r="D237" t="s">
-        <v>251</v>
-      </c>
-      <c r="E237" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E237" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="B238" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="C238" t="s">
         <v>148</v>
       </c>
       <c r="D238" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>178</v>
-      </c>
-      <c r="B239" t="s">
-        <v>493</v>
+        <v>478</v>
+      </c>
+      <c r="B239">
+        <v>101</v>
       </c>
       <c r="C239" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E239" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>180</v>
-      </c>
-      <c r="B240">
-        <v>203</v>
+        <v>290</v>
+      </c>
+      <c r="B240" t="s">
+        <v>292</v>
       </c>
       <c r="C240" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
-      </c>
-      <c r="E240" t="s">
-        <v>491</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>87</v>
-      </c>
-      <c r="B241">
-        <v>471</v>
+        <v>291</v>
+      </c>
+      <c r="B241" t="s">
+        <v>292</v>
       </c>
       <c r="C241" t="s">
         <v>148</v>
       </c>
       <c r="D241" t="s">
-        <v>4</v>
-      </c>
-      <c r="E241" t="s">
-        <v>484</v>
+        <v>251</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>176</v>
-      </c>
-      <c r="B242">
-        <v>10001</v>
+        <v>178</v>
+      </c>
+      <c r="B242" t="s">
+        <v>493</v>
       </c>
       <c r="C242" t="s">
         <v>163</v>
@@ -5903,10 +5936,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B243">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C243" t="s">
         <v>163</v>
@@ -5915,18 +5948,18 @@
         <v>4</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B244">
         <v>471</v>
       </c>
       <c r="C244" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -5937,10 +5970,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B245">
-        <v>202</v>
+        <v>10001</v>
       </c>
       <c r="C245" t="s">
         <v>163</v>
@@ -5948,16 +5981,13 @@
       <c r="D245" t="s">
         <v>4</v>
       </c>
-      <c r="E245" t="s">
-        <v>485</v>
-      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="B246">
-        <v>4701</v>
+        <v>202</v>
       </c>
       <c r="C246" t="s">
         <v>163</v>
@@ -5965,13 +5995,16 @@
       <c r="D246" t="s">
         <v>4</v>
       </c>
+      <c r="E246" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="B247">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="C247" t="s">
         <v>163</v>
@@ -5980,15 +6013,15 @@
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B248">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="C248" t="s">
         <v>163</v>
@@ -5997,15 +6030,15 @@
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>172</v>
-      </c>
-      <c r="B249" t="s">
-        <v>173</v>
+        <v>98</v>
+      </c>
+      <c r="B249">
+        <v>4701</v>
       </c>
       <c r="C249" t="s">
         <v>163</v>
@@ -6016,10 +6049,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B250">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C250" t="s">
         <v>163</v>
@@ -6028,83 +6061,80 @@
         <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B251">
-        <v>471</v>
+        <v>102</v>
       </c>
       <c r="C251" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D251" t="s">
         <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>84</v>
-      </c>
-      <c r="B252">
-        <v>103</v>
+        <v>172</v>
+      </c>
+      <c r="B252" t="s">
+        <v>173</v>
       </c>
       <c r="C252" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D252" t="s">
         <v>4</v>
-      </c>
-      <c r="E252" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>74</v>
-      </c>
-      <c r="B253" t="s">
-        <v>488</v>
+        <v>71</v>
+      </c>
+      <c r="B253">
+        <v>202</v>
       </c>
       <c r="C253" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D253" t="s">
         <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B254">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C254" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D254" t="s">
         <v>4</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>73</v>
-      </c>
-      <c r="B255" t="s">
-        <v>490</v>
+        <v>84</v>
+      </c>
+      <c r="B255">
+        <v>103</v>
       </c>
       <c r="C255" t="s">
         <v>148</v>
@@ -6112,30 +6142,33 @@
       <c r="D255" t="s">
         <v>4</v>
       </c>
+      <c r="E255" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>100</v>
-      </c>
-      <c r="B256">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="B256" t="s">
+        <v>488</v>
       </c>
       <c r="C256" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D256" t="s">
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B257">
-        <v>103</v>
+        <v>472</v>
       </c>
       <c r="C257" t="s">
         <v>163</v>
@@ -6144,185 +6177,191 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>96</v>
-      </c>
-      <c r="B258">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="B258" t="s">
+        <v>490</v>
       </c>
       <c r="C258" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D258" t="s">
         <v>4</v>
-      </c>
-      <c r="E258" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C259" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D259" t="s">
         <v>4</v>
+      </c>
+      <c r="E259" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>75</v>
-      </c>
-      <c r="B260" t="s">
-        <v>492</v>
+        <v>69</v>
+      </c>
+      <c r="B260">
+        <v>103</v>
       </c>
       <c r="C260" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D260" t="s">
         <v>4</v>
+      </c>
+      <c r="E260" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>82</v>
-      </c>
-      <c r="B261" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="B261">
+        <v>100</v>
       </c>
       <c r="C261" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D261" t="s">
         <v>4</v>
+      </c>
+      <c r="E261" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B262">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D262" t="s">
         <v>4</v>
-      </c>
-      <c r="E262" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>66</v>
-      </c>
-      <c r="B263">
-        <v>203</v>
+        <v>75</v>
+      </c>
+      <c r="B263" t="s">
+        <v>492</v>
       </c>
       <c r="C263" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D263" t="s">
         <v>4</v>
-      </c>
-      <c r="E263" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="B264" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s">
         <v>148</v>
       </c>
       <c r="D264" t="s">
-        <v>251</v>
-      </c>
-      <c r="E264" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>286</v>
-      </c>
-      <c r="B265" t="s">
-        <v>287</v>
+        <v>67</v>
+      </c>
+      <c r="B265">
+        <v>203</v>
       </c>
       <c r="C265" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D265" t="s">
-        <v>251</v>
-      </c>
-      <c r="E265" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E265" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>93</v>
-      </c>
-      <c r="B266" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="B266">
+        <v>203</v>
       </c>
       <c r="C266" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D266" t="s">
         <v>4</v>
+      </c>
+      <c r="E266" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="B267" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="C267" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D267" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E267" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>49</v>
-      </c>
-      <c r="B268">
-        <v>104</v>
+        <v>286</v>
+      </c>
+      <c r="B268" t="s">
+        <v>287</v>
       </c>
       <c r="C268" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D268" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>184</v>
-      </c>
-      <c r="B269">
-        <v>512</v>
+        <v>93</v>
+      </c>
+      <c r="B269" t="s">
+        <v>45</v>
       </c>
       <c r="C269" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D269" t="s">
         <v>4</v>
@@ -6330,13 +6369,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>51</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B270" t="s">
+        <v>45</v>
       </c>
       <c r="C270" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
@@ -6344,13 +6383,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="B271">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C271" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
@@ -6358,10 +6397,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>50</v>
-      </c>
-      <c r="B272" t="s">
-        <v>45</v>
+        <v>184</v>
+      </c>
+      <c r="B272">
+        <v>512</v>
       </c>
       <c r="C272" t="s">
         <v>183</v>
@@ -6372,10 +6411,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B273">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C273" t="s">
         <v>183</v>
@@ -6386,61 +6425,52 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B274">
-        <v>471</v>
+        <v>100</v>
       </c>
       <c r="C274" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D274" t="s">
         <v>4</v>
-      </c>
-      <c r="E274" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>126</v>
-      </c>
-      <c r="B275">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="B275" t="s">
+        <v>45</v>
       </c>
       <c r="C275" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
-      </c>
-      <c r="E275" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B276">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C276" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
-      </c>
-      <c r="E276" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="B277">
-        <v>750</v>
+        <v>471</v>
       </c>
       <c r="C277" t="s">
         <v>108</v>
@@ -6449,15 +6479,15 @@
         <v>4</v>
       </c>
       <c r="E277" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B278">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C278" t="s">
         <v>108</v>
@@ -6466,15 +6496,15 @@
         <v>4</v>
       </c>
       <c r="E278" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="B279">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="C279" t="s">
         <v>108</v>
@@ -6483,15 +6513,15 @@
         <v>4</v>
       </c>
       <c r="E279" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="B280">
-        <v>682</v>
+        <v>750</v>
       </c>
       <c r="C280" t="s">
         <v>108</v>
@@ -6500,15 +6530,15 @@
         <v>4</v>
       </c>
       <c r="E280" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="B281">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C281" t="s">
         <v>108</v>
@@ -6517,15 +6547,15 @@
         <v>4</v>
       </c>
       <c r="E281" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="B282">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="C282" t="s">
         <v>108</v>
@@ -6534,15 +6564,15 @@
         <v>4</v>
       </c>
       <c r="E282" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="B283">
-        <v>750</v>
+        <v>682</v>
       </c>
       <c r="C283" t="s">
         <v>108</v>
@@ -6551,15 +6581,15 @@
         <v>4</v>
       </c>
       <c r="E283" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B284">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="C284" t="s">
         <v>108</v>
@@ -6568,15 +6598,15 @@
         <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B285">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="C285" t="s">
         <v>108</v>
@@ -6585,15 +6615,15 @@
         <v>4</v>
       </c>
       <c r="E285" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="B286">
-        <v>151</v>
+        <v>750</v>
       </c>
       <c r="C286" t="s">
         <v>108</v>
@@ -6602,15 +6632,15 @@
         <v>4</v>
       </c>
       <c r="E286" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B287">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="C287" t="s">
         <v>108</v>
@@ -6619,15 +6649,15 @@
         <v>4</v>
       </c>
       <c r="E287" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="B288">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="C288" t="s">
         <v>108</v>
@@ -6636,15 +6666,15 @@
         <v>4</v>
       </c>
       <c r="E288" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B289">
-        <v>750</v>
+        <v>151</v>
       </c>
       <c r="C289" t="s">
         <v>108</v>
@@ -6653,15 +6683,15 @@
         <v>4</v>
       </c>
       <c r="E289" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B290">
-        <v>750</v>
+        <v>101</v>
       </c>
       <c r="C290" t="s">
         <v>108</v>
@@ -6670,12 +6700,12 @@
         <v>4</v>
       </c>
       <c r="E290" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B291">
         <v>750</v>
@@ -6692,10 +6722,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B292">
-        <v>203</v>
+        <v>750</v>
       </c>
       <c r="C292" t="s">
         <v>108</v>
@@ -6704,15 +6734,15 @@
         <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B293">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C293" t="s">
         <v>108</v>
@@ -6721,12 +6751,12 @@
         <v>4</v>
       </c>
       <c r="E293" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B294">
         <v>750</v>
@@ -6743,10 +6773,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B295">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="C295" t="s">
         <v>108</v>
@@ -6755,15 +6785,15 @@
         <v>4</v>
       </c>
       <c r="E295" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="B296">
-        <v>393</v>
+        <v>752</v>
       </c>
       <c r="C296" t="s">
         <v>108</v>
@@ -6772,15 +6802,15 @@
         <v>4</v>
       </c>
       <c r="E296" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="B297">
-        <v>123</v>
+        <v>750</v>
       </c>
       <c r="C297" t="s">
         <v>108</v>
@@ -6789,15 +6819,15 @@
         <v>4</v>
       </c>
       <c r="E297" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B298">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C298" t="s">
         <v>108</v>
@@ -6806,15 +6836,15 @@
         <v>4</v>
       </c>
       <c r="E298" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="B299">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="C299" t="s">
         <v>108</v>
@@ -6823,65 +6853,83 @@
         <v>4</v>
       </c>
       <c r="E299" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>119</v>
+      </c>
+      <c r="B300">
+        <v>123</v>
+      </c>
+      <c r="C300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>240</v>
+      </c>
+      <c r="B301">
+        <v>331</v>
+      </c>
+      <c r="C301" t="s">
+        <v>108</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>239</v>
+      </c>
+      <c r="B302">
+        <v>331</v>
+      </c>
+      <c r="C302" t="s">
+        <v>108</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>238</v>
       </c>
-      <c r="B300">
+      <c r="B303">
         <v>331</v>
       </c>
-      <c r="C300" t="s">
-        <v>108</v>
-      </c>
-      <c r="D300" t="s">
-        <v>4</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="C303" t="s">
+        <v>108</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>47</v>
-      </c>
-      <c r="C301" t="s">
-        <v>183</v>
-      </c>
-      <c r="D301" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>48</v>
-      </c>
-      <c r="C302" t="s">
-        <v>183</v>
-      </c>
-      <c r="D302" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>218</v>
-      </c>
-      <c r="C303" t="s">
-        <v>108</v>
-      </c>
-      <c r="D303" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C304" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D304" t="s">
         <v>4</v>
@@ -6889,10 +6937,10 @@
     </row>
     <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="C305" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D305" t="s">
         <v>4</v>
@@ -6900,7 +6948,7 @@
     </row>
     <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C306" t="s">
         <v>108</v>
@@ -6911,7 +6959,7 @@
     </row>
     <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C307" t="s">
         <v>108</v>
@@ -6922,7 +6970,7 @@
     </row>
     <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="C308" t="s">
         <v>108</v>
@@ -6933,10 +6981,10 @@
     </row>
     <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C309" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D309" t="s">
         <v>4</v>
@@ -6944,38 +6992,32 @@
     </row>
     <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C310" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D310" t="s">
         <v>4</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C311" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C312" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
@@ -6983,32 +7025,38 @@
     </row>
     <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="C313" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D313" t="s">
         <v>4</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="C314" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D314" t="s">
         <v>4</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="C315" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
@@ -7016,7 +7064,7 @@
     </row>
     <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C316" t="s">
         <v>108</v>
@@ -7027,7 +7075,7 @@
     </row>
     <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="C317" t="s">
         <v>108</v>
@@ -7038,7 +7086,7 @@
     </row>
     <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C318" t="s">
         <v>108</v>
@@ -7049,211 +7097,244 @@
     </row>
     <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="C319" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
-      </c>
-      <c r="E319" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>132</v>
+      </c>
+      <c r="C320" t="s">
+        <v>108</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>204</v>
+      </c>
+      <c r="C321" t="s">
+        <v>108</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>54</v>
+      </c>
+      <c r="C322" t="s">
+        <v>183</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>65</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C323" t="s">
         <v>186</v>
       </c>
-      <c r="D320" t="s">
-        <v>4</v>
-      </c>
-      <c r="E320" t="s">
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+      <c r="E323" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>168</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C324" t="s">
         <v>163</v>
       </c>
-      <c r="D321" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
         <v>165</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C325" t="s">
         <v>163</v>
       </c>
-      <c r="D322" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>125</v>
       </c>
-      <c r="C323" t="s">
-        <v>108</v>
-      </c>
-      <c r="D323" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+      <c r="C326" t="s">
+        <v>108</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>123</v>
       </c>
-      <c r="C324" t="s">
-        <v>108</v>
-      </c>
-      <c r="D324" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+      <c r="C327" t="s">
+        <v>108</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>121</v>
       </c>
-      <c r="C325" t="s">
-        <v>108</v>
-      </c>
-      <c r="D325" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+      <c r="C328" t="s">
+        <v>108</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>221</v>
       </c>
-      <c r="C326" t="s">
-        <v>108</v>
-      </c>
-      <c r="D326" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+      <c r="C329" t="s">
+        <v>108</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>113</v>
       </c>
-      <c r="C327" t="s">
-        <v>108</v>
-      </c>
-      <c r="D327" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+      <c r="C330" t="s">
+        <v>108</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>193</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C331" t="s">
         <v>186</v>
       </c>
-      <c r="D328" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>3</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C332" t="s">
         <v>186</v>
       </c>
-      <c r="D329" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
         <v>68</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C333" t="s">
         <v>185</v>
       </c>
-      <c r="D330" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>164</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C334" t="s">
         <v>163</v>
       </c>
-      <c r="D331" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="D334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
         <v>55</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C335" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D332" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+      <c r="D335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>219</v>
       </c>
-      <c r="C333" t="s">
-        <v>108</v>
-      </c>
-      <c r="D333" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+      <c r="C336" t="s">
+        <v>108</v>
+      </c>
+      <c r="D336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>192</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C337" t="s">
         <v>186</v>
       </c>
-      <c r="D334" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>152</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C338" t="s">
         <v>148</v>
       </c>
-      <c r="D335" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>122</v>
       </c>
-      <c r="C336" t="s">
-        <v>108</v>
-      </c>
-      <c r="D336" t="s">
+      <c r="C339" t="s">
+        <v>108</v>
+      </c>
+      <c r="D339" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A337:A1144 A1:A174 B175 A176:A322">
+  <conditionalFormatting sqref="A340:A1147 A1:A174 B175 A176:A325">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96011F6D-1708-4B4C-B77B-C24154CC7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401643F4-69AF-314C-B253-2DC8235275B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="572">
   <si>
     <t>Code</t>
   </si>
@@ -1656,6 +1656,99 @@
   </si>
   <si>
     <t>cercamic capacitor</t>
+  </si>
+  <si>
+    <t>IV2</t>
+  </si>
+  <si>
+    <t>LM2418T</t>
+  </si>
+  <si>
+    <t>30Hz CRT Driver</t>
+  </si>
+  <si>
+    <t>IF1</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>22k 246M</t>
+  </si>
+  <si>
+    <t>242 1K</t>
+  </si>
+  <si>
+    <t>47k 240</t>
+  </si>
+  <si>
+    <t>245 47K</t>
+  </si>
+  <si>
+    <t>47k 245</t>
+  </si>
+  <si>
+    <t>240 4k7</t>
+  </si>
+  <si>
+    <t>100k 244</t>
+  </si>
+  <si>
+    <t>246 22k</t>
+  </si>
+  <si>
+    <t>22k 246</t>
+  </si>
+  <si>
+    <t>10k 244</t>
+  </si>
+  <si>
+    <t>244 10k</t>
+  </si>
+  <si>
+    <t>potentiometer</t>
+  </si>
+  <si>
+    <t>TDA8172</t>
+  </si>
+  <si>
+    <t>TV vertical deflector output</t>
   </si>
 </sst>
 </file>
@@ -1789,16 +1882,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H339" totalsRowShown="0">
-  <autoFilter ref="A1:H339" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H353" totalsRowShown="0">
+  <autoFilter ref="A1:H353" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H303">
-    <sortCondition ref="A1:A339"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H317">
+    <sortCondition ref="A1:A353"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
@@ -2111,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3787,597 +3880,624 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>566</v>
       </c>
       <c r="C108" t="s">
         <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E108" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>457</v>
+        <v>556</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>568</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
       </c>
       <c r="D109" t="s">
         <v>251</v>
       </c>
       <c r="E109" t="s">
-        <v>376</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>555</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>567</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E110" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>458</v>
+        <v>554</v>
       </c>
       <c r="B111" t="s">
-        <v>409</v>
+        <v>565</v>
+      </c>
+      <c r="C111" t="s">
+        <v>108</v>
       </c>
       <c r="D111" t="s">
         <v>251</v>
       </c>
       <c r="E111" t="s">
-        <v>376</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>553</v>
+      </c>
+      <c r="B112" t="s">
+        <v>566</v>
+      </c>
+      <c r="C112" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" t="s">
+        <v>251</v>
+      </c>
+      <c r="E112" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>552</v>
+      </c>
+      <c r="B113" t="s">
+        <v>565</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>251</v>
+      </c>
+      <c r="E113" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>551</v>
+      </c>
+      <c r="B114" t="s">
+        <v>564</v>
+      </c>
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s">
+        <v>251</v>
+      </c>
+      <c r="E114" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>550</v>
+      </c>
+      <c r="B115" t="s">
+        <v>563</v>
+      </c>
+      <c r="C115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>549</v>
+      </c>
+      <c r="B116" t="s">
+        <v>562</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E116" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>548</v>
+      </c>
+      <c r="B117" t="s">
+        <v>561</v>
+      </c>
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" t="s">
+        <v>251</v>
+      </c>
+      <c r="E117" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>547</v>
+      </c>
+      <c r="B118" t="s">
+        <v>560</v>
+      </c>
+      <c r="C118" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" t="s">
+        <v>251</v>
+      </c>
+      <c r="E118" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>546</v>
+      </c>
+      <c r="B119" t="s">
+        <v>559</v>
+      </c>
+      <c r="C119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="s">
+        <v>251</v>
+      </c>
+      <c r="E119" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>545</v>
+      </c>
+      <c r="B120" t="s">
+        <v>558</v>
+      </c>
+      <c r="C120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>457</v>
+      </c>
+      <c r="B122" t="s">
+        <v>409</v>
+      </c>
+      <c r="D122" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>458</v>
+      </c>
+      <c r="B124" t="s">
+        <v>409</v>
+      </c>
+      <c r="D124" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>459</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B125" t="s">
         <v>409</v>
       </c>
-      <c r="D112" t="s">
-        <v>251</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D125" t="s">
+        <v>251</v>
+      </c>
+      <c r="E125" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>460</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B126" t="s">
         <v>401</v>
       </c>
-      <c r="D113" t="s">
-        <v>251</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D126" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>461</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B127" t="s">
         <v>401</v>
       </c>
-      <c r="D114" t="s">
-        <v>251</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D127" t="s">
+        <v>251</v>
+      </c>
+      <c r="E127" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>229</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B128" t="s">
         <v>233</v>
       </c>
-      <c r="C115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>228</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B129" t="s">
         <v>371</v>
       </c>
-      <c r="C116" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="C129" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>243</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B130" t="s">
         <v>233</v>
       </c>
-      <c r="C117" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>237</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B131" t="s">
         <v>233</v>
       </c>
-      <c r="C118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C131" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>236</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B132" t="s">
         <v>233</v>
       </c>
-      <c r="C119" t="s">
-        <v>108</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C132" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>111</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B133" t="s">
         <v>361</v>
       </c>
-      <c r="C120" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C133" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>110</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B134" t="s">
         <v>302</v>
       </c>
-      <c r="C121" t="s">
-        <v>108</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="C134" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>10</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B135" t="s">
         <v>302</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C135" t="s">
         <v>185</v>
       </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>374</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B136" t="s">
         <v>276</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C136" t="s">
         <v>148</v>
       </c>
-      <c r="D123" t="s">
-        <v>251</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D136" t="s">
+        <v>251</v>
+      </c>
+      <c r="E136" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>352</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B137" t="s">
         <v>353</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>154</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B138" t="s">
         <v>302</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C138" t="s">
         <v>148</v>
       </c>
-      <c r="D125" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>355</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B140" t="s">
         <v>319</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C140" t="s">
         <v>498</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" t="s">
+      <c r="D140" s="5"/>
+      <c r="E140" t="s">
         <v>499</v>
       </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>259</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B141" t="s">
         <v>260</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C141" t="s">
         <v>163</v>
       </c>
-      <c r="D128" t="s">
-        <v>251</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="D141" t="s">
+        <v>251</v>
+      </c>
+      <c r="E141" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>76</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>169</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B143" t="s">
         <v>329</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C143" t="s">
         <v>163</v>
       </c>
-      <c r="D130" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>256</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B144" t="s">
         <v>255</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C144" t="s">
         <v>163</v>
       </c>
-      <c r="D131" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>90</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>155</v>
-      </c>
-      <c r="B133">
-        <v>101</v>
-      </c>
-      <c r="C133" t="s">
-        <v>148</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>310</v>
-      </c>
-      <c r="B134" t="s">
-        <v>275</v>
-      </c>
-      <c r="C134" t="s">
-        <v>148</v>
-      </c>
-      <c r="D134" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>128</v>
-      </c>
-      <c r="B135" t="s">
-        <v>362</v>
-      </c>
-      <c r="C135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>252</v>
-      </c>
-      <c r="B136" t="s">
-        <v>250</v>
-      </c>
-      <c r="C136" t="s">
-        <v>108</v>
-      </c>
-      <c r="D136" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>312</v>
-      </c>
-      <c r="B137" t="s">
-        <v>272</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137" t="s">
-        <v>251</v>
-      </c>
-      <c r="E137" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>327</v>
-      </c>
-      <c r="B138" t="s">
-        <v>266</v>
-      </c>
-      <c r="C138" t="s">
-        <v>163</v>
-      </c>
-      <c r="D138" t="s">
-        <v>251</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>325</v>
-      </c>
-      <c r="B139" t="s">
-        <v>324</v>
-      </c>
-      <c r="C139" t="s">
-        <v>163</v>
-      </c>
-      <c r="D139" t="s">
-        <v>251</v>
-      </c>
-      <c r="E139" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>315</v>
-      </c>
-      <c r="B140" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" t="s">
-        <v>251</v>
-      </c>
-      <c r="E140" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>253</v>
-      </c>
-      <c r="B141" t="s">
-        <v>254</v>
-      </c>
-      <c r="C141" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" t="s">
-        <v>254</v>
-      </c>
-      <c r="C142" t="s">
-        <v>108</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>114</v>
-      </c>
-      <c r="B143" t="s">
-        <v>254</v>
-      </c>
-      <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" t="s">
-        <v>108</v>
-      </c>
       <c r="D144" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>201</v>
-      </c>
-      <c r="B145" t="s">
-        <v>254</v>
-      </c>
-      <c r="C145" t="s">
-        <v>108</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>59</v>
-      </c>
-      <c r="B146" t="s">
-        <v>254</v>
+        <v>155</v>
+      </c>
+      <c r="B146">
+        <v>101</v>
       </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -4385,24 +4505,24 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C147" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D147" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
         <v>108</v>
@@ -4413,454 +4533,435 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>544</v>
       </c>
       <c r="B149" t="s">
-        <v>254</v>
+        <v>570</v>
       </c>
       <c r="C149" t="s">
         <v>108</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E149" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>183</v>
+        <v>250</v>
+      </c>
+      <c r="C150" t="s">
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E151" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C152" t="s">
         <v>163</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E153" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="C154" t="s">
         <v>108</v>
       </c>
       <c r="D154" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E154" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>253</v>
+      </c>
+      <c r="B155" t="s">
+        <v>254</v>
       </c>
       <c r="C155" t="s">
         <v>108</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>373</v>
+        <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D156" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C157" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B158" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="C158" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
-      </c>
-      <c r="E158" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
-      </c>
-      <c r="E159" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160">
-        <v>153</v>
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>254</v>
       </c>
       <c r="C160" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161">
-        <v>331</v>
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>254</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>191</v>
-      </c>
-      <c r="B162">
-        <v>106</v>
+        <v>196</v>
+      </c>
+      <c r="B162" t="s">
+        <v>254</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>207</v>
-      </c>
-      <c r="B163">
-        <v>123</v>
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>254</v>
       </c>
       <c r="C163" t="s">
         <v>108</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164">
-        <v>195</v>
-      </c>
-      <c r="C164" t="s">
-        <v>185</v>
+        <v>46</v>
+      </c>
+      <c r="B164" t="s">
+        <v>254</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>203</v>
-      </c>
-      <c r="B165">
-        <v>434</v>
+        <v>44</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
       </c>
       <c r="C165" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>202</v>
-      </c>
-      <c r="B166">
-        <v>223</v>
+        <v>101</v>
+      </c>
+      <c r="B166" t="s">
+        <v>254</v>
       </c>
       <c r="C166" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>195</v>
-      </c>
-      <c r="B167">
-        <v>223</v>
+        <v>120</v>
+      </c>
+      <c r="B167" t="s">
+        <v>254</v>
       </c>
       <c r="C167" t="s">
         <v>108</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>145</v>
-      </c>
-      <c r="B168">
-        <v>223</v>
+        <v>208</v>
+      </c>
+      <c r="B168" t="s">
+        <v>254</v>
       </c>
       <c r="C168" t="s">
         <v>108</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>53</v>
-      </c>
-      <c r="B169">
-        <v>153</v>
+        <v>541</v>
+      </c>
+      <c r="B169" t="s">
+        <v>542</v>
       </c>
       <c r="C169" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="8" t="s">
-        <v>475</v>
+      <c r="E169" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B170">
-        <v>332</v>
+        <v>373</v>
+      </c>
+      <c r="B170" t="s">
+        <v>274</v>
       </c>
       <c r="C170" t="s">
         <v>185</v>
       </c>
       <c r="D170" t="s">
-        <v>4</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>523</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C171" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D171" t="s">
-        <v>4</v>
-      </c>
-      <c r="E171" s="8"/>
+        <v>251</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="B172" t="s">
+        <v>320</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="8" t="s">
-        <v>486</v>
+      <c r="E172" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>39</v>
-      </c>
-      <c r="B173">
-        <v>471</v>
+        <v>103</v>
+      </c>
+      <c r="B173" t="s">
+        <v>319</v>
       </c>
       <c r="C173" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="8" t="s">
-        <v>484</v>
+      <c r="E173" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B174">
-        <v>331</v>
+        <v>153</v>
       </c>
       <c r="C174" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="B175">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="C175" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
       </c>
-      <c r="E175" t="s">
-        <v>496</v>
+      <c r="E175" s="8" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="B176">
-        <v>753</v>
+        <v>106</v>
       </c>
       <c r="C176" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
       </c>
-      <c r="E176" t="s">
-        <v>524</v>
+      <c r="E176" s="8" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B177">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C177" t="s">
         <v>108</v>
@@ -4868,16 +4969,16 @@
       <c r="D177" t="s">
         <v>4</v>
       </c>
-      <c r="E177" t="s">
-        <v>525</v>
+      <c r="E177" s="8" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B178">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4885,67 +4986,67 @@
       <c r="D178" t="s">
         <v>4</v>
       </c>
-      <c r="E178" t="s">
-        <v>503</v>
+      <c r="E178" s="8" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="B179">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
       </c>
-      <c r="E179" t="s">
-        <v>484</v>
+      <c r="E179" s="8" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B180">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="B181">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
       </c>
-      <c r="E181" t="s">
-        <v>527</v>
+      <c r="E181" s="8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B182">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C182" t="s">
         <v>108</v>
@@ -4953,47 +5054,50 @@
       <c r="D182" t="s">
         <v>4</v>
       </c>
-      <c r="E182" t="s">
-        <v>507</v>
+      <c r="E182" s="8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="B183">
-        <v>472</v>
+        <v>153</v>
       </c>
       <c r="C183" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
       </c>
-      <c r="E183" t="s">
-        <v>489</v>
+      <c r="E183" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>62</v>
-      </c>
-      <c r="B184" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="B184">
+        <v>332</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>213</v>
-      </c>
-      <c r="B185">
-        <v>223</v>
+        <v>142</v>
+      </c>
+      <c r="B185" t="s">
+        <v>143</v>
       </c>
       <c r="C185" t="s">
         <v>108</v>
@@ -5001,16 +5105,14 @@
       <c r="D185" t="s">
         <v>4</v>
       </c>
-      <c r="E185" t="s">
-        <v>474</v>
-      </c>
+      <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B186">
-        <v>471</v>
+        <v>102</v>
       </c>
       <c r="C186" t="s">
         <v>185</v>
@@ -5018,16 +5120,16 @@
       <c r="D186" t="s">
         <v>4</v>
       </c>
-      <c r="E186" t="s">
-        <v>484</v>
+      <c r="E186" s="8" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B187">
-        <v>180</v>
+        <v>471</v>
       </c>
       <c r="C187" t="s">
         <v>185</v>
@@ -5035,16 +5137,16 @@
       <c r="D187" t="s">
         <v>4</v>
       </c>
-      <c r="E187" t="s">
-        <v>528</v>
+      <c r="E187" s="8" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B188">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="C188" t="s">
         <v>185</v>
@@ -5052,67 +5154,67 @@
       <c r="D188" t="s">
         <v>4</v>
       </c>
-      <c r="E188" t="s">
-        <v>484</v>
+      <c r="E188" s="8" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B189">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="C189" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B190">
-        <v>302</v>
+        <v>753</v>
       </c>
       <c r="C190" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
       </c>
       <c r="E190" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="B191">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C191" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
       </c>
-      <c r="E191" s="8" t="s">
-        <v>475</v>
+      <c r="E191" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B192">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="C192" t="s">
         <v>185</v>
@@ -5121,49 +5223,49 @@
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B193">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="C193" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B194">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
       </c>
-      <c r="E194" t="s">
-        <v>531</v>
+      <c r="E194" s="8" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B195">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C195" t="s">
         <v>186</v>
@@ -5172,52 +5274,52 @@
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="B196">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="C196" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="B197">
-        <v>223</v>
+        <v>472</v>
       </c>
       <c r="C197" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -5225,259 +5327,259 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>58</v>
-      </c>
-      <c r="B199" t="s">
-        <v>60</v>
+        <v>213</v>
+      </c>
+      <c r="B199">
+        <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
+      </c>
+      <c r="E199" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B200">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="C200" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B201">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C201" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>28</v>
-      </c>
-      <c r="B202" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B202">
+        <v>471</v>
       </c>
       <c r="C202" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
+      </c>
+      <c r="E202" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B203">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="C203" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="B204">
-        <v>474</v>
+        <v>302</v>
       </c>
       <c r="C204" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B205">
-        <v>392</v>
+        <v>153</v>
       </c>
       <c r="C205" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
       </c>
-      <c r="E205" t="s">
-        <v>516</v>
+      <c r="E205" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>538</v>
-      </c>
-      <c r="B206" t="s">
-        <v>539</v>
+        <v>27</v>
+      </c>
+      <c r="B206">
+        <v>154</v>
       </c>
       <c r="C206" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D206" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>535</v>
-      </c>
-      <c r="B207" t="s">
-        <v>536</v>
+        <v>35</v>
+      </c>
+      <c r="B207">
+        <v>392</v>
       </c>
       <c r="C207" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D207" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>532</v>
-      </c>
-      <c r="B208" t="s">
-        <v>533</v>
+        <v>25</v>
+      </c>
+      <c r="B208">
+        <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D208" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="B209">
-        <v>514</v>
+        <v>295</v>
       </c>
       <c r="C209" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="B210">
-        <v>514</v>
+        <v>223</v>
       </c>
       <c r="C210" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B211">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="C211" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212">
-        <v>103</v>
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>214</v>
       </c>
       <c r="C212" t="s">
         <v>108</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
-      </c>
-      <c r="E212" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>26</v>
-      </c>
-      <c r="B213">
-        <v>470</v>
+        <v>58</v>
+      </c>
+      <c r="B213" t="s">
+        <v>60</v>
       </c>
       <c r="C213" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
-      </c>
-      <c r="E213" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B214">
-        <v>514</v>
+        <v>393</v>
       </c>
       <c r="C214" t="s">
         <v>186</v>
@@ -5486,32 +5588,32 @@
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B215">
-        <v>295</v>
+        <v>105</v>
       </c>
       <c r="C215" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>30</v>
-      </c>
-      <c r="B216">
-        <v>471</v>
+        <v>28</v>
+      </c>
+      <c r="B216" t="s">
+        <v>29</v>
       </c>
       <c r="C216" t="s">
         <v>186</v>
@@ -5519,33 +5621,30 @@
       <c r="D216" t="s">
         <v>4</v>
       </c>
-      <c r="E216" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="B217">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C217" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>210</v>
-      </c>
-      <c r="B218" t="s">
-        <v>359</v>
+        <v>140</v>
+      </c>
+      <c r="B218">
+        <v>474</v>
       </c>
       <c r="C218" t="s">
         <v>108</v>
@@ -5554,15 +5653,15 @@
         <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>364</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B219">
-        <v>683</v>
+        <v>392</v>
       </c>
       <c r="C219" t="s">
         <v>185</v>
@@ -5571,49 +5670,49 @@
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>234</v>
-      </c>
-      <c r="B220">
-        <v>472</v>
+        <v>538</v>
+      </c>
+      <c r="B220" t="s">
+        <v>539</v>
       </c>
       <c r="C220" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D220" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E220" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>209</v>
-      </c>
-      <c r="B221">
-        <v>104</v>
+        <v>535</v>
+      </c>
+      <c r="B221" t="s">
+        <v>536</v>
       </c>
       <c r="C221" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D221" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E221" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>532</v>
       </c>
       <c r="B222" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="C222" t="s">
         <v>148</v>
@@ -5622,233 +5721,253 @@
         <v>251</v>
       </c>
       <c r="E222" t="s">
-        <v>300</v>
+        <v>534</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="B223">
-        <v>101</v>
+        <v>514</v>
       </c>
       <c r="C223" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D223" t="s">
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>337</v>
-      </c>
-      <c r="B224" t="s">
-        <v>339</v>
+        <v>190</v>
+      </c>
+      <c r="B224">
+        <v>514</v>
       </c>
       <c r="C224" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D224" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>338</v>
+        <v>517</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>91</v>
-      </c>
-      <c r="B225" t="s">
-        <v>182</v>
+        <v>36</v>
+      </c>
+      <c r="B225">
+        <v>105</v>
       </c>
       <c r="C225" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D225" t="s">
         <v>4</v>
+      </c>
+      <c r="E225" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>305</v>
-      </c>
-      <c r="B226" t="s">
-        <v>296</v>
+        <v>211</v>
+      </c>
+      <c r="B226">
+        <v>103</v>
       </c>
       <c r="C226" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D226" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E226" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B227">
         <v>470</v>
       </c>
       <c r="C227" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
       </c>
       <c r="E227" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>304</v>
-      </c>
-      <c r="B228" t="s">
-        <v>297</v>
+        <v>38</v>
+      </c>
+      <c r="B228">
+        <v>514</v>
       </c>
       <c r="C228" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D228" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E228" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B229">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="C229" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D229" t="s">
         <v>4</v>
       </c>
       <c r="E229" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>288</v>
-      </c>
-      <c r="B230" t="s">
-        <v>289</v>
+        <v>30</v>
+      </c>
+      <c r="B230">
+        <v>471</v>
       </c>
       <c r="C230" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D230" t="s">
-        <v>251</v>
-      </c>
-      <c r="E230" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E230" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>306</v>
-      </c>
-      <c r="B231" t="s">
-        <v>295</v>
+        <v>43</v>
+      </c>
+      <c r="B231">
+        <v>103</v>
       </c>
       <c r="C231" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D231" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E231" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>150</v>
-      </c>
-      <c r="B232">
-        <v>153</v>
+        <v>210</v>
+      </c>
+      <c r="B232" t="s">
+        <v>359</v>
       </c>
       <c r="C232" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="B233">
-        <v>102</v>
+        <v>683</v>
       </c>
       <c r="C233" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D233" t="s">
         <v>4</v>
       </c>
       <c r="E233" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>157</v>
-      </c>
-      <c r="B234" t="s">
-        <v>63</v>
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>472</v>
       </c>
       <c r="C234" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
+      </c>
+      <c r="E234" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>79</v>
-      </c>
-      <c r="B235" t="s">
-        <v>80</v>
+        <v>209</v>
+      </c>
+      <c r="B235">
+        <v>104</v>
       </c>
       <c r="C235" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
+      </c>
+      <c r="E235" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>162</v>
-      </c>
-      <c r="B236">
-        <v>103</v>
+        <v>279</v>
+      </c>
+      <c r="B236" t="s">
+        <v>280</v>
       </c>
       <c r="C236" t="s">
         <v>148</v>
       </c>
       <c r="D236" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E236" t="s">
-        <v>483</v>
+        <v>300</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B237">
-        <v>472</v>
+        <v>101</v>
       </c>
       <c r="C237" t="s">
         <v>148</v>
@@ -5857,29 +5976,32 @@
         <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>159</v>
+        <v>337</v>
       </c>
       <c r="B238" t="s">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="C238" t="s">
         <v>148</v>
       </c>
       <c r="D238" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E238" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>478</v>
-      </c>
-      <c r="B239">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="B239" t="s">
+        <v>182</v>
       </c>
       <c r="C239" t="s">
         <v>148</v>
@@ -5887,16 +6009,13 @@
       <c r="D239" t="s">
         <v>4</v>
       </c>
-      <c r="E239" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B240" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C240" t="s">
         <v>148</v>
@@ -5904,144 +6023,141 @@
       <c r="D240" t="s">
         <v>251</v>
       </c>
-      <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>291</v>
-      </c>
-      <c r="B241" t="s">
-        <v>292</v>
+        <v>92</v>
+      </c>
+      <c r="B241">
+        <v>470</v>
       </c>
       <c r="C241" t="s">
         <v>148</v>
       </c>
       <c r="D241" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E241" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="B242" t="s">
-        <v>493</v>
+        <v>297</v>
       </c>
       <c r="C242" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D242" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="B243">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C243" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
       </c>
       <c r="E243" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>87</v>
-      </c>
-      <c r="B244">
-        <v>471</v>
+        <v>288</v>
+      </c>
+      <c r="B244" t="s">
+        <v>289</v>
       </c>
       <c r="C244" t="s">
         <v>148</v>
       </c>
       <c r="D244" t="s">
-        <v>4</v>
-      </c>
-      <c r="E244" t="s">
-        <v>484</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>176</v>
-      </c>
-      <c r="B245">
-        <v>10001</v>
+        <v>306</v>
+      </c>
+      <c r="B245" t="s">
+        <v>295</v>
       </c>
       <c r="C245" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D245" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B246">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C246" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D246" t="s">
         <v>4</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="B247">
-        <v>471</v>
+        <v>102</v>
       </c>
       <c r="C247" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D247" t="s">
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>99</v>
-      </c>
-      <c r="B248">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="B248" t="s">
+        <v>63</v>
       </c>
       <c r="C248" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
-      </c>
-      <c r="E248" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>98</v>
-      </c>
-      <c r="B249">
-        <v>4701</v>
+        <v>79</v>
+      </c>
+      <c r="B249" t="s">
+        <v>80</v>
       </c>
       <c r="C249" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D249" t="s">
         <v>4</v>
@@ -6049,13 +6165,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B250">
         <v>103</v>
       </c>
       <c r="C250" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D250" t="s">
         <v>4</v>
@@ -6066,30 +6182,30 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B251">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="C251" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D251" t="s">
         <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B252" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C252" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D252" t="s">
         <v>4</v>
@@ -6097,78 +6213,70 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>71</v>
+        <v>478</v>
       </c>
       <c r="B253">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="C253" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D253" t="s">
         <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>89</v>
-      </c>
-      <c r="B254">
-        <v>471</v>
+        <v>290</v>
+      </c>
+      <c r="B254" t="s">
+        <v>292</v>
       </c>
       <c r="C254" t="s">
         <v>148</v>
       </c>
       <c r="D254" t="s">
-        <v>4</v>
-      </c>
-      <c r="E254" t="s">
-        <v>484</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>84</v>
-      </c>
-      <c r="B255">
-        <v>103</v>
+        <v>291</v>
+      </c>
+      <c r="B255" t="s">
+        <v>292</v>
       </c>
       <c r="C255" t="s">
         <v>148</v>
       </c>
       <c r="D255" t="s">
-        <v>4</v>
-      </c>
-      <c r="E255" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="B256" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C256" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D256" t="s">
         <v>4</v>
-      </c>
-      <c r="E256" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="B257">
-        <v>472</v>
+        <v>203</v>
       </c>
       <c r="C257" t="s">
         <v>163</v>
@@ -6177,15 +6285,15 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>73</v>
-      </c>
-      <c r="B258" t="s">
-        <v>490</v>
+        <v>87</v>
+      </c>
+      <c r="B258">
+        <v>471</v>
       </c>
       <c r="C258" t="s">
         <v>148</v>
@@ -6193,13 +6301,16 @@
       <c r="D258" t="s">
         <v>4</v>
       </c>
+      <c r="E258" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B259">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C259" t="s">
         <v>163</v>
@@ -6207,16 +6318,13 @@
       <c r="D259" t="s">
         <v>4</v>
       </c>
-      <c r="E259" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B260">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C260" t="s">
         <v>163</v>
@@ -6225,15 +6333,15 @@
         <v>4</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B261">
-        <v>100</v>
+        <v>471</v>
       </c>
       <c r="C261" t="s">
         <v>163</v>
@@ -6242,32 +6350,35 @@
         <v>4</v>
       </c>
       <c r="E261" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="C262" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D262" t="s">
         <v>4</v>
+      </c>
+      <c r="E262" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>75</v>
-      </c>
-      <c r="B263" t="s">
-        <v>492</v>
+        <v>98</v>
+      </c>
+      <c r="B263">
+        <v>4701</v>
       </c>
       <c r="C263" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D263" t="s">
         <v>4</v>
@@ -6275,135 +6386,146 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>82</v>
-      </c>
-      <c r="B264" t="s">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="B264">
+        <v>103</v>
       </c>
       <c r="C264" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D264" t="s">
         <v>4</v>
+      </c>
+      <c r="E264" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B265">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C265" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D265" t="s">
         <v>4</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>66</v>
-      </c>
-      <c r="B266">
-        <v>203</v>
+        <v>172</v>
+      </c>
+      <c r="B266" t="s">
+        <v>173</v>
       </c>
       <c r="C266" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D266" t="s">
         <v>4</v>
-      </c>
-      <c r="E266" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>307</v>
-      </c>
-      <c r="B267" t="s">
-        <v>294</v>
+        <v>71</v>
+      </c>
+      <c r="B267">
+        <v>202</v>
       </c>
       <c r="C267" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D267" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E267" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>286</v>
-      </c>
-      <c r="B268" t="s">
-        <v>287</v>
+        <v>89</v>
+      </c>
+      <c r="B268">
+        <v>471</v>
       </c>
       <c r="C268" t="s">
         <v>148</v>
       </c>
       <c r="D268" t="s">
-        <v>251</v>
-      </c>
-      <c r="E268" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E268" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>93</v>
-      </c>
-      <c r="B269" t="s">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="B269">
+        <v>103</v>
       </c>
       <c r="C269" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D269" t="s">
         <v>4</v>
+      </c>
+      <c r="E269" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B270" t="s">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="C270" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
+      </c>
+      <c r="E270" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B271">
-        <v>104</v>
+        <v>472</v>
       </c>
       <c r="C271" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>184</v>
-      </c>
-      <c r="B272">
-        <v>512</v>
+        <v>73</v>
+      </c>
+      <c r="B272" t="s">
+        <v>490</v>
       </c>
       <c r="C272" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D272" t="s">
         <v>4</v>
@@ -6411,24 +6533,27 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C273" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
+      </c>
+      <c r="E273" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="B274">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C274" t="s">
         <v>163</v>
@@ -6436,30 +6561,36 @@
       <c r="D274" t="s">
         <v>4</v>
       </c>
+      <c r="E274" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>50</v>
-      </c>
-      <c r="B275" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="B275">
+        <v>100</v>
       </c>
       <c r="C275" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B276">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
@@ -6467,248 +6598,216 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>135</v>
-      </c>
-      <c r="B277">
-        <v>471</v>
+        <v>75</v>
+      </c>
+      <c r="B277" t="s">
+        <v>492</v>
       </c>
       <c r="C277" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D277" t="s">
         <v>4</v>
-      </c>
-      <c r="E277" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>126</v>
-      </c>
-      <c r="B278">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="B278" t="s">
+        <v>45</v>
       </c>
       <c r="C278" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D278" t="s">
         <v>4</v>
-      </c>
-      <c r="E278" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B279">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="C279" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
       </c>
       <c r="E279" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="B280">
-        <v>750</v>
+        <v>203</v>
       </c>
       <c r="C280" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
       </c>
       <c r="E280" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>117</v>
-      </c>
-      <c r="B281">
-        <v>153</v>
+        <v>307</v>
+      </c>
+      <c r="B281" t="s">
+        <v>294</v>
       </c>
       <c r="C281" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D281" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E281" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>244</v>
-      </c>
-      <c r="B282">
-        <v>272</v>
+        <v>286</v>
+      </c>
+      <c r="B282" t="s">
+        <v>287</v>
       </c>
       <c r="C282" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D282" t="s">
-        <v>4</v>
-      </c>
-      <c r="E282" t="s">
-        <v>503</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>127</v>
-      </c>
-      <c r="B283">
-        <v>682</v>
+        <v>93</v>
+      </c>
+      <c r="B283" t="s">
+        <v>45</v>
       </c>
       <c r="C283" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
-      </c>
-      <c r="E283" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>205</v>
-      </c>
-      <c r="B284">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="B284" t="s">
+        <v>45</v>
       </c>
       <c r="C284" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
-      </c>
-      <c r="E284" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B285">
-        <v>303</v>
+        <v>104</v>
       </c>
       <c r="C285" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D285" t="s">
         <v>4</v>
-      </c>
-      <c r="E285" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="B286">
-        <v>750</v>
+        <v>512</v>
       </c>
       <c r="C286" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
-      </c>
-      <c r="E286" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B287">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="C287" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
-      </c>
-      <c r="E287" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B288">
         <v>100</v>
       </c>
       <c r="C288" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
-      </c>
-      <c r="E288" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>137</v>
-      </c>
-      <c r="B289">
-        <v>151</v>
+        <v>50</v>
+      </c>
+      <c r="B289" t="s">
+        <v>45</v>
       </c>
       <c r="C289" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D289" t="s">
         <v>4</v>
-      </c>
-      <c r="E289" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="B290">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C290" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
-      </c>
-      <c r="E290" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="B291">
-        <v>750</v>
+        <v>471</v>
       </c>
       <c r="C291" t="s">
         <v>108</v>
@@ -6717,15 +6816,15 @@
         <v>4</v>
       </c>
       <c r="E291" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="B292">
-        <v>750</v>
+        <v>105</v>
       </c>
       <c r="C292" t="s">
         <v>108</v>
@@ -6734,15 +6833,15 @@
         <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B293">
-        <v>750</v>
+        <v>105</v>
       </c>
       <c r="C293" t="s">
         <v>108</v>
@@ -6751,12 +6850,12 @@
         <v>4</v>
       </c>
       <c r="E293" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B294">
         <v>750</v>
@@ -6773,10 +6872,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="B295">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C295" t="s">
         <v>108</v>
@@ -6785,15 +6884,15 @@
         <v>4</v>
       </c>
       <c r="E295" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B296">
-        <v>752</v>
+        <v>272</v>
       </c>
       <c r="C296" t="s">
         <v>108</v>
@@ -6802,15 +6901,15 @@
         <v>4</v>
       </c>
       <c r="E296" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="B297">
-        <v>750</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
         <v>108</v>
@@ -6819,15 +6918,15 @@
         <v>4</v>
       </c>
       <c r="E297" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="B298">
-        <v>333</v>
+        <v>102</v>
       </c>
       <c r="C298" t="s">
         <v>108</v>
@@ -6836,15 +6935,15 @@
         <v>4</v>
       </c>
       <c r="E298" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B299">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
         <v>108</v>
@@ -6853,15 +6952,15 @@
         <v>4</v>
       </c>
       <c r="E299" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="B300">
-        <v>123</v>
+        <v>750</v>
       </c>
       <c r="C300" t="s">
         <v>108</v>
@@ -6870,15 +6969,15 @@
         <v>4</v>
       </c>
       <c r="E300" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="B301">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="C301" t="s">
         <v>108</v>
@@ -6887,15 +6986,15 @@
         <v>4</v>
       </c>
       <c r="E301" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="B302">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="C302" t="s">
         <v>108</v>
@@ -6904,192 +7003,270 @@
         <v>4</v>
       </c>
       <c r="E302" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>137</v>
+      </c>
+      <c r="B303">
+        <v>151</v>
+      </c>
+      <c r="C303" t="s">
+        <v>108</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>136</v>
+      </c>
+      <c r="B304">
+        <v>101</v>
+      </c>
+      <c r="C304" t="s">
+        <v>108</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>225</v>
+      </c>
+      <c r="B305">
+        <v>750</v>
+      </c>
+      <c r="C305" t="s">
+        <v>108</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>227</v>
+      </c>
+      <c r="B306">
+        <v>750</v>
+      </c>
+      <c r="C306" t="s">
+        <v>108</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>230</v>
+      </c>
+      <c r="B307">
+        <v>750</v>
+      </c>
+      <c r="C307" t="s">
+        <v>108</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>223</v>
+      </c>
+      <c r="B308">
+        <v>750</v>
+      </c>
+      <c r="C308" t="s">
+        <v>108</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>248</v>
+      </c>
+      <c r="B309">
+        <v>203</v>
+      </c>
+      <c r="C309" t="s">
+        <v>108</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>247</v>
+      </c>
+      <c r="B310">
+        <v>752</v>
+      </c>
+      <c r="C310" t="s">
+        <v>108</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>224</v>
+      </c>
+      <c r="B311">
+        <v>750</v>
+      </c>
+      <c r="C311" t="s">
+        <v>108</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>246</v>
+      </c>
+      <c r="B312">
+        <v>333</v>
+      </c>
+      <c r="C312" t="s">
+        <v>108</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>116</v>
+      </c>
+      <c r="B313">
+        <v>393</v>
+      </c>
+      <c r="C313" t="s">
+        <v>108</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>119</v>
+      </c>
+      <c r="B314">
+        <v>123</v>
+      </c>
+      <c r="C314" t="s">
+        <v>108</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>240</v>
+      </c>
+      <c r="B315">
+        <v>331</v>
+      </c>
+      <c r="C315" t="s">
+        <v>108</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>239</v>
+      </c>
+      <c r="B316">
+        <v>331</v>
+      </c>
+      <c r="C316" t="s">
+        <v>108</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>238</v>
       </c>
-      <c r="B303">
+      <c r="B317">
         <v>331</v>
       </c>
-      <c r="C303" t="s">
-        <v>108</v>
-      </c>
-      <c r="D303" t="s">
-        <v>4</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="C317" t="s">
+        <v>108</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>47</v>
-      </c>
-      <c r="C304" t="s">
-        <v>183</v>
-      </c>
-      <c r="D304" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>48</v>
-      </c>
-      <c r="C305" t="s">
-        <v>183</v>
-      </c>
-      <c r="D305" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>218</v>
-      </c>
-      <c r="C306" t="s">
-        <v>108</v>
-      </c>
-      <c r="D306" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>146</v>
-      </c>
-      <c r="C307" t="s">
-        <v>108</v>
-      </c>
-      <c r="D307" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>215</v>
-      </c>
-      <c r="C308" t="s">
-        <v>108</v>
-      </c>
-      <c r="D308" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>217</v>
-      </c>
-      <c r="C309" t="s">
-        <v>108</v>
-      </c>
-      <c r="D309" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>115</v>
-      </c>
-      <c r="C310" t="s">
-        <v>108</v>
-      </c>
-      <c r="D310" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>107</v>
-      </c>
-      <c r="C311" t="s">
-        <v>108</v>
-      </c>
-      <c r="D311" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>189</v>
-      </c>
-      <c r="C312" t="s">
-        <v>186</v>
-      </c>
-      <c r="D312" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>147</v>
-      </c>
-      <c r="C313" t="s">
-        <v>148</v>
-      </c>
-      <c r="D313" t="s">
-        <v>4</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>102</v>
-      </c>
-      <c r="C314" t="s">
-        <v>163</v>
-      </c>
-      <c r="D314" t="s">
-        <v>4</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>166</v>
-      </c>
-      <c r="C315" t="s">
-        <v>163</v>
-      </c>
-      <c r="D315" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>245</v>
-      </c>
-      <c r="C316" t="s">
-        <v>108</v>
-      </c>
-      <c r="D316" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>249</v>
-      </c>
-      <c r="C317" t="s">
-        <v>108</v>
-      </c>
-      <c r="D317" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="C318" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D318" t="s">
         <v>4</v>
@@ -7097,10 +7274,10 @@
     </row>
     <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="C319" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
@@ -7108,7 +7285,7 @@
     </row>
     <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="C320" t="s">
         <v>108</v>
@@ -7119,7 +7296,7 @@
     </row>
     <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C321" t="s">
         <v>108</v>
@@ -7130,38 +7307,32 @@
     </row>
     <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="C322" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
-      </c>
-      <c r="E322" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="C323" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
-      </c>
-      <c r="E323" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C324" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -7169,10 +7340,10 @@
     </row>
     <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="C325" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D325" t="s">
         <v>4</v>
@@ -7180,10 +7351,10 @@
     </row>
     <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C326" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D326" t="s">
         <v>4</v>
@@ -7191,32 +7362,38 @@
     </row>
     <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C327" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D327" t="s">
         <v>4</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C328" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="C329" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
@@ -7224,7 +7401,7 @@
     </row>
     <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C330" t="s">
         <v>108</v>
@@ -7235,10 +7412,10 @@
     </row>
     <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C331" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D331" t="s">
         <v>4</v>
@@ -7246,10 +7423,10 @@
     </row>
     <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="C332" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D332" t="s">
         <v>4</v>
@@ -7257,10 +7434,10 @@
     </row>
     <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="C333" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D333" t="s">
         <v>4</v>
@@ -7268,10 +7445,10 @@
     </row>
     <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C334" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D334" t="s">
         <v>4</v>
@@ -7279,10 +7456,10 @@
     </row>
     <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>55</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>186</v>
+        <v>204</v>
+      </c>
+      <c r="C335" t="s">
+        <v>108</v>
       </c>
       <c r="D335" t="s">
         <v>4</v>
@@ -7290,18 +7467,21 @@
     </row>
     <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="C336" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D336" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E336" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="C337" t="s">
         <v>186</v>
@@ -7309,32 +7489,189 @@
       <c r="D337" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E337" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>168</v>
+      </c>
+      <c r="C338" t="s">
+        <v>163</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>165</v>
+      </c>
+      <c r="C339" t="s">
+        <v>163</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>125</v>
+      </c>
+      <c r="C340" t="s">
+        <v>108</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>123</v>
+      </c>
+      <c r="C341" t="s">
+        <v>108</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>121</v>
+      </c>
+      <c r="C342" t="s">
+        <v>108</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>221</v>
+      </c>
+      <c r="C343" t="s">
+        <v>108</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>113</v>
+      </c>
+      <c r="C344" t="s">
+        <v>108</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>193</v>
+      </c>
+      <c r="C345" t="s">
+        <v>186</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>186</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>68</v>
+      </c>
+      <c r="C347" t="s">
+        <v>185</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>164</v>
+      </c>
+      <c r="C348" t="s">
+        <v>163</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>55</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>219</v>
+      </c>
+      <c r="C350" t="s">
+        <v>108</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>192</v>
+      </c>
+      <c r="C351" t="s">
+        <v>186</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>152</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C352" t="s">
         <v>148</v>
       </c>
-      <c r="D338" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+      <c r="D352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>122</v>
       </c>
-      <c r="C339" t="s">
-        <v>108</v>
-      </c>
-      <c r="D339" t="s">
+      <c r="C353" t="s">
+        <v>108</v>
+      </c>
+      <c r="D353" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A340:A1147 A1:A174 B175 A176:A325">
+  <conditionalFormatting sqref="A354:A1161 A1:A188 B189 A190:A339">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401643F4-69AF-314C-B253-2DC8235275B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F734D9-50E5-0349-8895-755D42A46CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="572">
   <si>
     <t>Code</t>
   </si>
@@ -4561,6 +4562,9 @@
       <c r="D150" t="s">
         <v>251</v>
       </c>
+      <c r="E150" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">

--- a/components-list.xlsx
+++ b/components-list.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pferronato/Documents/GitHub/MacCCAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F734D9-50E5-0349-8895-755D42A46CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D66D4-CD49-2A48-9355-0E2882F21515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{E2A3F92D-8677-E441-96D7-ADFE3F01DE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="576">
   <si>
     <t>Code</t>
   </si>
@@ -855,9 +853,6 @@
     <t>28BA LM78L 05ACZ</t>
   </si>
   <si>
-    <t>100uf 215v</t>
-  </si>
-  <si>
     <t>MPF 990 M249</t>
   </si>
   <si>
@@ -1362,9 +1357,6 @@
     <t>330uF 16v</t>
   </si>
   <si>
-    <t>.22uF 250V</t>
-  </si>
-  <si>
     <t>CS4</t>
   </si>
   <si>
@@ -1750,6 +1742,24 @@
   </si>
   <si>
     <t>TV vertical deflector output</t>
+  </si>
+  <si>
+    <t>possible replacement BYW36-TAP</t>
+  </si>
+  <si>
+    <t>CS3</t>
+  </si>
+  <si>
+    <t>µF 50V</t>
+  </si>
+  <si>
+    <t>not present on stock boards, only when they have been modded for stereo audio.</t>
+  </si>
+  <si>
+    <t>capacitor - should be a 100µF 25V, not a .22µF 250V</t>
+  </si>
+  <si>
+    <t>should be a 470µF 25V, not a 1000µF 35V</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1854,6 +1864,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,16 +1895,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H353" totalsRowShown="0">
-  <autoFilter ref="A1:H353" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}" name="Table1" displayName="Table1" ref="A1:H350" totalsRowShown="0">
+  <autoFilter ref="A1:H350" xr:uid="{2EA5F103-BD9C-724C-A7B1-1465ACBA67A0}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H317">
-    <sortCondition ref="A1:A353"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H314">
+    <sortCondition ref="A1:A350"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3B152FFC-0A64-E142-BE73-9D91DF7AE0AD}" name="Code"/>
@@ -2205,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BFAA7-9D71-9746-8250-F1CFD200436D}">
-  <dimension ref="A1:H353"/>
+  <dimension ref="A1:H350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2234,770 +2246,773 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" t="s">
         <v>470</v>
-      </c>
-      <c r="G1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>561</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>558</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
         <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
         <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
         <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>365</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
         <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
         <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
         <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
         <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D14" t="s">
         <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
         <v>251</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E16" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
         <v>251</v>
       </c>
       <c r="E17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>355</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E18" t="s">
-        <v>382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s">
         <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>347</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>376</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D22" t="s">
         <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D24" t="s">
         <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>382</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>411</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" t="s">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>477</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
       <c r="E30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>369</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D32" t="s">
-        <v>251</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>417</v>
+        <v>367</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B34" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D34" t="s">
         <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D35" t="s">
         <v>251</v>
       </c>
       <c r="E35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="D36" t="s">
         <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>418</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
+        <v>419</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E37" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
         <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>358</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
         <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>358</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>422</v>
       </c>
       <c r="B42" t="s">
-        <v>348</v>
-      </c>
-      <c r="C42" t="s">
-        <v>148</v>
+        <v>423</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="D43" t="s">
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>426</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>411</v>
+        <v>347</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s">
-        <v>428</v>
+        <v>343</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>330</v>
+        <v>536</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>537</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
         <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>382</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>163</v>
+        <v>410</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="D48" t="s">
         <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
         <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="B51" t="s">
-        <v>431</v>
+        <v>534</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>382</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="C52" t="s">
         <v>148</v>
@@ -3006,32 +3021,32 @@
         <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s">
         <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>455</v>
+        <v>251</v>
+      </c>
+      <c r="E53" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
         <v>148</v>
@@ -3039,41 +3054,44 @@
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>455</v>
+      <c r="E54" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s">
         <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s">
-        <v>401</v>
+        <v>431</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
       </c>
       <c r="D56" t="s">
         <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
         <v>350</v>
@@ -3085,103 +3103,100 @@
         <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>347</v>
       </c>
       <c r="C58" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>284</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
       <c r="D59" t="s">
         <v>251</v>
+      </c>
+      <c r="E59" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>332</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" t="s">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
         <v>251</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="C61" t="s">
         <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" t="s">
-        <v>464</v>
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" t="s">
-        <v>251</v>
-      </c>
-      <c r="E62" t="s">
-        <v>382</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="B63" t="s">
-        <v>429</v>
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
       </c>
       <c r="D63" t="s">
         <v>251</v>
-      </c>
-      <c r="E63" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C64" t="s">
         <v>163</v>
@@ -3190,30 +3205,32 @@
         <v>251</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
         <v>163</v>
@@ -3222,29 +3239,29 @@
         <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D67" t="s">
         <v>251</v>
       </c>
       <c r="E67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C68" t="s">
         <v>163</v>
@@ -3253,254 +3270,257 @@
         <v>251</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>455</v>
+        <v>251</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
         <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>436</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
-      </c>
-      <c r="C71" t="s">
-        <v>148</v>
+        <v>437</v>
       </c>
       <c r="D71" t="s">
         <v>251</v>
       </c>
       <c r="E71" t="s">
-        <v>465</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
         <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>455</v>
+        <v>251</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
       </c>
       <c r="D75" t="s">
         <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>440</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
-        <v>401</v>
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" t="s">
-        <v>382</v>
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" t="s">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" t="s">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E80" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>440</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="6" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>309</v>
-      </c>
-      <c r="B82" t="s">
-        <v>442</v>
-      </c>
-      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D82" t="s">
-        <v>251</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>309</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>442</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -3509,49 +3529,49 @@
         <v>251</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>308</v>
       </c>
-      <c r="B85" t="s">
-        <v>322</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D85" t="s">
-        <v>251</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>376</v>
+      <c r="D85" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>163</v>
+        <v>321</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
       </c>
       <c r="D86" t="s">
         <v>251</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>376</v>
+      <c r="E86" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C87" t="s">
         <v>163</v>
@@ -3560,7 +3580,7 @@
         <v>251</v>
       </c>
       <c r="E87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3576,47 +3596,44 @@
       <c r="D88" t="s">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
-        <v>468</v>
+      <c r="E88" s="6" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>443</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
-      </c>
-      <c r="D89" t="s">
-        <v>251</v>
+        <v>572</v>
       </c>
       <c r="E89" t="s">
-        <v>382</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>441</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E90" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -3624,24 +3641,21 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
         <v>108</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="B93" t="s">
         <v>233</v>
@@ -3652,47 +3666,50 @@
       <c r="D93" t="s">
         <v>4</v>
       </c>
-      <c r="E93" t="s">
-        <v>468</v>
+      <c r="E93" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>233</v>
       </c>
       <c r="C94" t="s">
         <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E95" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" t="s">
         <v>370</v>
-      </c>
-      <c r="B96" t="s">
-        <v>371</v>
       </c>
       <c r="C96" t="s">
         <v>108</v>
@@ -3703,27 +3720,24 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
-      </c>
-      <c r="E97" t="s">
-        <v>382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B98" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
         <v>108</v>
@@ -3732,15 +3746,15 @@
         <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C99" t="s">
         <v>108</v>
@@ -3749,49 +3763,49 @@
         <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>446</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>402</v>
       </c>
       <c r="C100" t="s">
         <v>108</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>449</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>233</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
@@ -3800,29 +3814,29 @@
         <v>251</v>
       </c>
       <c r="E102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="C103" t="s">
         <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E103" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
         <v>233</v>
@@ -3834,278 +3848,260 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>451</v>
+        <v>242</v>
       </c>
       <c r="B105" t="s">
-        <v>452</v>
+        <v>233</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D106" t="s">
         <v>251</v>
       </c>
       <c r="E106" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B107" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D107" t="s">
         <v>251</v>
       </c>
       <c r="E107" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>557</v>
+        <v>454</v>
       </c>
       <c r="B108" t="s">
-        <v>566</v>
-      </c>
-      <c r="C108" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
       <c r="D108" t="s">
         <v>251</v>
       </c>
       <c r="E108" t="s">
-        <v>569</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>556</v>
+        <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>568</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s">
         <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>569</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="B110" t="s">
-        <v>567</v>
-      </c>
-      <c r="C110" t="s">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="D110" t="s">
         <v>251</v>
       </c>
       <c r="E110" t="s">
-        <v>569</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>554</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>565</v>
+        <v>233</v>
       </c>
       <c r="C111" t="s">
         <v>108</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>569</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>553</v>
+        <v>456</v>
       </c>
       <c r="B112" t="s">
-        <v>566</v>
-      </c>
-      <c r="C112" t="s">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="D112" t="s">
         <v>251</v>
       </c>
       <c r="E112" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="B113" t="s">
-        <v>565</v>
-      </c>
-      <c r="C113" t="s">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="D113" t="s">
         <v>251</v>
       </c>
       <c r="E113" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="B114" t="s">
-        <v>564</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="D114" t="s">
         <v>251</v>
       </c>
       <c r="E114" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="B115" t="s">
-        <v>563</v>
-      </c>
-      <c r="C115" t="s">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="D115" t="s">
         <v>251</v>
       </c>
       <c r="E115" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>549</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>562</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
         <v>108</v>
       </c>
       <c r="D116" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>548</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>561</v>
+        <v>370</v>
       </c>
       <c r="C117" t="s">
         <v>108</v>
       </c>
       <c r="D117" t="s">
-        <v>251</v>
-      </c>
-      <c r="E117" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>547</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
-        <v>560</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
         <v>108</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>546</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
-        <v>559</v>
+        <v>233</v>
       </c>
       <c r="C119" t="s">
         <v>108</v>
       </c>
       <c r="D119" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>545</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>558</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
         <v>108</v>
       </c>
       <c r="D120" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="C121" t="s">
         <v>108</v>
@@ -4114,235 +4110,233 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>409</v>
+        <v>301</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s">
-        <v>409</v>
+        <v>275</v>
+      </c>
+      <c r="C124" t="s">
+        <v>148</v>
       </c>
       <c r="D124" t="s">
         <v>251</v>
       </c>
       <c r="E124" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
-      </c>
-      <c r="D125" t="s">
-        <v>251</v>
+        <v>352</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>460</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>401</v>
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>461</v>
-      </c>
-      <c r="B127" t="s">
-        <v>401</v>
-      </c>
-      <c r="D127" t="s">
-        <v>251</v>
-      </c>
-      <c r="E127" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s">
-        <v>108</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="D128" s="5"/>
       <c r="E128" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>371</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E129" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>243</v>
-      </c>
-      <c r="B130" t="s">
-        <v>233</v>
-      </c>
-      <c r="C130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>237</v>
+        <v>530</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>531</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D131" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E131" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>328</v>
       </c>
       <c r="C132" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>110</v>
-      </c>
-      <c r="B134" t="s">
-        <v>302</v>
-      </c>
-      <c r="C134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" t="s">
-        <v>302</v>
+        <v>155</v>
+      </c>
+      <c r="B135">
+        <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
-      <c r="E135" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
         <v>148</v>
@@ -4351,312 +4345,320 @@
         <v>251</v>
       </c>
       <c r="E136" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="C137" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>547</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>560</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E138" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="B139" t="s">
+        <v>557</v>
+      </c>
+      <c r="C139" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>355</v>
+        <v>553</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>565</v>
       </c>
       <c r="C140" t="s">
-        <v>498</v>
-      </c>
-      <c r="D140" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="D140" t="s">
+        <v>251</v>
+      </c>
       <c r="E140" t="s">
-        <v>499</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>549</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>562</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D141" t="s">
         <v>251</v>
       </c>
       <c r="E141" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>4</v>
+        <v>550</v>
+      </c>
+      <c r="B142" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" t="s">
+        <v>251</v>
       </c>
       <c r="E142" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="B143" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D144" t="s">
         <v>251</v>
+      </c>
+      <c r="E144" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>90</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>4</v>
+        <v>311</v>
+      </c>
+      <c r="B145" t="s">
+        <v>272</v>
+      </c>
+      <c r="C145" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" t="s">
+        <v>251</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>155</v>
-      </c>
-      <c r="B146">
-        <v>101</v>
+        <v>326</v>
+      </c>
+      <c r="B146" t="s">
+        <v>266</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D147" t="s">
         <v>251</v>
+      </c>
+      <c r="E147" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c r="B148" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="C148" t="s">
         <v>108</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E148" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B149" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="C149" t="s">
         <v>108</v>
       </c>
       <c r="D149" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C150" t="s">
         <v>108</v>
       </c>
       <c r="D150" t="s">
         <v>251</v>
-      </c>
-      <c r="E150" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D151" t="s">
-        <v>251</v>
-      </c>
-      <c r="E151" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>114</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D152" t="s">
-        <v>251</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>325</v>
+        <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="C153" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D153" t="s">
-        <v>251</v>
-      </c>
-      <c r="E153" t="s">
-        <v>323</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="C154" t="s">
         <v>108</v>
       </c>
       <c r="D154" t="s">
-        <v>251</v>
-      </c>
-      <c r="E154" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
         <v>254</v>
       </c>
       <c r="C155" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D155" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B156" t="s">
         <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -4664,7 +4666,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="B157" t="s">
         <v>254</v>
@@ -4678,7 +4680,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B158" t="s">
         <v>254</v>
@@ -4692,13 +4694,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
         <v>254</v>
       </c>
-      <c r="C159" t="s">
-        <v>108</v>
+      <c r="C159" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -4706,13 +4708,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -4720,13 +4722,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B161" t="s">
         <v>254</v>
       </c>
       <c r="C161" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -4734,7 +4736,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
         <v>254</v>
@@ -4748,7 +4750,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
         <v>254</v>
@@ -4762,210 +4764,225 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>552</v>
       </c>
       <c r="B164" t="s">
-        <v>254</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>183</v>
+        <v>563</v>
+      </c>
+      <c r="C164" t="s">
+        <v>108</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E164" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>551</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>564</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D165" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E165" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>555</v>
       </c>
       <c r="B166" t="s">
-        <v>254</v>
+        <v>564</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="E166" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="B167" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C167" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D167" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C168" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>541</v>
+        <v>104</v>
       </c>
       <c r="B169" t="s">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>543</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="C170" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D170" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>258</v>
+        <v>546</v>
       </c>
       <c r="B171" t="s">
-        <v>257</v>
+        <v>559</v>
       </c>
       <c r="C171" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D171" t="s">
         <v>251</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>104</v>
-      </c>
-      <c r="B172" t="s">
-        <v>320</v>
+        <v>144</v>
+      </c>
+      <c r="B172">
+        <v>153</v>
       </c>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
       </c>
-      <c r="E172" t="s">
-        <v>314</v>
+      <c r="E172" s="8" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>103</v>
-      </c>
-      <c r="B173" t="s">
-        <v>319</v>
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>331</v>
       </c>
       <c r="C173" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
       </c>
-      <c r="E173" t="s">
-        <v>321</v>
+      <c r="E173" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="B174">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="B175">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="B176">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="C176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B177">
-        <v>123</v>
+        <v>434</v>
       </c>
       <c r="C177" t="s">
         <v>108</v>
@@ -4974,32 +4991,32 @@
         <v>4</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="B178">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C178" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B179">
-        <v>434</v>
+        <v>223</v>
       </c>
       <c r="C179" t="s">
         <v>108</v>
@@ -5008,12 +5025,12 @@
         <v>4</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="B180">
         <v>223</v>
@@ -5025,66 +5042,64 @@
         <v>4</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="B181">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="C181" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B182">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="C182" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>53</v>
-      </c>
-      <c r="B183">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="B183" t="s">
+        <v>143</v>
       </c>
       <c r="C183" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
       </c>
-      <c r="E183" s="8" t="s">
-        <v>475</v>
-      </c>
+      <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B184">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="C184" t="s">
         <v>185</v>
@@ -5093,30 +5108,32 @@
         <v>4</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>142</v>
-      </c>
-      <c r="B185" t="s">
-        <v>143</v>
+        <v>39</v>
+      </c>
+      <c r="B185">
+        <v>471</v>
       </c>
       <c r="C185" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
       </c>
-      <c r="E185" s="8"/>
+      <c r="E185" s="8" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B186">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="C186" t="s">
         <v>185</v>
@@ -5124,50 +5141,50 @@
       <c r="D186" t="s">
         <v>4</v>
       </c>
-      <c r="E186" s="8" t="s">
-        <v>486</v>
+      <c r="E186" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="B187">
-        <v>471</v>
+        <v>104</v>
       </c>
       <c r="C187" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
       </c>
-      <c r="E187" s="8" t="s">
-        <v>484</v>
+      <c r="E187" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B188">
-        <v>331</v>
+        <v>753</v>
       </c>
       <c r="C188" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
       </c>
-      <c r="E188" s="8" t="s">
-        <v>512</v>
+      <c r="E188" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B189">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C189" t="s">
         <v>108</v>
@@ -5176,66 +5193,66 @@
         <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B190">
-        <v>753</v>
+        <v>272</v>
       </c>
       <c r="C190" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
       </c>
       <c r="E190" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="B191">
-        <v>128</v>
+        <v>471</v>
       </c>
       <c r="C191" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
       </c>
-      <c r="E191" t="s">
-        <v>525</v>
+      <c r="E191" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B192">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
       </c>
-      <c r="E192" t="s">
-        <v>503</v>
+      <c r="E192" s="10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B193">
-        <v>471</v>
+        <v>321</v>
       </c>
       <c r="C193" t="s">
         <v>186</v>
@@ -5244,32 +5261,32 @@
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="B194">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C194" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
       </c>
-      <c r="E194" s="8" t="s">
-        <v>526</v>
+      <c r="E194" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="B195">
-        <v>321</v>
+        <v>472</v>
       </c>
       <c r="C195" t="s">
         <v>186</v>
@@ -5278,77 +5295,77 @@
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>198</v>
-      </c>
-      <c r="B196">
-        <v>151</v>
+        <v>62</v>
+      </c>
+      <c r="B196" t="s">
+        <v>63</v>
       </c>
       <c r="C196" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
-      </c>
-      <c r="E196" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B197">
+        <v>223</v>
+      </c>
+      <c r="C197" t="s">
+        <v>108</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
         <v>472</v>
-      </c>
-      <c r="C197" t="s">
-        <v>186</v>
-      </c>
-      <c r="D197" t="s">
-        <v>4</v>
-      </c>
-      <c r="E197" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>62</v>
-      </c>
-      <c r="B198" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>471</v>
       </c>
       <c r="C198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
+      </c>
+      <c r="E198" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="B199">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B200">
         <v>471</v>
@@ -5360,49 +5377,49 @@
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B201">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="C201" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B202">
-        <v>471</v>
+        <v>302</v>
       </c>
       <c r="C202" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
       </c>
-      <c r="E202" t="s">
-        <v>484</v>
+      <c r="E202" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B203">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="C203" t="s">
         <v>186</v>
@@ -5410,50 +5427,50 @@
       <c r="D203" t="s">
         <v>4</v>
       </c>
-      <c r="E203" t="s">
-        <v>529</v>
+      <c r="E203" s="10" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B204">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="C204" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B205">
-        <v>153</v>
+        <v>392</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
       </c>
-      <c r="E205" s="8" t="s">
-        <v>475</v>
+      <c r="E205" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B206">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C206" t="s">
         <v>185</v>
@@ -5462,18 +5479,18 @@
         <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B207">
-        <v>392</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -5484,10 +5501,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B208">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C208" t="s">
         <v>185</v>
@@ -5496,80 +5513,77 @@
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B209">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="C209" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>22</v>
-      </c>
-      <c r="B210">
-        <v>223</v>
+        <v>212</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
-      </c>
-      <c r="E210" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>21</v>
-      </c>
-      <c r="B211">
-        <v>223</v>
+        <v>58</v>
+      </c>
+      <c r="B211" t="s">
+        <v>60</v>
       </c>
       <c r="C211" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
-      </c>
-      <c r="E211" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212" t="s">
-        <v>214</v>
+        <v>61</v>
+      </c>
+      <c r="B212">
+        <v>393</v>
       </c>
       <c r="C212" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
+      </c>
+      <c r="E212" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>58</v>
-      </c>
-      <c r="B213" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="B213">
+        <v>105</v>
       </c>
       <c r="C213" t="s">
         <v>186</v>
@@ -5577,13 +5591,16 @@
       <c r="D213" t="s">
         <v>4</v>
       </c>
+      <c r="E213" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>61</v>
-      </c>
-      <c r="B214">
-        <v>393</v>
+        <v>28</v>
+      </c>
+      <c r="B214" t="s">
+        <v>29</v>
       </c>
       <c r="C214" t="s">
         <v>186</v>
@@ -5591,64 +5608,64 @@
       <c r="D214" t="s">
         <v>4</v>
       </c>
-      <c r="E214" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B215">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C215" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>28</v>
-      </c>
-      <c r="B216" t="s">
-        <v>29</v>
+        <v>140</v>
+      </c>
+      <c r="B216">
+        <v>474</v>
       </c>
       <c r="C216" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="B217">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="C217" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="B218">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="C218" t="s">
         <v>108</v>
@@ -5662,112 +5679,112 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="B219">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="C219" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>538</v>
-      </c>
-      <c r="B220" t="s">
-        <v>539</v>
+        <v>36</v>
+      </c>
+      <c r="B220">
+        <v>105</v>
       </c>
       <c r="C220" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D220" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>535</v>
-      </c>
-      <c r="B221" t="s">
-        <v>536</v>
+        <v>211</v>
+      </c>
+      <c r="B221">
+        <v>103</v>
       </c>
       <c r="C221" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D221" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E221" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>532</v>
-      </c>
-      <c r="B222" t="s">
-        <v>533</v>
+        <v>26</v>
+      </c>
+      <c r="B222">
+        <v>470</v>
       </c>
       <c r="C222" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D222" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B223">
         <v>514</v>
       </c>
       <c r="C223" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D223" t="s">
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="B224">
-        <v>514</v>
+        <v>295</v>
       </c>
       <c r="C224" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D224" t="s">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B225">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="C225" t="s">
         <v>186</v>
@@ -5776,52 +5793,52 @@
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="B226">
         <v>103</v>
       </c>
       <c r="C226" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
       </c>
       <c r="E226" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>26</v>
-      </c>
-      <c r="B227">
-        <v>470</v>
+        <v>210</v>
+      </c>
+      <c r="B227" t="s">
+        <v>358</v>
       </c>
       <c r="C227" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
       </c>
       <c r="E227" t="s">
-        <v>487</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B228">
-        <v>514</v>
+        <v>683</v>
       </c>
       <c r="C228" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D228" t="s">
         <v>4</v>
@@ -5832,194 +5849,186 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="B229">
-        <v>295</v>
+        <v>472</v>
       </c>
       <c r="C229" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D229" t="s">
         <v>4</v>
       </c>
       <c r="E229" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="B230">
-        <v>471</v>
+        <v>104</v>
       </c>
       <c r="C230" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
       </c>
       <c r="E230" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>43</v>
-      </c>
-      <c r="B231">
-        <v>103</v>
+        <v>278</v>
+      </c>
+      <c r="B231" t="s">
+        <v>279</v>
       </c>
       <c r="C231" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D231" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E231" t="s">
-        <v>483</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>210</v>
-      </c>
-      <c r="B232" t="s">
-        <v>359</v>
+        <v>86</v>
+      </c>
+      <c r="B232">
+        <v>101</v>
       </c>
       <c r="C232" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>364</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>42</v>
-      </c>
-      <c r="B233">
-        <v>683</v>
+        <v>336</v>
+      </c>
+      <c r="B233" t="s">
+        <v>338</v>
       </c>
       <c r="C233" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D233" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E233" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234">
-        <v>472</v>
+        <v>91</v>
+      </c>
+      <c r="B234" t="s">
+        <v>182</v>
       </c>
       <c r="C234" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
-      </c>
-      <c r="E234" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>209</v>
-      </c>
-      <c r="B235">
-        <v>104</v>
+        <v>304</v>
+      </c>
+      <c r="B235" t="s">
+        <v>295</v>
       </c>
       <c r="C235" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D235" t="s">
-        <v>4</v>
-      </c>
-      <c r="E235" t="s">
-        <v>496</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>279</v>
-      </c>
-      <c r="B236" t="s">
-        <v>280</v>
+        <v>92</v>
+      </c>
+      <c r="B236">
+        <v>470</v>
       </c>
       <c r="C236" t="s">
         <v>148</v>
       </c>
       <c r="D236" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>300</v>
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>86</v>
-      </c>
-      <c r="B237">
-        <v>101</v>
+        <v>303</v>
+      </c>
+      <c r="B237" t="s">
+        <v>296</v>
       </c>
       <c r="C237" t="s">
         <v>148</v>
       </c>
       <c r="D237" t="s">
-        <v>4</v>
-      </c>
-      <c r="E237" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>337</v>
-      </c>
-      <c r="B238" t="s">
-        <v>339</v>
+        <v>88</v>
+      </c>
+      <c r="B238">
+        <v>182</v>
       </c>
       <c r="C238" t="s">
         <v>148</v>
       </c>
       <c r="D238" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="B239" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="C239" t="s">
         <v>148</v>
       </c>
       <c r="D239" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>305</v>
       </c>
       <c r="B240" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C240" t="s">
         <v>148</v>
@@ -6030,10 +6039,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B241">
-        <v>470</v>
+        <v>153</v>
       </c>
       <c r="C241" t="s">
         <v>148</v>
@@ -6042,29 +6051,32 @@
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>304</v>
-      </c>
-      <c r="B242" t="s">
-        <v>297</v>
+        <v>478</v>
+      </c>
+      <c r="B242">
+        <v>102</v>
       </c>
       <c r="C242" t="s">
         <v>148</v>
       </c>
       <c r="D242" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E242" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>88</v>
-      </c>
-      <c r="B243">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="B243" t="s">
+        <v>63</v>
       </c>
       <c r="C243" t="s">
         <v>148</v>
@@ -6072,45 +6084,44 @@
       <c r="D243" t="s">
         <v>4</v>
       </c>
-      <c r="E243" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="B244" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="C244" t="s">
         <v>148</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
-      </c>
-      <c r="E244" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>306</v>
-      </c>
-      <c r="B245" t="s">
-        <v>295</v>
+        <v>162</v>
+      </c>
+      <c r="B245">
+        <v>103</v>
       </c>
       <c r="C245" t="s">
         <v>148</v>
       </c>
       <c r="D245" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E245" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B246">
-        <v>153</v>
+        <v>472</v>
       </c>
       <c r="C246" t="s">
         <v>148</v>
@@ -6119,15 +6130,15 @@
         <v>4</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>480</v>
-      </c>
-      <c r="B247">
-        <v>102</v>
+        <v>159</v>
+      </c>
+      <c r="B247" t="s">
+        <v>160</v>
       </c>
       <c r="C247" t="s">
         <v>148</v>
@@ -6135,16 +6146,13 @@
       <c r="D247" t="s">
         <v>4</v>
       </c>
-      <c r="E247" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>157</v>
-      </c>
-      <c r="B248" t="s">
-        <v>63</v>
+        <v>476</v>
+      </c>
+      <c r="B248">
+        <v>101</v>
       </c>
       <c r="C248" t="s">
         <v>148</v>
@@ -6152,75 +6160,76 @@
       <c r="D248" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E248" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="B249" t="s">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="C249" t="s">
         <v>148</v>
       </c>
       <c r="D249" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>162</v>
-      </c>
-      <c r="B250">
-        <v>103</v>
+        <v>290</v>
+      </c>
+      <c r="B250" t="s">
+        <v>291</v>
       </c>
       <c r="C250" t="s">
         <v>148</v>
       </c>
       <c r="D250" t="s">
-        <v>4</v>
-      </c>
-      <c r="E250" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>151</v>
-      </c>
-      <c r="B251">
-        <v>472</v>
+        <v>178</v>
+      </c>
+      <c r="B251" t="s">
+        <v>491</v>
       </c>
       <c r="C251" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D251" t="s">
         <v>4</v>
-      </c>
-      <c r="E251" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>159</v>
-      </c>
-      <c r="B252" t="s">
-        <v>160</v>
+        <v>180</v>
+      </c>
+      <c r="B252">
+        <v>203</v>
       </c>
       <c r="C252" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D252" t="s">
         <v>4</v>
+      </c>
+      <c r="E252" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>478</v>
+        <v>87</v>
       </c>
       <c r="B253">
-        <v>101</v>
+        <v>471</v>
       </c>
       <c r="C253" t="s">
         <v>148</v>
@@ -6229,44 +6238,46 @@
         <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>290</v>
-      </c>
-      <c r="B254" t="s">
-        <v>292</v>
+        <v>176</v>
+      </c>
+      <c r="B254">
+        <v>10001</v>
       </c>
       <c r="C254" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D254" t="s">
-        <v>251</v>
-      </c>
-      <c r="E254" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>291</v>
-      </c>
-      <c r="B255" t="s">
-        <v>292</v>
+        <v>175</v>
+      </c>
+      <c r="B255">
+        <v>202</v>
       </c>
       <c r="C255" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D255" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="E255" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>178</v>
-      </c>
-      <c r="B256" t="s">
-        <v>493</v>
+        <v>174</v>
+      </c>
+      <c r="B256">
+        <v>471</v>
       </c>
       <c r="C256" t="s">
         <v>163</v>
@@ -6274,13 +6285,16 @@
       <c r="D256" t="s">
         <v>4</v>
       </c>
+      <c r="E256" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="B257">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C257" t="s">
         <v>163</v>
@@ -6289,32 +6303,29 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B258">
-        <v>471</v>
+        <v>4701</v>
       </c>
       <c r="C258" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D258" t="s">
         <v>4</v>
-      </c>
-      <c r="E258" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="B259">
-        <v>10001</v>
+        <v>103</v>
       </c>
       <c r="C259" t="s">
         <v>163</v>
@@ -6322,13 +6333,16 @@
       <c r="D259" t="s">
         <v>4</v>
       </c>
+      <c r="E259" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="B260">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="C260" t="s">
         <v>163</v>
@@ -6337,15 +6351,15 @@
         <v>4</v>
       </c>
       <c r="E260" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>174</v>
-      </c>
-      <c r="B261">
-        <v>471</v>
+        <v>172</v>
+      </c>
+      <c r="B261" t="s">
+        <v>173</v>
       </c>
       <c r="C261" t="s">
         <v>163</v>
@@ -6353,13 +6367,10 @@
       <c r="D261" t="s">
         <v>4</v>
       </c>
-      <c r="E261" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B262">
         <v>202</v>
@@ -6371,63 +6382,66 @@
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B263">
-        <v>4701</v>
+        <v>471</v>
       </c>
       <c r="C263" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D263" t="s">
         <v>4</v>
+      </c>
+      <c r="E263" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B264">
         <v>103</v>
       </c>
       <c r="C264" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D264" t="s">
         <v>4</v>
       </c>
       <c r="E264" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>97</v>
-      </c>
-      <c r="B265">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="B265" t="s">
+        <v>486</v>
       </c>
       <c r="C265" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D265" t="s">
         <v>4</v>
       </c>
       <c r="E265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>172</v>
-      </c>
-      <c r="B266" t="s">
-        <v>173</v>
+        <v>70</v>
+      </c>
+      <c r="B266">
+        <v>472</v>
       </c>
       <c r="C266" t="s">
         <v>163</v>
@@ -6435,95 +6449,92 @@
       <c r="D266" t="s">
         <v>4</v>
       </c>
+      <c r="E266" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>71</v>
-      </c>
-      <c r="B267">
-        <v>202</v>
+        <v>73</v>
+      </c>
+      <c r="B267" t="s">
+        <v>488</v>
       </c>
       <c r="C267" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D267" t="s">
         <v>4</v>
-      </c>
-      <c r="E267" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B268">
-        <v>471</v>
+        <v>101</v>
       </c>
       <c r="C268" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D268" t="s">
         <v>4</v>
       </c>
       <c r="E268" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B269">
         <v>103</v>
       </c>
       <c r="C269" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D269" t="s">
         <v>4</v>
       </c>
       <c r="E269" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>74</v>
-      </c>
-      <c r="B270" t="s">
-        <v>488</v>
+        <v>96</v>
+      </c>
+      <c r="B270">
+        <v>100</v>
       </c>
       <c r="C270" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
       </c>
       <c r="E270" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B271">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
-      </c>
-      <c r="E271" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B272" t="s">
         <v>490</v>
@@ -6537,92 +6548,93 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>100</v>
-      </c>
-      <c r="B273">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="B273" t="s">
+        <v>45</v>
       </c>
       <c r="C273" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
-      </c>
-      <c r="E273" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B274">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C274" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D274" t="s">
         <v>4</v>
       </c>
       <c r="E274" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B275">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="C275" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
       </c>
       <c r="E275" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>77</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="B276" t="s">
+        <v>293</v>
       </c>
       <c r="C276" t="s">
         <v>148</v>
       </c>
       <c r="D276" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E276" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="B277" t="s">
-        <v>492</v>
+        <v>286</v>
       </c>
       <c r="C277" t="s">
         <v>148</v>
       </c>
       <c r="D277" t="s">
-        <v>4</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B278" t="s">
         <v>45</v>
       </c>
       <c r="C278" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D278" t="s">
         <v>4</v>
@@ -6630,76 +6642,66 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>67</v>
-      </c>
-      <c r="B279">
-        <v>203</v>
+        <v>95</v>
+      </c>
+      <c r="B279" t="s">
+        <v>45</v>
       </c>
       <c r="C279" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
-      </c>
-      <c r="E279" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B280">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="C280" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
-      </c>
-      <c r="E280" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>307</v>
-      </c>
-      <c r="B281" t="s">
-        <v>294</v>
+        <v>184</v>
+      </c>
+      <c r="B281">
+        <v>512</v>
       </c>
       <c r="C281" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D281" t="s">
-        <v>251</v>
-      </c>
-      <c r="E281" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>286</v>
-      </c>
-      <c r="B282" t="s">
-        <v>287</v>
+        <v>51</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D282" t="s">
-        <v>251</v>
-      </c>
-      <c r="E282" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>93</v>
-      </c>
-      <c r="B283" t="s">
-        <v>45</v>
+        <v>170</v>
+      </c>
+      <c r="B283">
+        <v>100</v>
       </c>
       <c r="C283" t="s">
         <v>163</v>
@@ -6710,13 +6712,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B284" t="s">
         <v>45</v>
       </c>
       <c r="C284" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
@@ -6724,7 +6726,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B285">
         <v>104</v>
@@ -6738,80 +6740,95 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B286">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="C286" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
+      </c>
+      <c r="E286" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C287" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
+      </c>
+      <c r="E287" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B288">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C288" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
+      </c>
+      <c r="E288" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>50</v>
-      </c>
-      <c r="B289" t="s">
-        <v>45</v>
+        <v>222</v>
+      </c>
+      <c r="B289">
+        <v>750</v>
       </c>
       <c r="C289" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D289" t="s">
         <v>4</v>
+      </c>
+      <c r="E289" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B290">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C290" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
+      </c>
+      <c r="E290" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="B291">
-        <v>471</v>
+        <v>272</v>
       </c>
       <c r="C291" t="s">
         <v>108</v>
@@ -6820,15 +6837,15 @@
         <v>4</v>
       </c>
       <c r="E291" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B292">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="C292" t="s">
         <v>108</v>
@@ -6837,15 +6854,15 @@
         <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="B293">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C293" t="s">
         <v>108</v>
@@ -6854,15 +6871,15 @@
         <v>4</v>
       </c>
       <c r="E293" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="B294">
-        <v>750</v>
+        <v>303</v>
       </c>
       <c r="C294" t="s">
         <v>108</v>
@@ -6876,10 +6893,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="B295">
-        <v>153</v>
+        <v>750</v>
       </c>
       <c r="C295" t="s">
         <v>108</v>
@@ -6888,15 +6905,15 @@
         <v>4</v>
       </c>
       <c r="E295" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="B296">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="C296" t="s">
         <v>108</v>
@@ -6910,10 +6927,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B297">
-        <v>682</v>
+        <v>100</v>
       </c>
       <c r="C297" t="s">
         <v>108</v>
@@ -6922,15 +6939,15 @@
         <v>4</v>
       </c>
       <c r="E297" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="B298">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C298" t="s">
         <v>108</v>
@@ -6939,15 +6956,15 @@
         <v>4</v>
       </c>
       <c r="E298" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B299">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="C299" t="s">
         <v>108</v>
@@ -6956,12 +6973,12 @@
         <v>4</v>
       </c>
       <c r="E299" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B300">
         <v>750</v>
@@ -6973,15 +6990,15 @@
         <v>4</v>
       </c>
       <c r="E300" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="B301">
-        <v>222</v>
+        <v>750</v>
       </c>
       <c r="C301" t="s">
         <v>108</v>
@@ -6990,15 +7007,15 @@
         <v>4</v>
       </c>
       <c r="E301" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="B302">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="C302" t="s">
         <v>108</v>
@@ -7007,15 +7024,15 @@
         <v>4</v>
       </c>
       <c r="E302" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B303">
-        <v>151</v>
+        <v>750</v>
       </c>
       <c r="C303" t="s">
         <v>108</v>
@@ -7024,15 +7041,15 @@
         <v>4</v>
       </c>
       <c r="E303" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="B304">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="C304" t="s">
         <v>108</v>
@@ -7041,15 +7058,15 @@
         <v>4</v>
       </c>
       <c r="E304" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B305">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C305" t="s">
         <v>108</v>
@@ -7058,12 +7075,12 @@
         <v>4</v>
       </c>
       <c r="E305" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B306">
         <v>750</v>
@@ -7075,15 +7092,15 @@
         <v>4</v>
       </c>
       <c r="E306" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B307">
-        <v>750</v>
+        <v>333</v>
       </c>
       <c r="C307" t="s">
         <v>108</v>
@@ -7092,15 +7109,15 @@
         <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="B308">
-        <v>750</v>
+        <v>393</v>
       </c>
       <c r="C308" t="s">
         <v>108</v>
@@ -7109,15 +7126,15 @@
         <v>4</v>
       </c>
       <c r="E308" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="B309">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C309" t="s">
         <v>108</v>
@@ -7126,15 +7143,15 @@
         <v>4</v>
       </c>
       <c r="E309" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B310">
-        <v>752</v>
+        <v>331</v>
       </c>
       <c r="C310" t="s">
         <v>108</v>
@@ -7143,15 +7160,15 @@
         <v>4</v>
       </c>
       <c r="E310" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B311">
-        <v>750</v>
+        <v>331</v>
       </c>
       <c r="C311" t="s">
         <v>108</v>
@@ -7160,15 +7177,15 @@
         <v>4</v>
       </c>
       <c r="E311" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B312">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C312" t="s">
         <v>108</v>
@@ -7177,100 +7194,82 @@
         <v>4</v>
       </c>
       <c r="E312" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>116</v>
-      </c>
-      <c r="B313">
-        <v>393</v>
+        <v>543</v>
+      </c>
+      <c r="B313" t="s">
+        <v>556</v>
       </c>
       <c r="C313" t="s">
         <v>108</v>
       </c>
       <c r="D313" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E313" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>119</v>
-      </c>
-      <c r="B314">
-        <v>123</v>
+        <v>554</v>
+      </c>
+      <c r="B314" t="s">
+        <v>566</v>
       </c>
       <c r="C314" t="s">
         <v>108</v>
       </c>
       <c r="D314" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="E314" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>240</v>
-      </c>
-      <c r="B315">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="C315" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
       </c>
-      <c r="E315" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>239</v>
-      </c>
-      <c r="B316">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="C316" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D316" t="s">
         <v>4</v>
       </c>
-      <c r="E316" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>238</v>
-      </c>
-      <c r="B317">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="C317" t="s">
         <v>108</v>
       </c>
       <c r="D317" t="s">
         <v>4</v>
-      </c>
-      <c r="E317" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C318" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D318" t="s">
         <v>4</v>
@@ -7278,10 +7277,10 @@
     </row>
     <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="C319" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
@@ -7289,7 +7288,7 @@
     </row>
     <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C320" t="s">
         <v>108</v>
@@ -7300,7 +7299,7 @@
     </row>
     <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C321" t="s">
         <v>108</v>
@@ -7311,7 +7310,7 @@
     </row>
     <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="C322" t="s">
         <v>108</v>
@@ -7322,10 +7321,10 @@
     </row>
     <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C323" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
@@ -7333,32 +7332,38 @@
     </row>
     <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C324" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C325" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D325" t="s">
         <v>4</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C326" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D326" t="s">
         <v>4</v>
@@ -7366,38 +7371,32 @@
     </row>
     <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="C327" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D327" t="s">
         <v>4</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="C328" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="C329" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
@@ -7405,7 +7404,7 @@
     </row>
     <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C330" t="s">
         <v>108</v>
@@ -7416,7 +7415,7 @@
     </row>
     <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="C331" t="s">
         <v>108</v>
@@ -7427,7 +7426,7 @@
     </row>
     <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C332" t="s">
         <v>108</v>
@@ -7438,32 +7437,38 @@
     </row>
     <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="C333" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="D333" t="s">
         <v>4</v>
+      </c>
+      <c r="E333" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C334" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D334" t="s">
         <v>4</v>
+      </c>
+      <c r="E334" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C335" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D335" t="s">
         <v>4</v>
@@ -7471,211 +7476,172 @@
     </row>
     <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="C336" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D336" t="s">
         <v>4</v>
       </c>
-      <c r="E336" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C337" t="s">
+        <v>108</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>123</v>
+      </c>
+      <c r="C338" t="s">
+        <v>108</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>121</v>
+      </c>
+      <c r="C339" t="s">
+        <v>108</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>221</v>
+      </c>
+      <c r="C340" t="s">
+        <v>108</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>113</v>
+      </c>
+      <c r="C341" t="s">
+        <v>108</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>193</v>
+      </c>
+      <c r="C342" t="s">
         <v>186</v>
       </c>
-      <c r="D337" t="s">
-        <v>4</v>
-      </c>
-      <c r="E337" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>168</v>
-      </c>
-      <c r="C338" t="s">
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>186</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>68</v>
+      </c>
+      <c r="C344" t="s">
+        <v>185</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>164</v>
+      </c>
+      <c r="C345" t="s">
         <v>163</v>
       </c>
-      <c r="D338" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>165</v>
-      </c>
-      <c r="C339" t="s">
-        <v>163</v>
-      </c>
-      <c r="D339" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>125</v>
-      </c>
-      <c r="C340" t="s">
-        <v>108</v>
-      </c>
-      <c r="D340" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>123</v>
-      </c>
-      <c r="C341" t="s">
-        <v>108</v>
-      </c>
-      <c r="D341" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>121</v>
-      </c>
-      <c r="C342" t="s">
-        <v>108</v>
-      </c>
-      <c r="D342" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>221</v>
-      </c>
-      <c r="C343" t="s">
-        <v>108</v>
-      </c>
-      <c r="D343" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>113</v>
-      </c>
-      <c r="C344" t="s">
-        <v>108</v>
-      </c>
-      <c r="D344" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>193</v>
-      </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>55</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D345" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>3</v>
-      </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>219</v>
+      </c>
+      <c r="C347" t="s">
+        <v>108</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>192</v>
+      </c>
+      <c r="C348" t="s">
         <v>186</v>
       </c>
-      <c r="D346" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>68</v>
-      </c>
-      <c r="C347" t="s">
-        <v>185</v>
-      </c>
-      <c r="D347" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>164</v>
-      </c>
-      <c r="C348" t="s">
-        <v>163</v>
-      </c>
       <c r="D348" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>55</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>186</v>
+        <v>152</v>
+      </c>
+      <c r="C349" t="s">
+        <v>148</v>
       </c>
       <c r="D349" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="C350" t="s">
         <v>108</v>
       </c>
       <c r="D350" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>192</v>
-      </c>
-      <c r="C351" t="s">
-        <v>186</v>
-      </c>
-      <c r="D351" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>152</v>
-      </c>
-      <c r="C352" t="s">
-        <v>148</v>
-      </c>
-      <c r="D352" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>122</v>
-      </c>
-      <c r="C353" t="s">
-        <v>108</v>
-      </c>
-      <c r="D353" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A354:A1161 A1:A188 B189 A190:A339">
+  <conditionalFormatting sqref="A351:A1158 A1:A185 B186 A187:A336">
     <cfRule type="duplicateValues" dxfId="0" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
